--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK+Dem.xlsx
@@ -438,31 +438,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.3787840911911741</v>
+        <v>-0.4124627728660366</v>
       </c>
       <c r="C2">
-        <v>0.3440346867014556</v>
+        <v>0.2407291694522483</v>
       </c>
       <c r="D2">
-        <v>0.1057471815898266</v>
+        <v>0.2755691885580304</v>
       </c>
       <c r="E2">
-        <v>0.4549682563976806</v>
+        <v>0.3722234440843098</v>
       </c>
       <c r="F2">
-        <v>0.2994848544298199</v>
+        <v>0.3404212429802884</v>
       </c>
       <c r="G2">
-        <v>0.3346411981957467</v>
+        <v>0.347107486917932</v>
       </c>
       <c r="H2">
-        <v>0.2768188015677371</v>
+        <v>0.3952212293599749</v>
       </c>
       <c r="I2">
-        <v>-0.1760875098066871</v>
+        <v>-0.1951375800843042</v>
       </c>
       <c r="J2">
-        <v>-0.1850167018807946</v>
+        <v>-0.0948756102275672</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,31 +470,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.1988229774838689</v>
+        <v>-0.004774293049095278</v>
       </c>
       <c r="C3">
-        <v>0.119213739521458</v>
+        <v>0.002235100370919186</v>
       </c>
       <c r="D3">
-        <v>0.1461668879025718</v>
+        <v>0.004040963640188717</v>
       </c>
       <c r="E3">
-        <v>0.1770390273545144</v>
+        <v>0.004150340368047901</v>
       </c>
       <c r="F3">
-        <v>0.1830887688165081</v>
+        <v>0.004348546064881657</v>
       </c>
       <c r="G3">
-        <v>0.1948492560558074</v>
+        <v>0.004076670107468561</v>
       </c>
       <c r="H3">
-        <v>0.1598093210986766</v>
+        <v>0.002987253885727933</v>
       </c>
       <c r="I3">
-        <v>-0.05096632279723975</v>
+        <v>-0.0005453748509032686</v>
       </c>
       <c r="J3">
-        <v>-0.09255798553054669</v>
+        <v>-0.001033144622088114</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -502,31 +502,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.2406895527199238</v>
+        <v>-0.003622779023361564</v>
       </c>
       <c r="C4">
-        <v>0.1303140457043397</v>
+        <v>0.002261558738392227</v>
       </c>
       <c r="D4">
-        <v>0.1603028284597707</v>
+        <v>0.00353767294867459</v>
       </c>
       <c r="E4">
-        <v>0.1925699399513906</v>
+        <v>0.004073116903820484</v>
       </c>
       <c r="F4">
-        <v>0.210439583421464</v>
+        <v>0.003582675610023258</v>
       </c>
       <c r="G4">
-        <v>0.2124874473078399</v>
+        <v>0.003075781172509818</v>
       </c>
       <c r="H4">
-        <v>0.1446550933157777</v>
+        <v>0.002369554470787457</v>
       </c>
       <c r="I4">
-        <v>-0.05066565248286919</v>
+        <v>-0.0005443357768652609</v>
       </c>
       <c r="J4">
-        <v>-0.1018026539215388</v>
+        <v>-0.001539019323076042</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -534,31 +534,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.3496826412142365</v>
+        <v>-0.2225427166771793</v>
       </c>
       <c r="C5">
-        <v>0.3526402854352992</v>
+        <v>0.08231638938097613</v>
       </c>
       <c r="D5">
-        <v>0.2351853563278431</v>
+        <v>0.1966345064343889</v>
       </c>
       <c r="E5">
-        <v>0.6707685769583135</v>
+        <v>0.2178274162313475</v>
       </c>
       <c r="F5">
-        <v>0.3506210809085917</v>
+        <v>0.1996919731534133</v>
       </c>
       <c r="G5">
-        <v>0.3857192889301136</v>
+        <v>0.179230549486031</v>
       </c>
       <c r="H5">
-        <v>0.838298913224397</v>
+        <v>0.1540630173712115</v>
       </c>
       <c r="I5">
-        <v>-1.065389644628945</v>
+        <v>-0.04860428761650887</v>
       </c>
       <c r="J5">
-        <v>-0.196882623276895</v>
+        <v>-0.05166005799593094</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -566,31 +566,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.4516200137288315</v>
+        <v>-0.5048127890060836</v>
       </c>
       <c r="C6">
-        <v>0.2750364306086406</v>
+        <v>0.1875510803477663</v>
       </c>
       <c r="D6">
-        <v>0.2117961839294898</v>
+        <v>0.3082839033089578</v>
       </c>
       <c r="E6">
-        <v>0.4901162145953336</v>
+        <v>0.3035932053686498</v>
       </c>
       <c r="F6">
-        <v>0.4052561905494542</v>
+        <v>0.5378390494982557</v>
       </c>
       <c r="G6">
-        <v>0.4315058784659244</v>
+        <v>0.4634174892750169</v>
       </c>
       <c r="H6">
-        <v>0.4463626911241544</v>
+        <v>0.4811071168228278</v>
       </c>
       <c r="I6">
-        <v>-0.3157182709888793</v>
+        <v>-0.2960921859901369</v>
       </c>
       <c r="J6">
-        <v>-0.2514213091824172</v>
+        <v>-0.2003891514374818</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -598,31 +598,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.3966495261504337</v>
+        <v>-0.5444435819072817</v>
       </c>
       <c r="C7">
-        <v>0.3093094589196587</v>
+        <v>0.231920085841284</v>
       </c>
       <c r="D7">
-        <v>0.03639165818187303</v>
+        <v>0.3061124848577026</v>
       </c>
       <c r="E7">
-        <v>0.8457474143159478</v>
+        <v>0.643443448622025</v>
       </c>
       <c r="F7">
-        <v>0.4804920542432506</v>
+        <v>0.4640666510226318</v>
       </c>
       <c r="G7">
-        <v>0.3787385892897436</v>
+        <v>0.4910115522456817</v>
       </c>
       <c r="H7">
-        <v>0.6015209041581737</v>
+        <v>0.6412376250384225</v>
       </c>
       <c r="I7">
-        <v>-0.9588069037989105</v>
+        <v>-0.5293113451950708</v>
       </c>
       <c r="J7">
-        <v>-0.3207867835947852</v>
+        <v>-0.2104253482367689</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -630,31 +630,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.3668663449220451</v>
+        <v>-0.5705473216160234</v>
       </c>
       <c r="C8">
-        <v>0.2111329131588649</v>
+        <v>0.4976742542714126</v>
       </c>
       <c r="D8">
-        <v>0.2962972960659</v>
+        <v>0.3454103545264213</v>
       </c>
       <c r="E8">
-        <v>0.6261492315119463</v>
+        <v>0.8313418190326947</v>
       </c>
       <c r="F8">
-        <v>0.4627571803205939</v>
+        <v>0.4880340058472085</v>
       </c>
       <c r="G8">
-        <v>0.461617114212615</v>
+        <v>0.5377626980234955</v>
       </c>
       <c r="H8">
-        <v>0.5068346911642077</v>
+        <v>0.896644773618882</v>
       </c>
       <c r="I8">
-        <v>-0.8480709774548727</v>
+        <v>-1.276571401704713</v>
       </c>
       <c r="J8">
-        <v>-0.09865819433775661</v>
+        <v>-0.3484876778791601</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -662,31 +662,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.4324779023360931</v>
+        <v>-0.5766635901038609</v>
       </c>
       <c r="C9">
-        <v>0.4563725562987311</v>
+        <v>0.4560015371103845</v>
       </c>
       <c r="D9">
-        <v>0.391329744918013</v>
+        <v>-0.1111746016012173</v>
       </c>
       <c r="E9">
-        <v>0.2914977552918053</v>
+        <v>0.8364696289675491</v>
       </c>
       <c r="F9">
-        <v>0.5095254253359236</v>
+        <v>0.5304662836290114</v>
       </c>
       <c r="G9">
-        <v>0.5121283672055453</v>
+        <v>0.5661834684344269</v>
       </c>
       <c r="H9">
-        <v>0.6171139387437989</v>
+        <v>0.461495617441507</v>
       </c>
       <c r="I9">
-        <v>-0.9693675496101818</v>
+        <v>-0.650111470234798</v>
       </c>
       <c r="J9">
-        <v>-0.6570970049746598</v>
+        <v>-0.3854589921291785</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -694,31 +694,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.4108175446408354</v>
+        <v>-0.5916010291097766</v>
       </c>
       <c r="C10">
-        <v>0.2518126183228004</v>
+        <v>0.2788558197316731</v>
       </c>
       <c r="D10">
-        <v>0.1592847320918961</v>
+        <v>0.4193043019506881</v>
       </c>
       <c r="E10">
-        <v>0.6953428773952386</v>
+        <v>0.3745626171327824</v>
       </c>
       <c r="F10">
-        <v>0.4522146692995933</v>
+        <v>0.5912169459976808</v>
       </c>
       <c r="G10">
-        <v>0.4778198679099445</v>
+        <v>0.6209957763669726</v>
       </c>
       <c r="H10">
-        <v>0.4966749093560097</v>
+        <v>0.7066816054217061</v>
       </c>
       <c r="I10">
-        <v>-0.7027721969768304</v>
+        <v>-1.173208362010614</v>
       </c>
       <c r="J10">
-        <v>-0.3375117286788706</v>
+        <v>-0.4341930189777437</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -726,31 +726,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.7230345673828891</v>
+        <v>-0.5396804872105114</v>
       </c>
       <c r="C11">
-        <v>0.4531305665877178</v>
+        <v>0.294304171644468</v>
       </c>
       <c r="D11">
-        <v>0.07392508618692778</v>
+        <v>0.1702713586155493</v>
       </c>
       <c r="E11">
-        <v>1.004183798335182</v>
+        <v>0.689801522905675</v>
       </c>
       <c r="F11">
-        <v>0.5650503159572874</v>
+        <v>0.3841778403641942</v>
       </c>
       <c r="G11">
-        <v>0.4947265877538607</v>
+        <v>0.3432677000102675</v>
       </c>
       <c r="H11">
-        <v>0.4278319401928473</v>
+        <v>0.4789272597790557</v>
       </c>
       <c r="I11">
-        <v>-0.4853775908953963</v>
+        <v>-0.3256839017310263</v>
       </c>
       <c r="J11">
-        <v>-0.3502660528157797</v>
+        <v>-0.2811863200668536</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -758,31 +758,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.4384652937442633</v>
+        <v>-0.004222486484269729</v>
       </c>
       <c r="C12">
-        <v>0.3273356491900304</v>
+        <v>0.002354423775163561</v>
       </c>
       <c r="D12">
-        <v>0.277432963551846</v>
+        <v>0.003537072116033894</v>
       </c>
       <c r="E12">
-        <v>0.5091304089658583</v>
+        <v>0.00429053813229296</v>
       </c>
       <c r="F12">
-        <v>0.4020614082531577</v>
+        <v>0.004094673781209075</v>
       </c>
       <c r="G12">
-        <v>0.3532975840609535</v>
+        <v>0.003907445105688799</v>
       </c>
       <c r="H12">
-        <v>0.3063576125789242</v>
+        <v>0.002278279988401931</v>
       </c>
       <c r="I12">
-        <v>-0.1858546285805344</v>
+        <v>-0.0005435072688798156</v>
       </c>
       <c r="J12">
-        <v>-0.2802046920921527</v>
+        <v>-0.000992105372183976</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -790,31 +790,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.5020991675849508</v>
+        <v>-0.4101310282186402</v>
       </c>
       <c r="C13">
-        <v>0.3550432433130022</v>
+        <v>0.2898389953922207</v>
       </c>
       <c r="D13">
-        <v>0.1459950686454644</v>
+        <v>0.178616905737971</v>
       </c>
       <c r="E13">
-        <v>0.7772594278366987</v>
+        <v>0.4170190824079056</v>
       </c>
       <c r="F13">
-        <v>0.4435087252095669</v>
+        <v>0.3620098169433144</v>
       </c>
       <c r="G13">
-        <v>0.3746062375695247</v>
+        <v>0.345527438805019</v>
       </c>
       <c r="H13">
-        <v>0.7137726539120968</v>
+        <v>0.3283471810758909</v>
       </c>
       <c r="I13">
-        <v>-0.8674582968377067</v>
+        <v>-0.1685687941232156</v>
       </c>
       <c r="J13">
-        <v>-0.3373094229579493</v>
+        <v>-0.117885159869246</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -822,31 +822,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.621469316730867</v>
+        <v>-0.3414502028882285</v>
       </c>
       <c r="C14">
-        <v>0.4552422548609716</v>
+        <v>0.2202132011794185</v>
       </c>
       <c r="D14">
-        <v>0.1397013069069106</v>
+        <v>0.2900935489867009</v>
       </c>
       <c r="E14">
-        <v>0.6174735187245631</v>
+        <v>0.4597680932100514</v>
       </c>
       <c r="F14">
-        <v>0.6391332154521746</v>
+        <v>0.3038433879597188</v>
       </c>
       <c r="G14">
-        <v>0.7320952445312533</v>
+        <v>0.3612530586126816</v>
       </c>
       <c r="H14">
-        <v>0.6398745871382879</v>
+        <v>0.4340984271662641</v>
       </c>
       <c r="I14">
-        <v>-1.02926793174245</v>
+        <v>-0.3633794671718436</v>
       </c>
       <c r="J14">
-        <v>-0.1934500104603149</v>
+        <v>-0.1599871990660812</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -854,31 +854,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.2141400277000995</v>
+        <v>-0.3718468080059169</v>
       </c>
       <c r="C15">
-        <v>0.08587613840822435</v>
+        <v>0.3851606613163198</v>
       </c>
       <c r="D15">
-        <v>0.1630997146000542</v>
+        <v>0.2275720018716131</v>
       </c>
       <c r="E15">
-        <v>0.2136470236941734</v>
+        <v>0.6707499523166663</v>
       </c>
       <c r="F15">
-        <v>0.1850541431236482</v>
+        <v>0.5817624869805141</v>
       </c>
       <c r="G15">
-        <v>0.1873607618686346</v>
+        <v>0.1298081091702407</v>
       </c>
       <c r="H15">
-        <v>0.1520795916342597</v>
+        <v>0.4868171858609604</v>
       </c>
       <c r="I15">
-        <v>-0.04688040717587078</v>
+        <v>-0.781151697511673</v>
       </c>
       <c r="J15">
-        <v>-0.08057368069101724</v>
+        <v>-0.2308124514388036</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -886,31 +886,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.3336726191361525</v>
+        <v>-0.5765536150207868</v>
       </c>
       <c r="C16">
-        <v>0.5222463143449845</v>
+        <v>0.251599761777857</v>
       </c>
       <c r="D16">
-        <v>0.2692260450301048</v>
+        <v>0.1809879750232753</v>
       </c>
       <c r="E16">
-        <v>0.5536752556336244</v>
+        <v>0.5312457249405215</v>
       </c>
       <c r="F16">
-        <v>0.362488191934567</v>
+        <v>0.5699713558482911</v>
       </c>
       <c r="G16">
-        <v>0.3512725994674287</v>
+        <v>0.6792786564441259</v>
       </c>
       <c r="H16">
-        <v>0.7434627408282906</v>
+        <v>0.6401476050444693</v>
       </c>
       <c r="I16">
-        <v>-1.214446407225132</v>
+        <v>-0.7960770022878934</v>
       </c>
       <c r="J16">
-        <v>-0.3947252660112548</v>
+        <v>-0.5291720079014491</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -918,31 +918,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.4248100946934475</v>
+        <v>-0.1815619170722637</v>
       </c>
       <c r="C17">
-        <v>0.1816068907775163</v>
+        <v>0.1034877736971701</v>
       </c>
       <c r="D17">
-        <v>0.3297941263250124</v>
+        <v>0.1481840951082773</v>
       </c>
       <c r="E17">
-        <v>0.4629497005972695</v>
+        <v>0.1932772130655205</v>
       </c>
       <c r="F17">
-        <v>0.3682948826309816</v>
+        <v>0.1739645339369891</v>
       </c>
       <c r="G17">
-        <v>0.3763690655172864</v>
+        <v>0.1672643153918338</v>
       </c>
       <c r="H17">
-        <v>0.5283289858882115</v>
+        <v>0.1375256347625678</v>
       </c>
       <c r="I17">
-        <v>-0.4327122356914065</v>
+        <v>-0.04738596931126247</v>
       </c>
       <c r="J17">
-        <v>-0.1318971004134426</v>
+        <v>-0.1177177376104305</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -950,31 +950,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.6854483125072581</v>
+        <v>-0.22259866636904</v>
       </c>
       <c r="C18">
-        <v>0.136705608037794</v>
+        <v>0.1178021332536782</v>
       </c>
       <c r="D18">
-        <v>0.1138674105467165</v>
+        <v>0.1588532015825878</v>
       </c>
       <c r="E18">
-        <v>0.7357882700815521</v>
+        <v>0.1948231971719558</v>
       </c>
       <c r="F18">
-        <v>0.4871279881109343</v>
+        <v>0.1983205407234742</v>
       </c>
       <c r="G18">
-        <v>0.5436312614075965</v>
+        <v>0.1967950440833099</v>
       </c>
       <c r="H18">
-        <v>0.5608608129444087</v>
+        <v>0.1194880232957133</v>
       </c>
       <c r="I18">
-        <v>-0.2889205930812028</v>
+        <v>-0.04953557339550976</v>
       </c>
       <c r="J18">
-        <v>-0.2471276442609996</v>
+        <v>-0.1113413889047663</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -982,31 +982,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.4784141349000871</v>
+        <v>-0.4385444244713367</v>
       </c>
       <c r="C19">
-        <v>0.2022657556907857</v>
+        <v>0.1730209069178273</v>
       </c>
       <c r="D19">
-        <v>0.106364712860394</v>
+        <v>0.3245090744894533</v>
       </c>
       <c r="E19">
-        <v>0.6179570395255618</v>
+        <v>0.5987041377698669</v>
       </c>
       <c r="F19">
-        <v>0.5542820331429863</v>
+        <v>0.3558603253827943</v>
       </c>
       <c r="G19">
-        <v>0.6065494690583402</v>
+        <v>0.3712383522794321</v>
       </c>
       <c r="H19">
-        <v>0.5783980011737733</v>
+        <v>0.3358939251184034</v>
       </c>
       <c r="I19">
-        <v>-0.6058807579589717</v>
+        <v>-0.3518327175276488</v>
       </c>
       <c r="J19">
-        <v>-0.1955307138151469</v>
+        <v>-0.2285097583944578</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1014,31 +1014,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.4835856261645546</v>
+        <v>-0.004706874827465787</v>
       </c>
       <c r="C20">
-        <v>0.2316298898811296</v>
+        <v>0.002933377734909334</v>
       </c>
       <c r="D20">
-        <v>0.2951374802198332</v>
+        <v>0.003878057535972808</v>
       </c>
       <c r="E20">
-        <v>0.6767301645894197</v>
+        <v>0.003679760176674986</v>
       </c>
       <c r="F20">
-        <v>0.3673748626548802</v>
+        <v>0.004453633453955096</v>
       </c>
       <c r="G20">
-        <v>0.3257831796327557</v>
+        <v>0.004232792150498852</v>
       </c>
       <c r="H20">
-        <v>0.3773273449300933</v>
+        <v>0.00257552607241225</v>
       </c>
       <c r="I20">
-        <v>-0.3233129864485232</v>
+        <v>-0.0005458334805532732</v>
       </c>
       <c r="J20">
-        <v>-0.1460074328629107</v>
+        <v>-0.00116527944284726</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1046,31 +1046,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.00456327906314898</v>
+        <v>-0.004239565626708825</v>
       </c>
       <c r="C21">
-        <v>0.002684029625084361</v>
+        <v>0.002140942898070701</v>
       </c>
       <c r="D21">
-        <v>0.003768946306530929</v>
+        <v>0.003182302522966591</v>
       </c>
       <c r="E21">
-        <v>0.003826926700642737</v>
+        <v>0.003951129485173429</v>
       </c>
       <c r="F21">
-        <v>0.004242931217589462</v>
+        <v>0.004160848586721576</v>
       </c>
       <c r="G21">
-        <v>0.004195767826961819</v>
+        <v>0.003949811043991973</v>
       </c>
       <c r="H21">
-        <v>0.002712617996615905</v>
+        <v>0.002753705871885698</v>
       </c>
       <c r="I21">
-        <v>-0.0005449262620558341</v>
+        <v>-0.0005445297057600627</v>
       </c>
       <c r="J21">
-        <v>-0.001199250620338848</v>
+        <v>-0.00204006964240593</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1078,31 +1078,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.378109768019248</v>
+        <v>-0.5017675312865939</v>
       </c>
       <c r="C22">
-        <v>0.1421083421413359</v>
+        <v>0.260602450438409</v>
       </c>
       <c r="D22">
-        <v>0.2824125819648949</v>
+        <v>0.2419288642892599</v>
       </c>
       <c r="E22">
-        <v>0.4256407893392435</v>
+        <v>0.7504781920495711</v>
       </c>
       <c r="F22">
-        <v>0.3219277993965778</v>
+        <v>0.4254734778587525</v>
       </c>
       <c r="G22">
-        <v>0.3228726634338012</v>
+        <v>0.4246530980765115</v>
       </c>
       <c r="H22">
-        <v>0.3634899161142737</v>
+        <v>0.5855840422496784</v>
       </c>
       <c r="I22">
-        <v>-0.2144403516764105</v>
+        <v>-0.7055493136078235</v>
       </c>
       <c r="J22">
-        <v>-0.197999013137155</v>
+        <v>-0.3100931538370428</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1110,31 +1110,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.004516777056538653</v>
+        <v>-0.5441457390162197</v>
       </c>
       <c r="C23">
-        <v>0.002304673716022597</v>
+        <v>0.2591565041507579</v>
       </c>
       <c r="D23">
-        <v>0.003331336196636249</v>
+        <v>0.3089684808289586</v>
       </c>
       <c r="E23">
-        <v>0.004159177899088953</v>
+        <v>0.5356819149008897</v>
       </c>
       <c r="F23">
-        <v>0.004101195516782875</v>
+        <v>0.4374284974692593</v>
       </c>
       <c r="G23">
-        <v>0.004270499950571446</v>
+        <v>0.4393169228200726</v>
       </c>
       <c r="H23">
-        <v>0.003019684742203143</v>
+        <v>0.3683010879847303</v>
       </c>
       <c r="I23">
-        <v>-0.0005424378855733199</v>
+        <v>-0.3526788445756061</v>
       </c>
       <c r="J23">
-        <v>-0.001350407923994375</v>
+        <v>-0.2580406145800136</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.003958260502209543</v>
+        <v>-0.004728283740172244</v>
       </c>
       <c r="C24">
-        <v>0.002309563896761808</v>
+        <v>0.002878342917541005</v>
       </c>
       <c r="D24">
-        <v>0.003307032266510062</v>
+        <v>0.003686763441185814</v>
       </c>
       <c r="E24">
-        <v>0.003654122834455087</v>
+        <v>0.004446675361522124</v>
       </c>
       <c r="F24">
-        <v>0.003914635856537051</v>
+        <v>0.004092544411312421</v>
       </c>
       <c r="G24">
-        <v>0.003994935899330907</v>
+        <v>0.003884468609378681</v>
       </c>
       <c r="H24">
-        <v>0.002478210808708929</v>
+        <v>0.002462907572324194</v>
       </c>
       <c r="I24">
-        <v>-0.0005439147215158525</v>
+        <v>-0.0005457987487043194</v>
       </c>
       <c r="J24">
-        <v>-0.001771823400634951</v>
+        <v>-0.001921927020087738</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1174,31 +1174,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.242264351958352</v>
+        <v>-0.4655872048641201</v>
       </c>
       <c r="C25">
-        <v>0.1233241712029011</v>
+        <v>0.3393718464900661</v>
       </c>
       <c r="D25">
-        <v>0.1411197493210126</v>
+        <v>0.3360536889161013</v>
       </c>
       <c r="E25">
-        <v>0.1711297324062099</v>
+        <v>0.5956023674702999</v>
       </c>
       <c r="F25">
-        <v>0.2250884570029864</v>
+        <v>0.3079431517354611</v>
       </c>
       <c r="G25">
-        <v>0.2218811272043991</v>
+        <v>0.347702463107157</v>
       </c>
       <c r="H25">
-        <v>0.1606895435892337</v>
+        <v>0.32469735148074</v>
       </c>
       <c r="I25">
-        <v>-0.04319226599742504</v>
+        <v>-0.3573427504510129</v>
       </c>
       <c r="J25">
-        <v>-0.09877639637510599</v>
+        <v>-0.3379624725299371</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1206,31 +1206,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.005564573313804702</v>
+        <v>-0.4910336540399757</v>
       </c>
       <c r="C26">
-        <v>0.00296452076178698</v>
+        <v>0.3512928529241564</v>
       </c>
       <c r="D26">
-        <v>0.003906646982741391</v>
+        <v>0.3397443414877198</v>
       </c>
       <c r="E26">
-        <v>0.004496185999496001</v>
+        <v>0.5997243665167269</v>
       </c>
       <c r="F26">
-        <v>0.004607163299011924</v>
+        <v>0.5522583661795787</v>
       </c>
       <c r="G26">
-        <v>0.004245282769650462</v>
+        <v>0.6054750099927565</v>
       </c>
       <c r="H26">
-        <v>0.002879851795353718</v>
+        <v>0.7473633992878741</v>
       </c>
       <c r="I26">
-        <v>-0.000543158312021228</v>
+        <v>-1.435077301256537</v>
       </c>
       <c r="J26">
-        <v>-0.00238824334424678</v>
+        <v>-0.3371792622317544</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1238,31 +1238,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.3400983077457883</v>
+        <v>-0.005204808999784219</v>
       </c>
       <c r="C27">
-        <v>0.3702527032337651</v>
+        <v>0.002598916494298395</v>
       </c>
       <c r="D27">
-        <v>0.1542867169751996</v>
+        <v>0.004004297564347625</v>
       </c>
       <c r="E27">
-        <v>0.5209915027392943</v>
+        <v>0.004235466698385855</v>
       </c>
       <c r="F27">
-        <v>0.5261636888802104</v>
+        <v>0.004573965852835713</v>
       </c>
       <c r="G27">
-        <v>0.5549356515100234</v>
+        <v>0.004597486638477179</v>
       </c>
       <c r="H27">
-        <v>0.4939851015160729</v>
+        <v>0.002514023261669543</v>
       </c>
       <c r="I27">
-        <v>-1.022270399063679</v>
+        <v>-0.0005437507045654451</v>
       </c>
       <c r="J27">
-        <v>-0.1889781571100472</v>
+        <v>-0.001512079968419055</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1270,31 +1270,31 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.3994214306999684</v>
+        <v>-0.7423183457446345</v>
       </c>
       <c r="C28">
-        <v>0.286521894403639</v>
+        <v>0.3119561409125526</v>
       </c>
       <c r="D28">
-        <v>0.4685714969798011</v>
+        <v>0.09090318132782507</v>
       </c>
       <c r="E28">
-        <v>0.5446355436275486</v>
+        <v>0.9339737682909334</v>
       </c>
       <c r="F28">
-        <v>0.4035379817475072</v>
+        <v>0.5677021914877646</v>
       </c>
       <c r="G28">
-        <v>0.3194671363406524</v>
+        <v>0.5883417672048933</v>
       </c>
       <c r="H28">
-        <v>0.4417303937552673</v>
+        <v>0.4517179023259203</v>
       </c>
       <c r="I28">
-        <v>-0.6034861702049943</v>
+        <v>-0.4984727401622778</v>
       </c>
       <c r="J28">
-        <v>-0.2729930003403721</v>
+        <v>-0.2427135289118339</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1302,31 +1302,31 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.2076872072670715</v>
+        <v>-0.3661421998231925</v>
       </c>
       <c r="C29">
-        <v>0.09124448705003653</v>
+        <v>0.214062617534257</v>
       </c>
       <c r="D29">
-        <v>0.1513808489388255</v>
+        <v>0.3301144177240711</v>
       </c>
       <c r="E29">
-        <v>0.1876433212417255</v>
+        <v>0.3891451203347664</v>
       </c>
       <c r="F29">
-        <v>0.1801688674431953</v>
+        <v>0.2696689374035716</v>
       </c>
       <c r="G29">
-        <v>0.1730812121991818</v>
+        <v>0.3310562986765543</v>
       </c>
       <c r="H29">
-        <v>0.1927550119744249</v>
+        <v>0.3651696166731762</v>
       </c>
       <c r="I29">
-        <v>-0.04813414997839935</v>
+        <v>-0.2634136540100663</v>
       </c>
       <c r="J29">
-        <v>-0.1076440053970748</v>
+        <v>-0.2010813988278033</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1334,31 +1334,31 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.005004985482213646</v>
+        <v>-0.4440051241294239</v>
       </c>
       <c r="C30">
-        <v>0.002888442115761482</v>
+        <v>0.02324244655055691</v>
       </c>
       <c r="D30">
-        <v>0.003959837678975895</v>
+        <v>0.5682463926330388</v>
       </c>
       <c r="E30">
-        <v>0.004374230277309423</v>
+        <v>0.6385433248799476</v>
       </c>
       <c r="F30">
-        <v>0.004332346332121294</v>
+        <v>0.4129679434784725</v>
       </c>
       <c r="G30">
-        <v>0.004011333119964153</v>
+        <v>0.4466810884733738</v>
       </c>
       <c r="H30">
-        <v>0.002687373657374129</v>
+        <v>0.6494135608299467</v>
       </c>
       <c r="I30">
-        <v>-0.0005444771432443974</v>
+        <v>-0.9830909094011743</v>
       </c>
       <c r="J30">
-        <v>-0.001651329459351303</v>
+        <v>-0.3510660632091774</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1366,31 +1366,31 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.4399710465974184</v>
+        <v>-0.546021189647102</v>
       </c>
       <c r="C31">
-        <v>0.2785638804004669</v>
+        <v>0.607188783068317</v>
       </c>
       <c r="D31">
-        <v>0.2023534554427223</v>
+        <v>0.2419584350814042</v>
       </c>
       <c r="E31">
-        <v>0.7002530291541426</v>
+        <v>0.607383060717253</v>
       </c>
       <c r="F31">
-        <v>0.5091974571476025</v>
+        <v>0.6255549309528514</v>
       </c>
       <c r="G31">
-        <v>0.5487139578170741</v>
+        <v>0.6613845488657131</v>
       </c>
       <c r="H31">
-        <v>0.5856088485828892</v>
+        <v>0.4487211279906898</v>
       </c>
       <c r="I31">
-        <v>-0.8012352603797724</v>
+        <v>-1.067329925887971</v>
       </c>
       <c r="J31">
-        <v>-0.1771879734975717</v>
+        <v>-0.3380826901848135</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1398,31 +1398,31 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.4778402687370066</v>
+        <v>-0.2092514009191271</v>
       </c>
       <c r="C32">
-        <v>0.2167346789878579</v>
+        <v>0.1128941839675793</v>
       </c>
       <c r="D32">
-        <v>0.1369513663967065</v>
+        <v>0.179401564556903</v>
       </c>
       <c r="E32">
-        <v>0.3677116659298492</v>
+        <v>0.1918511173867718</v>
       </c>
       <c r="F32">
-        <v>0.6614545332964916</v>
+        <v>0.1686096885127477</v>
       </c>
       <c r="G32">
-        <v>0.7771998354028857</v>
+        <v>0.1863568636387666</v>
       </c>
       <c r="H32">
-        <v>0.5815115425087727</v>
+        <v>0.170977758375298</v>
       </c>
       <c r="I32">
-        <v>-1.01037855053092</v>
+        <v>-0.0529839516888823</v>
       </c>
       <c r="J32">
-        <v>-0.2484207858324404</v>
+        <v>-0.07330861234989254</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1430,31 +1430,31 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.3849459026534032</v>
+        <v>-0.004585733499602972</v>
       </c>
       <c r="C33">
-        <v>0.3836504512460512</v>
+        <v>0.002405521177011643</v>
       </c>
       <c r="D33">
-        <v>0.05786793101693791</v>
+        <v>0.003774660878111743</v>
       </c>
       <c r="E33">
-        <v>0.5842810654103165</v>
+        <v>0.004593056408472188</v>
       </c>
       <c r="F33">
-        <v>0.4472223139293193</v>
+        <v>0.004126384794224524</v>
       </c>
       <c r="G33">
-        <v>0.5006985915381701</v>
+        <v>0.003801157608871756</v>
       </c>
       <c r="H33">
-        <v>0.5444165329195207</v>
+        <v>0.002419740753217482</v>
       </c>
       <c r="I33">
-        <v>-0.7763299974605067</v>
+        <v>-0.0005450197081514094</v>
       </c>
       <c r="J33">
-        <v>-0.3233099213701844</v>
+        <v>-0.001540426906643292</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1462,31 +1462,31 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.3414122142207336</v>
+        <v>-0.4148522234673507</v>
       </c>
       <c r="C34">
-        <v>0.2188037301700961</v>
+        <v>0.2247537238739877</v>
       </c>
       <c r="D34">
-        <v>0.2112628430592933</v>
+        <v>0.2678729169086148</v>
       </c>
       <c r="E34">
-        <v>0.4818560503996471</v>
+        <v>0.4760154619364405</v>
       </c>
       <c r="F34">
-        <v>0.5385791925171238</v>
+        <v>0.4958021719728641</v>
       </c>
       <c r="G34">
-        <v>0.5349618721130652</v>
+        <v>0.5221164558613797</v>
       </c>
       <c r="H34">
-        <v>0.4435999739264821</v>
+        <v>0.6857715157178429</v>
       </c>
       <c r="I34">
-        <v>-0.9309665426924945</v>
+        <v>-0.861890732309829</v>
       </c>
       <c r="J34">
-        <v>-0.2975540792955256</v>
+        <v>-0.2527854784740915</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1494,31 +1494,31 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.2723573714636887</v>
+        <v>-0.005002378392378643</v>
       </c>
       <c r="C35">
-        <v>0.4265797481366128</v>
+        <v>0.002543731828568094</v>
       </c>
       <c r="D35">
-        <v>0.2434535624905912</v>
+        <v>0.004074930198800723</v>
       </c>
       <c r="E35">
-        <v>0.6014725542645338</v>
+        <v>0.003987073619907282</v>
       </c>
       <c r="F35">
-        <v>0.4541135881674649</v>
+        <v>0.004336346397751583</v>
       </c>
       <c r="G35">
-        <v>0.3859070054621698</v>
+        <v>0.004129722210455562</v>
       </c>
       <c r="H35">
-        <v>0.7439633124313018</v>
+        <v>0.003058478735419121</v>
       </c>
       <c r="I35">
-        <v>-1.308024860845576</v>
+        <v>-0.0005432495195981242</v>
       </c>
       <c r="J35">
-        <v>-0.1851450692838742</v>
+        <v>-0.001939077196627936</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1526,31 +1526,31 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.4482384883763505</v>
+        <v>-0.4762198729596861</v>
       </c>
       <c r="C36">
-        <v>0.339343616422653</v>
+        <v>0.2581518152367572</v>
       </c>
       <c r="D36">
-        <v>-0.01138523320940506</v>
+        <v>0.5770323035199999</v>
       </c>
       <c r="E36">
-        <v>0.6026126158789022</v>
+        <v>0.5293229774936129</v>
       </c>
       <c r="F36">
-        <v>0.5885665181242422</v>
+        <v>0.3963094948514331</v>
       </c>
       <c r="G36">
-        <v>0.5894065748793619</v>
+        <v>0.4064438226489364</v>
       </c>
       <c r="H36">
-        <v>0.6084976313541822</v>
+        <v>0.7211318102203813</v>
       </c>
       <c r="I36">
-        <v>-0.8263370698870699</v>
+        <v>-1.064359892723992</v>
       </c>
       <c r="J36">
-        <v>-0.1188208802580196</v>
+        <v>-0.3511553989651642</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1558,31 +1558,31 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.4316433858953937</v>
+        <v>-0.4112394583774243</v>
       </c>
       <c r="C37">
-        <v>0.22828112375769</v>
+        <v>0.2964360276396045</v>
       </c>
       <c r="D37">
-        <v>0.1538299417493099</v>
+        <v>0.2978678842559163</v>
       </c>
       <c r="E37">
-        <v>0.4490277878046009</v>
+        <v>0.4965040222930623</v>
       </c>
       <c r="F37">
-        <v>0.3848366722341683</v>
+        <v>0.358495733601622</v>
       </c>
       <c r="G37">
-        <v>0.3750732046823956</v>
+        <v>0.3685167122672221</v>
       </c>
       <c r="H37">
-        <v>0.3112175823202151</v>
+        <v>0.3569847964879564</v>
       </c>
       <c r="I37">
-        <v>-0.1819141310629557</v>
+        <v>-0.3299320137584185</v>
       </c>
       <c r="J37">
-        <v>-0.1763210140606148</v>
+        <v>-0.07269732128536929</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1590,31 +1590,31 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.41351055477807</v>
+        <v>-0.5421362153510794</v>
       </c>
       <c r="C38">
-        <v>0.1801721986654655</v>
+        <v>0.5565759328623695</v>
       </c>
       <c r="D38">
-        <v>0.2638856120609144</v>
+        <v>0.1136428416494707</v>
       </c>
       <c r="E38">
-        <v>0.4967467427043888</v>
+        <v>0.6127136886570317</v>
       </c>
       <c r="F38">
-        <v>0.3226746017269576</v>
+        <v>0.626030156129313</v>
       </c>
       <c r="G38">
-        <v>0.3127066289392446</v>
+        <v>0.5923136572573862</v>
       </c>
       <c r="H38">
-        <v>0.3040662069837705</v>
+        <v>0.5303255769952406</v>
       </c>
       <c r="I38">
-        <v>-0.1530397895190638</v>
+        <v>-0.9221453533403744</v>
       </c>
       <c r="J38">
-        <v>-0.1633335507040293</v>
+        <v>-0.3018681235138344</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1622,31 +1622,31 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.3790618248614814</v>
+        <v>-0.6045361583766655</v>
       </c>
       <c r="C39">
-        <v>0.3011690071549391</v>
+        <v>0.4337819757143941</v>
       </c>
       <c r="D39">
-        <v>0.29498749588523</v>
+        <v>0.6612582965898562</v>
       </c>
       <c r="E39">
-        <v>0.3255100630119557</v>
+        <v>0.7368347844027435</v>
       </c>
       <c r="F39">
-        <v>0.3615750411697352</v>
+        <v>0.4708468827929309</v>
       </c>
       <c r="G39">
-        <v>0.3739576391826245</v>
+        <v>0.4443408984673866</v>
       </c>
       <c r="H39">
-        <v>0.4019408416842614</v>
+        <v>0.5323254098603492</v>
       </c>
       <c r="I39">
-        <v>-0.3335176601277452</v>
+        <v>-1.014893153576005</v>
       </c>
       <c r="J39">
-        <v>-0.3052239651047045</v>
+        <v>-0.5278444431742964</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1654,31 +1654,31 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.4549417075607543</v>
+        <v>-0.4405758783469586</v>
       </c>
       <c r="C40">
-        <v>0.2619072570766366</v>
+        <v>0.3497104060477685</v>
       </c>
       <c r="D40">
-        <v>0.3075967667573233</v>
+        <v>0.08983234537783942</v>
       </c>
       <c r="E40">
-        <v>0.2873695917828004</v>
+        <v>0.579402156815177</v>
       </c>
       <c r="F40">
-        <v>0.3577115116231261</v>
+        <v>0.4768770522502511</v>
       </c>
       <c r="G40">
-        <v>0.3903073526112712</v>
+        <v>0.5919932332537005</v>
       </c>
       <c r="H40">
-        <v>0.4001920711098631</v>
+        <v>0.5878731446446782</v>
       </c>
       <c r="I40">
-        <v>-0.1531596879090328</v>
+        <v>-0.8934545936075958</v>
       </c>
       <c r="J40">
-        <v>-0.1311091023568952</v>
+        <v>-0.2788884906408615</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1686,31 +1686,31 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.3578022080903913</v>
+        <v>-0.1986626557803325</v>
       </c>
       <c r="C41">
-        <v>0.3268388305358247</v>
+        <v>0.09184519933549916</v>
       </c>
       <c r="D41">
-        <v>0.3709645191138175</v>
+        <v>0.129045462104674</v>
       </c>
       <c r="E41">
-        <v>0.6820979347251778</v>
+        <v>0.1969227794849361</v>
       </c>
       <c r="F41">
-        <v>0.4883613885088169</v>
+        <v>0.1885275241166001</v>
       </c>
       <c r="G41">
-        <v>0.5008150400304419</v>
+        <v>0.1918041995385121</v>
       </c>
       <c r="H41">
-        <v>0.6700399862427577</v>
+        <v>0.1636225676223872</v>
       </c>
       <c r="I41">
-        <v>-1.196655231292396</v>
+        <v>-0.04960039959080034</v>
       </c>
       <c r="J41">
-        <v>-0.2296356384332268</v>
+        <v>-0.08512704502110775</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1718,31 +1718,31 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.4741335101266412</v>
+        <v>-0.4181346279485557</v>
       </c>
       <c r="C42">
-        <v>0.4132685154497259</v>
+        <v>0.2113769559694593</v>
       </c>
       <c r="D42">
-        <v>0.08364177437576659</v>
+        <v>0.241069713020426</v>
       </c>
       <c r="E42">
-        <v>0.8508181610797639</v>
+        <v>0.434084130082888</v>
       </c>
       <c r="F42">
-        <v>0.513169398580086</v>
+        <v>0.347529834737897</v>
       </c>
       <c r="G42">
-        <v>0.4706150152052944</v>
+        <v>0.3663895570813548</v>
       </c>
       <c r="H42">
-        <v>0.7418506078722629</v>
+        <v>0.2874314424904637</v>
       </c>
       <c r="I42">
-        <v>-1.056475315894472</v>
+        <v>-0.2064024787056231</v>
       </c>
       <c r="J42">
-        <v>-0.4100234947196252</v>
+        <v>-0.2340941015349655</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1750,31 +1750,31 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.3560262360079159</v>
+        <v>-0.5021911332976365</v>
       </c>
       <c r="C43">
-        <v>0.1508947230097285</v>
+        <v>0.3588537017778533</v>
       </c>
       <c r="D43">
-        <v>0.2884303845803002</v>
+        <v>-0.03147095321255946</v>
       </c>
       <c r="E43">
-        <v>0.3801044199916571</v>
+        <v>0.4754305526481523</v>
       </c>
       <c r="F43">
-        <v>0.3482672879907732</v>
+        <v>0.7533240152422326</v>
       </c>
       <c r="G43">
-        <v>0.3718361001563776</v>
+        <v>0.7727317204111027</v>
       </c>
       <c r="H43">
-        <v>0.3109517359970076</v>
+        <v>0.6289823250336092</v>
       </c>
       <c r="I43">
-        <v>-0.1764591450764925</v>
+        <v>-1.275518174075417</v>
       </c>
       <c r="J43">
-        <v>-0.1755592742897169</v>
+        <v>-0.2475947678162279</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1782,31 +1782,31 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.4506094580470293</v>
+        <v>-0.3294110489533855</v>
       </c>
       <c r="C44">
-        <v>0.4254867189381127</v>
+        <v>0.4013368827522096</v>
       </c>
       <c r="D44">
-        <v>0.1341069646902098</v>
+        <v>0.1861935937358101</v>
       </c>
       <c r="E44">
-        <v>0.6173163394828928</v>
+        <v>0.3480609221890821</v>
       </c>
       <c r="F44">
-        <v>0.5127032595160025</v>
+        <v>0.4317429358226353</v>
       </c>
       <c r="G44">
-        <v>0.5993687581573128</v>
+        <v>0.5125329592046324</v>
       </c>
       <c r="H44">
-        <v>0.6164181747589424</v>
+        <v>0.5315331522289601</v>
       </c>
       <c r="I44">
-        <v>-1.069102354709089</v>
+        <v>-0.760494266422552</v>
       </c>
       <c r="J44">
-        <v>-0.2180380078831364</v>
+        <v>-0.4182147635728669</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1814,31 +1814,31 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.7057819002372122</v>
+        <v>-0.003930383452315042</v>
       </c>
       <c r="C45">
-        <v>0.1480306380056398</v>
+        <v>0.002218030038103068</v>
       </c>
       <c r="D45">
-        <v>0.02470282556573195</v>
+        <v>0.003698286990702352</v>
       </c>
       <c r="E45">
-        <v>0.695729575206922</v>
+        <v>0.004205305421574353</v>
       </c>
       <c r="F45">
-        <v>0.814819532118491</v>
+        <v>0.003904552493259845</v>
       </c>
       <c r="G45">
-        <v>0.6927117191525194</v>
+        <v>0.003531144021956347</v>
       </c>
       <c r="H45">
-        <v>0.5437633575679691</v>
+        <v>0.001913278820121949</v>
       </c>
       <c r="I45">
-        <v>-0.5933901053727304</v>
+        <v>-0.0005450066836684482</v>
       </c>
       <c r="J45">
-        <v>-0.4026886746295575</v>
+        <v>-0.001442044107496688</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1846,31 +1846,31 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.4721014143733022</v>
+        <v>-0.003415802859529912</v>
       </c>
       <c r="C46">
-        <v>0.2861895282146344</v>
+        <v>0.001781518310754074</v>
       </c>
       <c r="D46">
-        <v>0.2160419136777164</v>
+        <v>0.003083270511007824</v>
       </c>
       <c r="E46">
-        <v>0.4602132607672227</v>
+        <v>0.003818663201400163</v>
       </c>
       <c r="F46">
-        <v>0.325683982864216</v>
+        <v>0.003049888881047952</v>
       </c>
       <c r="G46">
-        <v>0.3173632090630932</v>
+        <v>0.003693857848544676</v>
       </c>
       <c r="H46">
-        <v>0.4749837575423823</v>
+        <v>0.00308275940261376</v>
       </c>
       <c r="I46">
-        <v>-0.2104597455030123</v>
+        <v>-0.0005442891470461833</v>
       </c>
       <c r="J46">
-        <v>-0.2289381864540534</v>
+        <v>-0.001133382963661517</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1878,31 +1878,31 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.4816239984088683</v>
+        <v>-0.2235871132305268</v>
       </c>
       <c r="C47">
-        <v>0.102209433693338</v>
+        <v>0.1443727924417489</v>
       </c>
       <c r="D47">
-        <v>0.3882355989647555</v>
+        <v>0.1508422010584139</v>
       </c>
       <c r="E47">
-        <v>0.5384681794581867</v>
+        <v>0.2177448563445161</v>
       </c>
       <c r="F47">
-        <v>0.4809494515701775</v>
+        <v>0.1906708773604852</v>
       </c>
       <c r="G47">
-        <v>0.4511792759401771</v>
+        <v>0.1890453561002546</v>
       </c>
       <c r="H47">
-        <v>0.4666105348029023</v>
+        <v>0.1394171568026062</v>
       </c>
       <c r="I47">
-        <v>-0.6159084499465638</v>
+        <v>-0.04962667991434069</v>
       </c>
       <c r="J47">
-        <v>-0.2030548372893712</v>
+        <v>-0.09497960333638193</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1910,31 +1910,31 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.3187629992268254</v>
+        <v>-0.4853400349301282</v>
       </c>
       <c r="C48">
-        <v>0.287569414481094</v>
+        <v>0.5913129413769008</v>
       </c>
       <c r="D48">
-        <v>0.1351618765779855</v>
+        <v>0.207596270793389</v>
       </c>
       <c r="E48">
-        <v>0.6568526006823512</v>
+        <v>0.606388034973166</v>
       </c>
       <c r="F48">
-        <v>0.406483137324298</v>
+        <v>0.506509851040059</v>
       </c>
       <c r="G48">
-        <v>0.4122095749400411</v>
+        <v>0.5536895666365282</v>
       </c>
       <c r="H48">
-        <v>0.5503481356071747</v>
+        <v>0.3229637528288456</v>
       </c>
       <c r="I48">
-        <v>-0.895014871259041</v>
+        <v>-0.9320805125441821</v>
       </c>
       <c r="J48">
-        <v>-0.3338491062932031</v>
+        <v>-0.5580583314475747</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1942,31 +1942,31 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.3472789995363144</v>
+        <v>-0.3447979804342836</v>
       </c>
       <c r="C49">
-        <v>0.1906585763105639</v>
+        <v>0.3070858476524085</v>
       </c>
       <c r="D49">
-        <v>0.2567867003153805</v>
+        <v>0.2139150277079432</v>
       </c>
       <c r="E49">
-        <v>0.4194986583235688</v>
+        <v>0.3718158123651851</v>
       </c>
       <c r="F49">
-        <v>0.3367508239033882</v>
+        <v>0.3435197137265724</v>
       </c>
       <c r="G49">
-        <v>0.3446287134881609</v>
+        <v>0.3583648100686341</v>
       </c>
       <c r="H49">
-        <v>0.359877853074126</v>
+        <v>0.4486287168099853</v>
       </c>
       <c r="I49">
-        <v>-0.2647595202057063</v>
+        <v>-0.3727814800270249</v>
       </c>
       <c r="J49">
-        <v>-0.07118380117608457</v>
+        <v>-0.2696728477817186</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1974,31 +1974,31 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.4450647958267557</v>
+        <v>-0.003741156914350464</v>
       </c>
       <c r="C50">
-        <v>0.3798750766901705</v>
+        <v>0.002106315700431601</v>
       </c>
       <c r="D50">
-        <v>-0.01322336314102313</v>
+        <v>0.003554084395778184</v>
       </c>
       <c r="E50">
-        <v>0.6113402916664925</v>
+        <v>0.003601928871544916</v>
       </c>
       <c r="F50">
-        <v>0.5057721977551648</v>
+        <v>0.003960662024223801</v>
       </c>
       <c r="G50">
-        <v>0.6118837167219121</v>
+        <v>0.003667015303653172</v>
       </c>
       <c r="H50">
-        <v>0.4614557119592667</v>
+        <v>0.002196034904416834</v>
       </c>
       <c r="I50">
-        <v>-0.6808833010273473</v>
+        <v>-0.0005434730460254674</v>
       </c>
       <c r="J50">
-        <v>-0.2040663855235444</v>
+        <v>-0.00159334091487323</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2006,31 +2006,31 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.4362224828177239</v>
+        <v>-0.457967418913115</v>
       </c>
       <c r="C51">
-        <v>0.3185917953463134</v>
+        <v>0.2533600946904196</v>
       </c>
       <c r="D51">
-        <v>0.1443007547239437</v>
+        <v>0.3408597543151449</v>
       </c>
       <c r="E51">
-        <v>0.3925616780816486</v>
+        <v>0.6937501397426156</v>
       </c>
       <c r="F51">
-        <v>0.3759189874411881</v>
+        <v>0.5596540748164681</v>
       </c>
       <c r="G51">
-        <v>0.3951771086655509</v>
+        <v>0.5441063244822313</v>
       </c>
       <c r="H51">
-        <v>0.3496967323582732</v>
+        <v>0.4066569833553579</v>
       </c>
       <c r="I51">
-        <v>-0.1934618935127524</v>
+        <v>-1.001929882149108</v>
       </c>
       <c r="J51">
-        <v>-0.226633910931699</v>
+        <v>-0.3544276736059279</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2038,31 +2038,31 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.450938338406237</v>
+        <v>-0.6270864576045493</v>
       </c>
       <c r="C52">
-        <v>0.141794085388866</v>
+        <v>0.3331546332791765</v>
       </c>
       <c r="D52">
-        <v>0.3743339918311357</v>
+        <v>0.1359904002949461</v>
       </c>
       <c r="E52">
-        <v>0.5446644454272642</v>
+        <v>0.7934095006532578</v>
       </c>
       <c r="F52">
-        <v>0.3374398185707767</v>
+        <v>0.5464141783411937</v>
       </c>
       <c r="G52">
-        <v>0.3571353566713674</v>
+        <v>0.5918278187933382</v>
       </c>
       <c r="H52">
-        <v>0.4712911034440878</v>
+        <v>0.5858976517971324</v>
       </c>
       <c r="I52">
-        <v>-0.3790539788068069</v>
+        <v>-0.6637969236203127</v>
       </c>
       <c r="J52">
-        <v>-0.2703693691201819</v>
+        <v>-0.2975349527584618</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2070,31 +2070,31 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.3905532764570235</v>
+        <v>-0.04143940140634136</v>
       </c>
       <c r="C53">
-        <v>0.2354581229263073</v>
+        <v>0.01843042351573818</v>
       </c>
       <c r="D53">
-        <v>0.2329786789335257</v>
+        <v>0.03408414890277684</v>
       </c>
       <c r="E53">
-        <v>0.3746265227879196</v>
+        <v>0.03992577814663666</v>
       </c>
       <c r="F53">
-        <v>0.3406949137589276</v>
+        <v>0.03727690279334675</v>
       </c>
       <c r="G53">
-        <v>0.3651596809026251</v>
+        <v>0.03495913502818877</v>
       </c>
       <c r="H53">
-        <v>0.2929497532334812</v>
+        <v>0.02808641484259015</v>
       </c>
       <c r="I53">
-        <v>-0.1628519349203009</v>
+        <v>-0.005413785041228771</v>
       </c>
       <c r="J53">
-        <v>-0.2581693617038205</v>
+        <v>-0.01030241921339769</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2102,31 +2102,31 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.2350030437482596</v>
+        <v>-0.3531611338733671</v>
       </c>
       <c r="C54">
-        <v>0.1146303538919682</v>
+        <v>0.2090072944616899</v>
       </c>
       <c r="D54">
-        <v>0.1549276098888857</v>
+        <v>0.1489492960727843</v>
       </c>
       <c r="E54">
-        <v>0.2163337109016409</v>
+        <v>0.6420152044659045</v>
       </c>
       <c r="F54">
-        <v>0.2096131865147534</v>
+        <v>0.4850668014283447</v>
       </c>
       <c r="G54">
-        <v>0.1969997121560593</v>
+        <v>0.5763660277656296</v>
       </c>
       <c r="H54">
-        <v>0.1419050848312761</v>
+        <v>0.7086246111032678</v>
       </c>
       <c r="I54">
-        <v>-0.04806012313462481</v>
+        <v>-1.169479271029452</v>
       </c>
       <c r="J54">
-        <v>-0.09199145544117474</v>
+        <v>-0.2614229103635434</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2134,31 +2134,31 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.4702356772746153</v>
+        <v>-0.4851445692055413</v>
       </c>
       <c r="C55">
-        <v>0.5034903827524236</v>
+        <v>0.1929189055927009</v>
       </c>
       <c r="D55">
-        <v>0.1600511882438575</v>
+        <v>0.2150564318361234</v>
       </c>
       <c r="E55">
-        <v>0.4788933509984879</v>
+        <v>0.3698099040407861</v>
       </c>
       <c r="F55">
-        <v>0.5389380149733919</v>
+        <v>0.4143323104151604</v>
       </c>
       <c r="G55">
-        <v>0.5575390009105611</v>
+        <v>0.4366308819916448</v>
       </c>
       <c r="H55">
-        <v>0.5265350584753186</v>
+        <v>0.3737670140216481</v>
       </c>
       <c r="I55">
-        <v>-0.5947731629565508</v>
+        <v>-0.2103291318523949</v>
       </c>
       <c r="J55">
-        <v>-0.3245752477193726</v>
+        <v>-0.2517238602284024</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2166,31 +2166,31 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.4247624780592977</v>
+        <v>-0.5271068287935408</v>
       </c>
       <c r="C56">
-        <v>0.1202187157927986</v>
+        <v>0.3320438020670378</v>
       </c>
       <c r="D56">
-        <v>0.2283770147436016</v>
+        <v>0.3142314074853641</v>
       </c>
       <c r="E56">
-        <v>0.5816267449662197</v>
+        <v>0.5459717280019022</v>
       </c>
       <c r="F56">
-        <v>0.3754195783951115</v>
+        <v>0.4055314829879542</v>
       </c>
       <c r="G56">
-        <v>0.4097832630395572</v>
+        <v>0.4203328110451433</v>
       </c>
       <c r="H56">
-        <v>0.3884270531371722</v>
+        <v>0.3072036791659643</v>
       </c>
       <c r="I56">
-        <v>-0.28909272963647</v>
+        <v>-0.2753191176775789</v>
       </c>
       <c r="J56">
-        <v>-0.2026445758225949</v>
+        <v>-0.2969746049802354</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2198,31 +2198,31 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.4606589775419928</v>
+        <v>-0.3387701441047204</v>
       </c>
       <c r="C57">
-        <v>0.2288198510798536</v>
+        <v>-0.1291938558334945</v>
       </c>
       <c r="D57">
-        <v>0.3360742187287371</v>
+        <v>0.2967793872753459</v>
       </c>
       <c r="E57">
-        <v>0.5599416973908227</v>
+        <v>0.4587506384805717</v>
       </c>
       <c r="F57">
-        <v>0.4133391387895288</v>
+        <v>0.4231790449931844</v>
       </c>
       <c r="G57">
-        <v>0.3633630509976655</v>
+        <v>0.5031799759887217</v>
       </c>
       <c r="H57">
-        <v>0.3777739940893483</v>
+        <v>0.7397556630320848</v>
       </c>
       <c r="I57">
-        <v>-0.3793706968153616</v>
+        <v>-0.7798219339043324</v>
       </c>
       <c r="J57">
-        <v>-0.2425304690207378</v>
+        <v>-0.06158042486360152</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2230,31 +2230,31 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.5107471545829886</v>
+        <v>-0.7853361529045841</v>
       </c>
       <c r="C58">
-        <v>0.3547475226541075</v>
+        <v>0.4567594632570081</v>
       </c>
       <c r="D58">
-        <v>0.2040655475814394</v>
+        <v>-0.04974658891322361</v>
       </c>
       <c r="E58">
-        <v>0.7794012226266399</v>
+        <v>0.9361284988443995</v>
       </c>
       <c r="F58">
-        <v>0.5237155670732526</v>
+        <v>0.6741295341840154</v>
       </c>
       <c r="G58">
-        <v>0.5243729590819198</v>
+        <v>0.550509048642962</v>
       </c>
       <c r="H58">
-        <v>0.5516617816797051</v>
+        <v>0.7489410405911286</v>
       </c>
       <c r="I58">
-        <v>-0.9499929839817451</v>
+        <v>-0.6377296173483952</v>
       </c>
       <c r="J58">
-        <v>-0.4021207235161953</v>
+        <v>-0.2205211570280429</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2262,31 +2262,31 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.4611620298729632</v>
+        <v>-0.460174383762355</v>
       </c>
       <c r="C59">
-        <v>0.3206460071734933</v>
+        <v>0.317365041916131</v>
       </c>
       <c r="D59">
-        <v>0.3288230925029985</v>
+        <v>0.2614881028575698</v>
       </c>
       <c r="E59">
-        <v>0.3290938745094493</v>
+        <v>0.4792934829021948</v>
       </c>
       <c r="F59">
-        <v>0.4137905586629345</v>
+        <v>0.6114529556311786</v>
       </c>
       <c r="G59">
-        <v>0.4199901050822808</v>
+        <v>0.5995095269554296</v>
       </c>
       <c r="H59">
-        <v>0.4527867355692712</v>
+        <v>0.4572814046427447</v>
       </c>
       <c r="I59">
-        <v>-0.3614474205135074</v>
+        <v>-0.8635817606905567</v>
       </c>
       <c r="J59">
-        <v>-0.1729366019449222</v>
+        <v>-0.3890706436810816</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2294,31 +2294,31 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.03654702550693426</v>
+        <v>-0.4797172164442017</v>
       </c>
       <c r="C60">
-        <v>0.02140337935187912</v>
+        <v>0.126546824892585</v>
       </c>
       <c r="D60">
-        <v>0.03231854582391078</v>
+        <v>0.4057903637543511</v>
       </c>
       <c r="E60">
-        <v>0.03776163486540313</v>
+        <v>0.5964672620918029</v>
       </c>
       <c r="F60">
-        <v>0.03124341641670651</v>
+        <v>0.3497355754227213</v>
       </c>
       <c r="G60">
-        <v>0.03311519356497528</v>
+        <v>0.3308082667654692</v>
       </c>
       <c r="H60">
-        <v>0.02519214623328131</v>
+        <v>0.4670707163109165</v>
       </c>
       <c r="I60">
-        <v>-0.005482737193167195</v>
+        <v>-0.3477916657896972</v>
       </c>
       <c r="J60">
-        <v>-0.01468871915775294</v>
+        <v>-0.1033093330180467</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2326,31 +2326,31 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.4129813865763078</v>
+        <v>-0.5290079229231295</v>
       </c>
       <c r="C61">
-        <v>0.2138449843022227</v>
+        <v>0.3441664690562615</v>
       </c>
       <c r="D61">
-        <v>0.2240415417213101</v>
+        <v>0.07372872234437081</v>
       </c>
       <c r="E61">
-        <v>0.3632356319600847</v>
+        <v>0.8185326946486977</v>
       </c>
       <c r="F61">
-        <v>0.3858499242998938</v>
+        <v>0.414620032702932</v>
       </c>
       <c r="G61">
-        <v>0.4395745270530845</v>
+        <v>0.4953057776726569</v>
       </c>
       <c r="H61">
-        <v>0.3358455167722439</v>
+        <v>0.487123393940287</v>
       </c>
       <c r="I61">
-        <v>-0.1634793878203085</v>
+        <v>-0.4445013313960305</v>
       </c>
       <c r="J61">
-        <v>-0.1231600446843373</v>
+        <v>-0.2297580039575255</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2358,31 +2358,31 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.4241225026256762</v>
+        <v>-0.497373300283435</v>
       </c>
       <c r="C62">
-        <v>0.3948437045844505</v>
+        <v>0.3612267971580488</v>
       </c>
       <c r="D62">
-        <v>0.1584195715263541</v>
+        <v>0.2567407779306807</v>
       </c>
       <c r="E62">
-        <v>0.5131216075846154</v>
+        <v>0.7432581185024865</v>
       </c>
       <c r="F62">
-        <v>0.2645560468179091</v>
+        <v>0.4692116869018127</v>
       </c>
       <c r="G62">
-        <v>0.3441598619174431</v>
+        <v>0.4534529041753318</v>
       </c>
       <c r="H62">
-        <v>0.4515617013471158</v>
+        <v>0.5773222969218801</v>
       </c>
       <c r="I62">
-        <v>-0.3155325731658489</v>
+        <v>-0.829344783246235</v>
       </c>
       <c r="J62">
-        <v>-0.3661611519532249</v>
+        <v>-0.3001835469214754</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2390,31 +2390,31 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.372845692737276</v>
+        <v>-0.5593713315522193</v>
       </c>
       <c r="C63">
-        <v>0.2458598157398074</v>
+        <v>0.4785423349836004</v>
       </c>
       <c r="D63">
-        <v>0.3917422601301562</v>
+        <v>-0.08087925222573096</v>
       </c>
       <c r="E63">
-        <v>0.4153528435775055</v>
+        <v>0.5493269390686704</v>
       </c>
       <c r="F63">
-        <v>0.3039965470872367</v>
+        <v>0.6343948803453068</v>
       </c>
       <c r="G63">
-        <v>0.3269350298710372</v>
+        <v>0.7092738818684198</v>
       </c>
       <c r="H63">
-        <v>0.4252044615417508</v>
+        <v>0.6543955308268711</v>
       </c>
       <c r="I63">
-        <v>-0.3383604213319227</v>
+        <v>-0.9277278891958721</v>
       </c>
       <c r="J63">
-        <v>-0.1606279759662305</v>
+        <v>-0.3825888331477633</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2422,31 +2422,31 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.3366845822694717</v>
+        <v>-0.4115613143801867</v>
       </c>
       <c r="C64">
-        <v>0.2619570655324641</v>
+        <v>0.2655126164347698</v>
       </c>
       <c r="D64">
-        <v>0.2340802857530586</v>
+        <v>0.2759833091771977</v>
       </c>
       <c r="E64">
-        <v>0.4096540644474075</v>
+        <v>0.5697426860782961</v>
       </c>
       <c r="F64">
-        <v>0.3439353778625505</v>
+        <v>0.5077081302037402</v>
       </c>
       <c r="G64">
-        <v>0.3932368367516029</v>
+        <v>0.5463038172813145</v>
       </c>
       <c r="H64">
-        <v>0.3730588000506571</v>
+        <v>0.5651769563800807</v>
       </c>
       <c r="I64">
-        <v>-0.3445180942554247</v>
+        <v>-0.797617710008261</v>
       </c>
       <c r="J64">
-        <v>-0.1869352213054421</v>
+        <v>-0.1324160514072328</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2454,31 +2454,31 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.004379606615804726</v>
+        <v>-0.436380695527281</v>
       </c>
       <c r="C65">
-        <v>0.00279161950034531</v>
+        <v>0.2778408720816571</v>
       </c>
       <c r="D65">
-        <v>0.003323301347604479</v>
+        <v>0.1553307815865158</v>
       </c>
       <c r="E65">
-        <v>0.00400691080993072</v>
+        <v>0.6417275268688259</v>
       </c>
       <c r="F65">
-        <v>0.004055804967697489</v>
+        <v>0.3780103374015992</v>
       </c>
       <c r="G65">
-        <v>0.004229117676922452</v>
+        <v>0.3542573644607266</v>
       </c>
       <c r="H65">
-        <v>0.002690722905740215</v>
+        <v>0.3725432812497243</v>
       </c>
       <c r="I65">
-        <v>-0.0005438254385119952</v>
+        <v>-0.2722946253297198</v>
       </c>
       <c r="J65">
-        <v>-0.000930159704902844</v>
+        <v>-0.2251464957021473</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2486,31 +2486,31 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.02885665228056511</v>
+        <v>-0.7180112172042379</v>
       </c>
       <c r="C66">
-        <v>0.02237690981964594</v>
+        <v>0.3888908347375252</v>
       </c>
       <c r="D66">
-        <v>0.02161476171976042</v>
+        <v>0.2080945241493979</v>
       </c>
       <c r="E66">
-        <v>0.02786292198027289</v>
+        <v>0.6846269824283456</v>
       </c>
       <c r="F66">
-        <v>0.03322259799935751</v>
+        <v>0.7501541200178714</v>
       </c>
       <c r="G66">
-        <v>0.03188937704420824</v>
+        <v>0.7914434091146475</v>
       </c>
       <c r="H66">
-        <v>0.0276577265269614</v>
+        <v>0.569048938998877</v>
       </c>
       <c r="I66">
-        <v>-0.005309863789111317</v>
+        <v>-1.154883537949821</v>
       </c>
       <c r="J66">
-        <v>-0.01050669095032992</v>
+        <v>-0.5159977674109207</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2518,31 +2518,31 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.5056703958695096</v>
+        <v>-0.4472722344300382</v>
       </c>
       <c r="C67">
-        <v>0.218880936515112</v>
+        <v>0.2135641628799648</v>
       </c>
       <c r="D67">
-        <v>0.3021095098180872</v>
+        <v>0.2878106296472405</v>
       </c>
       <c r="E67">
-        <v>0.4840389202629877</v>
+        <v>0.529004589895299</v>
       </c>
       <c r="F67">
-        <v>0.3751887905190212</v>
+        <v>0.4193585309843192</v>
       </c>
       <c r="G67">
-        <v>0.3443132855617534</v>
+        <v>0.4170704781412241</v>
       </c>
       <c r="H67">
-        <v>0.364917162459529</v>
+        <v>0.3158692610704116</v>
       </c>
       <c r="I67">
-        <v>-0.1705681694042495</v>
+        <v>-0.3200940546622792</v>
       </c>
       <c r="J67">
-        <v>-0.2111898886806042</v>
+        <v>-0.2604278781153918</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2550,31 +2550,31 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.2831410409265646</v>
+        <v>-0.3587863618153509</v>
       </c>
       <c r="C68">
-        <v>0.2346089644839958</v>
+        <v>0.1747366840218773</v>
       </c>
       <c r="D68">
-        <v>0.213541730781779</v>
+        <v>0.1704124863330697</v>
       </c>
       <c r="E68">
-        <v>0.4898209819492043</v>
+        <v>0.264646246432384</v>
       </c>
       <c r="F68">
-        <v>0.4469336687469742</v>
+        <v>0.3833645508991648</v>
       </c>
       <c r="G68">
-        <v>0.4646954933925542</v>
+        <v>0.450709337111083</v>
       </c>
       <c r="H68">
-        <v>0.5898777130739622</v>
+        <v>0.3412529719759336</v>
       </c>
       <c r="I68">
-        <v>-0.9098054849010294</v>
+        <v>-0.2020946248392252</v>
       </c>
       <c r="J68">
-        <v>-0.08250048143203534</v>
+        <v>-0.1425534404649114</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2582,31 +2582,31 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.6715255785735661</v>
+        <v>-0.4790743961490253</v>
       </c>
       <c r="C69">
-        <v>0.3636648756189221</v>
+        <v>0.2279008182705102</v>
       </c>
       <c r="D69">
-        <v>0.4271756850025875</v>
+        <v>0.1945173003155481</v>
       </c>
       <c r="E69">
-        <v>0.6709308234919039</v>
+        <v>0.6719777121153915</v>
       </c>
       <c r="F69">
-        <v>0.512777577269233</v>
+        <v>0.3601409213737592</v>
       </c>
       <c r="G69">
-        <v>0.6130962397554424</v>
+        <v>0.4274914307023103</v>
       </c>
       <c r="H69">
-        <v>1.001504196648812</v>
+        <v>0.3193742564806604</v>
       </c>
       <c r="I69">
-        <v>-1.119940064504009</v>
+        <v>-0.2599217271518417</v>
       </c>
       <c r="J69">
-        <v>-0.1461347033904447</v>
+        <v>-0.1843526463717359</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2614,31 +2614,31 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.5178966297313732</v>
+        <v>-0.3828898702976155</v>
       </c>
       <c r="C70">
-        <v>0.1854705104622481</v>
+        <v>0.1629278488263406</v>
       </c>
       <c r="D70">
-        <v>0.3183237680304811</v>
+        <v>0.3711141027872567</v>
       </c>
       <c r="E70">
-        <v>0.4485657420549762</v>
+        <v>0.4294187348338488</v>
       </c>
       <c r="F70">
-        <v>0.4733083156895612</v>
+        <v>0.2835982795087253</v>
       </c>
       <c r="G70">
-        <v>0.477892012393417</v>
+        <v>0.2799498818615946</v>
       </c>
       <c r="H70">
-        <v>0.4480115613064453</v>
+        <v>0.392334444895471</v>
       </c>
       <c r="I70">
-        <v>-0.2742849539692354</v>
+        <v>-0.2225613151332872</v>
       </c>
       <c r="J70">
-        <v>-0.01974265135618148</v>
+        <v>-0.1035712234375304</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2646,31 +2646,31 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.4270528027170929</v>
+        <v>-0.4666739114100886</v>
       </c>
       <c r="C71">
-        <v>0.2645150138553487</v>
+        <v>0.062640306855358</v>
       </c>
       <c r="D71">
-        <v>0.1185369832538058</v>
+        <v>0.4726117655448193</v>
       </c>
       <c r="E71">
-        <v>0.4759349836451255</v>
+        <v>0.589594062236467</v>
       </c>
       <c r="F71">
-        <v>0.5667893625986983</v>
+        <v>0.4573168220161499</v>
       </c>
       <c r="G71">
-        <v>0.5774954132459619</v>
+        <v>0.4351768837166538</v>
       </c>
       <c r="H71">
-        <v>0.7151020430872416</v>
+        <v>0.5818289262720624</v>
       </c>
       <c r="I71">
-        <v>-1.003983904114537</v>
+        <v>-0.7606134529558769</v>
       </c>
       <c r="J71">
-        <v>-0.2697571810992863</v>
+        <v>-0.136886555162402</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2678,31 +2678,31 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.3678349534144518</v>
+        <v>-0.004516709315489622</v>
       </c>
       <c r="C72">
-        <v>0.553400658510382</v>
+        <v>0.00263778432103006</v>
       </c>
       <c r="D72">
-        <v>-0.06055702019174512</v>
+        <v>0.003694911240569602</v>
       </c>
       <c r="E72">
-        <v>0.6840155778374521</v>
+        <v>0.004245649391388243</v>
       </c>
       <c r="F72">
-        <v>0.5176156851916123</v>
+        <v>0.003551846920436504</v>
       </c>
       <c r="G72">
-        <v>0.4799151847782537</v>
+        <v>0.003665579632005331</v>
       </c>
       <c r="H72">
-        <v>0.5790405074059362</v>
+        <v>0.003090679431778853</v>
       </c>
       <c r="I72">
-        <v>-1.06304030326212</v>
+        <v>-0.0005451274315288215</v>
       </c>
       <c r="J72">
-        <v>-0.4205330169746256</v>
+        <v>-0.002332776999794783</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2710,31 +2710,31 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.005921887944505022</v>
+        <v>-0.5139471154380373</v>
       </c>
       <c r="C73">
-        <v>0.002773362170093125</v>
+        <v>0.4485606189449038</v>
       </c>
       <c r="D73">
-        <v>0.004449105351348057</v>
+        <v>0.02873318090955209</v>
       </c>
       <c r="E73">
-        <v>0.004558708528352296</v>
+        <v>0.7154972742054406</v>
       </c>
       <c r="F73">
-        <v>0.004851204253359878</v>
+        <v>0.5514348926519688</v>
       </c>
       <c r="G73">
-        <v>0.004543283552812741</v>
+        <v>0.5450756432576472</v>
       </c>
       <c r="H73">
-        <v>0.003026679405472695</v>
+        <v>0.6028335903735773</v>
       </c>
       <c r="I73">
-        <v>-0.0005439782954570595</v>
+        <v>-0.8482646771958531</v>
       </c>
       <c r="J73">
-        <v>-0.001379454118029414</v>
+        <v>-0.3889354156866809</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2742,31 +2742,31 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.4939131346550948</v>
+        <v>-0.5885553894456619</v>
       </c>
       <c r="C74">
-        <v>0.4303705884383484</v>
+        <v>0.3277002949339589</v>
       </c>
       <c r="D74">
-        <v>0.1500430532726491</v>
+        <v>0.4671177939273137</v>
       </c>
       <c r="E74">
-        <v>0.7200997710704915</v>
+        <v>0.4943279508548107</v>
       </c>
       <c r="F74">
-        <v>0.3859197947656023</v>
+        <v>0.5904262357137513</v>
       </c>
       <c r="G74">
-        <v>0.4368592152788063</v>
+        <v>0.6838197706866046</v>
       </c>
       <c r="H74">
-        <v>0.8148961632470835</v>
+        <v>0.8778724461271311</v>
       </c>
       <c r="I74">
-        <v>-0.9031105316432072</v>
+        <v>-1.215828731771266</v>
       </c>
       <c r="J74">
-        <v>-0.2819800140860614</v>
+        <v>-0.2277718712811835</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2774,31 +2774,31 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.005247227809787064</v>
+        <v>-0.0357863937787894</v>
       </c>
       <c r="C75">
-        <v>0.001763175116675902</v>
+        <v>0.02190155074504957</v>
       </c>
       <c r="D75">
-        <v>0.004343227601560682</v>
+        <v>0.0316229042018972</v>
       </c>
       <c r="E75">
-        <v>0.004535949307529134</v>
+        <v>0.03196749856491517</v>
       </c>
       <c r="F75">
-        <v>0.004275764766901062</v>
+        <v>0.03486600602730797</v>
       </c>
       <c r="G75">
-        <v>0.00403294055324983</v>
+        <v>0.03397136003310815</v>
       </c>
       <c r="H75">
-        <v>0.003632210651024901</v>
+        <v>0.02617407901377168</v>
       </c>
       <c r="I75">
-        <v>-0.0005455026324184758</v>
+        <v>-0.005325059593798768</v>
       </c>
       <c r="J75">
-        <v>-0.001348388633846354</v>
+        <v>-0.01380149102046601</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2806,31 +2806,31 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.5271949684915396</v>
+        <v>-0.004515750775262911</v>
       </c>
       <c r="C76">
-        <v>0.3283170021076666</v>
+        <v>0.00258742838358499</v>
       </c>
       <c r="D76">
-        <v>0.2085612576193648</v>
+        <v>0.003953624848885466</v>
       </c>
       <c r="E76">
-        <v>0.5856502635395874</v>
+        <v>0.003945313972855637</v>
       </c>
       <c r="F76">
-        <v>0.5840997178059261</v>
+        <v>0.003810795053473837</v>
       </c>
       <c r="G76">
-        <v>0.54524804243701</v>
+        <v>0.00389928182732625</v>
       </c>
       <c r="H76">
-        <v>0.6725202083356444</v>
+        <v>0.003135621348272198</v>
       </c>
       <c r="I76">
-        <v>-0.8481212224407098</v>
+        <v>-0.0005455620607633321</v>
       </c>
       <c r="J76">
-        <v>-0.3142151953402507</v>
+        <v>-0.001485533111817686</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2838,31 +2838,31 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.003730108153675674</v>
+        <v>-0.4936556088799371</v>
       </c>
       <c r="C77">
-        <v>0.002263522511620655</v>
+        <v>0.178161193298405</v>
       </c>
       <c r="D77">
-        <v>0.003381092028702337</v>
+        <v>0.2628587447650615</v>
       </c>
       <c r="E77">
-        <v>0.003518011953022971</v>
+        <v>0.4790241914148455</v>
       </c>
       <c r="F77">
-        <v>0.003866231309717418</v>
+        <v>0.3310409402243098</v>
       </c>
       <c r="G77">
-        <v>0.0035177429625451</v>
+        <v>0.3472790382304011</v>
       </c>
       <c r="H77">
-        <v>0.002616059884296333</v>
+        <v>0.4027250046771078</v>
       </c>
       <c r="I77">
-        <v>-0.000545269899178872</v>
+        <v>-0.1903469761806372</v>
       </c>
       <c r="J77">
-        <v>-0.001800172843690358</v>
+        <v>-0.295638036183139</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2870,31 +2870,31 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.5160865493418165</v>
+        <v>-0.4478579200607188</v>
       </c>
       <c r="C78">
-        <v>0.3442817188121018</v>
+        <v>0.3924866146874882</v>
       </c>
       <c r="D78">
-        <v>0.1162806324297925</v>
+        <v>0.3501185419845628</v>
       </c>
       <c r="E78">
-        <v>0.5438744500493328</v>
+        <v>0.6380510847971289</v>
       </c>
       <c r="F78">
-        <v>0.4518804020257332</v>
+        <v>0.4600682427827354</v>
       </c>
       <c r="G78">
-        <v>0.4771053484600462</v>
+        <v>0.4398584738594195</v>
       </c>
       <c r="H78">
-        <v>0.5059104655508861</v>
+        <v>0.7248994363081205</v>
       </c>
       <c r="I78">
-        <v>-0.3612371883237675</v>
+        <v>-1.166563997386823</v>
       </c>
       <c r="J78">
-        <v>-0.260727446225485</v>
+        <v>-0.1176576742105932</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2902,31 +2902,31 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.4952656012940652</v>
+        <v>-0.4578191747691141</v>
       </c>
       <c r="C79">
-        <v>0.2528657889653682</v>
+        <v>0.2445378832100324</v>
       </c>
       <c r="D79">
-        <v>0.1814051909411729</v>
+        <v>0.2261139732204807</v>
       </c>
       <c r="E79">
-        <v>0.4454485763156484</v>
+        <v>0.6037717411741841</v>
       </c>
       <c r="F79">
-        <v>0.4147571873071276</v>
+        <v>0.3724365695185586</v>
       </c>
       <c r="G79">
-        <v>0.4416700364286416</v>
+        <v>0.425746427270954</v>
       </c>
       <c r="H79">
-        <v>0.4447329319256249</v>
+        <v>0.3068929356138402</v>
       </c>
       <c r="I79">
-        <v>-0.2933845599977521</v>
+        <v>-0.185193345377917</v>
       </c>
       <c r="J79">
-        <v>-0.2262957806058558</v>
+        <v>-0.1668501229590585</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2934,31 +2934,31 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.211694015564563</v>
+        <v>-0.461698653876547</v>
       </c>
       <c r="C80">
-        <v>0.1349180824968113</v>
+        <v>0.3031502701154488</v>
       </c>
       <c r="D80">
-        <v>0.1092245469534749</v>
+        <v>0.2066169986160377</v>
       </c>
       <c r="E80">
-        <v>0.1819488401338598</v>
+        <v>0.5175364966617487</v>
       </c>
       <c r="F80">
-        <v>0.2243919764824595</v>
+        <v>0.3884604589744681</v>
       </c>
       <c r="G80">
-        <v>0.2241569345027157</v>
+        <v>0.3663695582085897</v>
       </c>
       <c r="H80">
-        <v>0.1258504545449843</v>
+        <v>0.6557634769556741</v>
       </c>
       <c r="I80">
-        <v>-0.04617283081475585</v>
+        <v>-0.4622385967196654</v>
       </c>
       <c r="J80">
-        <v>-0.05598941763883791</v>
+        <v>-0.2500558908801872</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2966,31 +2966,31 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.4156417153868875</v>
+        <v>-0.7037803663044369</v>
       </c>
       <c r="C81">
-        <v>0.2681672877297926</v>
+        <v>0.4849616038274109</v>
       </c>
       <c r="D81">
-        <v>0.2028552591066279</v>
+        <v>0.05341355447598323</v>
       </c>
       <c r="E81">
-        <v>0.4016726565623902</v>
+        <v>0.8733858380055675</v>
       </c>
       <c r="F81">
-        <v>0.3330510785957815</v>
+        <v>0.611680174352035</v>
       </c>
       <c r="G81">
-        <v>0.3264324297648912</v>
+        <v>0.6758490516498058</v>
       </c>
       <c r="H81">
-        <v>0.3642752170349499</v>
+        <v>0.4338332665619477</v>
       </c>
       <c r="I81">
-        <v>-0.1536689514736196</v>
+        <v>-0.8069150584472773</v>
       </c>
       <c r="J81">
-        <v>-0.1736934130906836</v>
+        <v>-0.3631871758898704</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2998,31 +2998,31 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.4051733461253331</v>
+        <v>-0.5003570983938811</v>
       </c>
       <c r="C82">
-        <v>0.07455872546665421</v>
+        <v>0.2233430177969797</v>
       </c>
       <c r="D82">
-        <v>0.3243689753897726</v>
+        <v>0.4457934176622556</v>
       </c>
       <c r="E82">
-        <v>0.2972543491130476</v>
+        <v>0.4565965393027014</v>
       </c>
       <c r="F82">
-        <v>0.4356193936617703</v>
+        <v>0.5446939709430706</v>
       </c>
       <c r="G82">
-        <v>0.4322848901925231</v>
+        <v>0.5798964559634578</v>
       </c>
       <c r="H82">
-        <v>0.4703975290149259</v>
+        <v>0.5280917522703998</v>
       </c>
       <c r="I82">
-        <v>-0.4237395829187945</v>
+        <v>-0.9927878853922613</v>
       </c>
       <c r="J82">
-        <v>-0.3431216657658975</v>
+        <v>-0.4915903035070542</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3030,31 +3030,31 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.3443281267737095</v>
+        <v>-0.4991204095076036</v>
       </c>
       <c r="C83">
-        <v>0.2540715607348985</v>
+        <v>0.2617386035321245</v>
       </c>
       <c r="D83">
-        <v>0.1916067242424866</v>
+        <v>0.1860495899238861</v>
       </c>
       <c r="E83">
-        <v>0.3339687285982287</v>
+        <v>0.6206399709350152</v>
       </c>
       <c r="F83">
-        <v>0.3326845404335783</v>
+        <v>0.3717555365769708</v>
       </c>
       <c r="G83">
-        <v>0.3698091591823231</v>
+        <v>0.4313543747946955</v>
       </c>
       <c r="H83">
-        <v>0.2834613338184397</v>
+        <v>0.4058649996506097</v>
       </c>
       <c r="I83">
-        <v>-0.1950758781048308</v>
+        <v>-0.3040365415608246</v>
       </c>
       <c r="J83">
-        <v>-0.1756771541647088</v>
+        <v>-0.1968385338390107</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3062,31 +3062,31 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.004667308205933638</v>
+        <v>-0.548744161242531</v>
       </c>
       <c r="C84">
-        <v>0.002724680025639498</v>
+        <v>0.445635563976186</v>
       </c>
       <c r="D84">
-        <v>0.00352939139028595</v>
+        <v>0.3935184658337725</v>
       </c>
       <c r="E84">
-        <v>0.003510939897718284</v>
+        <v>0.5107983630322369</v>
       </c>
       <c r="F84">
-        <v>0.004640771981821688</v>
+        <v>0.5595710528912095</v>
       </c>
       <c r="G84">
-        <v>0.00467574850082837</v>
+        <v>0.5452136240882128</v>
       </c>
       <c r="H84">
-        <v>0.0021135517437064</v>
+        <v>1.036693745116924</v>
       </c>
       <c r="I84">
-        <v>-0.000542952895857044</v>
+        <v>-1.349409615539211</v>
       </c>
       <c r="J84">
-        <v>-0.00148200716133606</v>
+        <v>-0.1525298465822645</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3094,31 +3094,31 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.439623592433005</v>
+        <v>-0.3820315604542199</v>
       </c>
       <c r="C85">
-        <v>0.1539442492777373</v>
+        <v>0.1830631000751002</v>
       </c>
       <c r="D85">
-        <v>0.2225534332746259</v>
+        <v>0.2381672941258317</v>
       </c>
       <c r="E85">
-        <v>0.3947741746978686</v>
+        <v>0.4519133350159984</v>
       </c>
       <c r="F85">
-        <v>0.456728267715148</v>
+        <v>0.3288066191375586</v>
       </c>
       <c r="G85">
-        <v>0.5057856596459404</v>
+        <v>0.2850291116095082</v>
       </c>
       <c r="H85">
-        <v>0.3260795617033363</v>
+        <v>0.3636975361212014</v>
       </c>
       <c r="I85">
-        <v>-0.3089937898045473</v>
+        <v>-0.2252274319482683</v>
       </c>
       <c r="J85">
-        <v>-0.2942702177543967</v>
+        <v>-0.1958905217473489</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3126,31 +3126,31 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.5183123329862351</v>
+        <v>-0.7149571832041303</v>
       </c>
       <c r="C86">
-        <v>0.1372593486587254</v>
+        <v>0.4665742024599496</v>
       </c>
       <c r="D86">
-        <v>0.2707786494785503</v>
+        <v>0.05183764363413388</v>
       </c>
       <c r="E86">
-        <v>0.7998248851199319</v>
+        <v>0.6254674908301238</v>
       </c>
       <c r="F86">
-        <v>0.4700821961981534</v>
+        <v>0.6427838702469638</v>
       </c>
       <c r="G86">
-        <v>0.5756009699561284</v>
+        <v>0.6854432996572609</v>
       </c>
       <c r="H86">
-        <v>0.819356487806346</v>
+        <v>0.4778915281288971</v>
       </c>
       <c r="I86">
-        <v>-1.03425504914272</v>
+        <v>-0.6098040930055284</v>
       </c>
       <c r="J86">
-        <v>-0.1306000323958326</v>
+        <v>-0.3053621318249916</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3158,31 +3158,31 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.3929948534968205</v>
+        <v>-0.2192567520106913</v>
       </c>
       <c r="C87">
-        <v>0.4809120680538378</v>
+        <v>0.1216989500988822</v>
       </c>
       <c r="D87">
-        <v>0.412254620572206</v>
+        <v>0.1695067673719945</v>
       </c>
       <c r="E87">
-        <v>0.6342921343755199</v>
+        <v>0.205241203023414</v>
       </c>
       <c r="F87">
-        <v>0.4651013254476455</v>
+        <v>0.2118528157412377</v>
       </c>
       <c r="G87">
-        <v>0.4587439196028028</v>
+        <v>0.2020439864141698</v>
       </c>
       <c r="H87">
-        <v>0.6149956044867273</v>
+        <v>0.09330113365880248</v>
       </c>
       <c r="I87">
-        <v>-1.351638224129117</v>
+        <v>-0.04923003155645243</v>
       </c>
       <c r="J87">
-        <v>-0.1896441696551809</v>
+        <v>-0.07571388081108088</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3190,31 +3190,31 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.5996017995626476</v>
+        <v>-0.5342013410848044</v>
       </c>
       <c r="C88">
-        <v>0.3372852106956415</v>
+        <v>0.2716386925567372</v>
       </c>
       <c r="D88">
-        <v>0.1825198263751555</v>
+        <v>0.257106521684851</v>
       </c>
       <c r="E88">
-        <v>0.5019786852189375</v>
+        <v>0.3671399730620448</v>
       </c>
       <c r="F88">
-        <v>0.6669167425068458</v>
+        <v>0.66649880356761</v>
       </c>
       <c r="G88">
-        <v>0.7147889065834743</v>
+        <v>0.7737547396886901</v>
       </c>
       <c r="H88">
-        <v>0.7498740865526574</v>
+        <v>0.684634673565872</v>
       </c>
       <c r="I88">
-        <v>-0.9695241166889501</v>
+        <v>-1.168629430948058</v>
       </c>
       <c r="J88">
-        <v>-0.1701168102853266</v>
+        <v>-0.5247706007586944</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3222,31 +3222,31 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.5206489711415169</v>
+        <v>-0.6099739573154057</v>
       </c>
       <c r="C89">
-        <v>0.2285296814938379</v>
+        <v>0.4251541616695864</v>
       </c>
       <c r="D89">
-        <v>0.07096908389319749</v>
+        <v>0.2424316607915988</v>
       </c>
       <c r="E89">
-        <v>0.5196415616728993</v>
+        <v>0.8104025565360838</v>
       </c>
       <c r="F89">
-        <v>0.5019702298411753</v>
+        <v>0.5366703531930623</v>
       </c>
       <c r="G89">
-        <v>0.5769662187830289</v>
+        <v>0.4022771748788285</v>
       </c>
       <c r="H89">
-        <v>0.3762292538016806</v>
+        <v>0.383015831440541</v>
       </c>
       <c r="I89">
-        <v>-0.245080041431179</v>
+        <v>-0.524219653806826</v>
       </c>
       <c r="J89">
-        <v>-0.1606100136534145</v>
+        <v>-0.260619790024379</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3254,31 +3254,31 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.5571727517332756</v>
+        <v>-0.3619755515991263</v>
       </c>
       <c r="C90">
-        <v>0.3068558861411028</v>
+        <v>0.3039443393094076</v>
       </c>
       <c r="D90">
-        <v>0.3202659685892433</v>
+        <v>0.1434921836146474</v>
       </c>
       <c r="E90">
-        <v>0.7160883386478759</v>
+        <v>0.3191533927715536</v>
       </c>
       <c r="F90">
-        <v>0.5910676413927167</v>
+        <v>0.3387732005336847</v>
       </c>
       <c r="G90">
-        <v>0.5966181655743151</v>
+        <v>0.3770384927996622</v>
       </c>
       <c r="H90">
-        <v>0.721569332542625</v>
+        <v>0.3397674689124288</v>
       </c>
       <c r="I90">
-        <v>-1.384412140967852</v>
+        <v>-0.1879364450130686</v>
       </c>
       <c r="J90">
-        <v>-0.4862047016884324</v>
+        <v>-0.2084453670428812</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3286,31 +3286,31 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.004965939732482191</v>
+        <v>-0.5201359617268062</v>
       </c>
       <c r="C91">
-        <v>0.002630274527055957</v>
+        <v>0.3629857155943747</v>
       </c>
       <c r="D91">
-        <v>0.004028928364622339</v>
+        <v>0.1863175425081515</v>
       </c>
       <c r="E91">
-        <v>0.003909303332550314</v>
+        <v>0.6646489256888033</v>
       </c>
       <c r="F91">
-        <v>0.004303724686741893</v>
+        <v>0.4154183860501218</v>
       </c>
       <c r="G91">
-        <v>0.004120131358844417</v>
+        <v>0.4913376809333082</v>
       </c>
       <c r="H91">
-        <v>0.003397735968247526</v>
+        <v>0.3583006331715562</v>
       </c>
       <c r="I91">
-        <v>-0.0005446040532270107</v>
+        <v>-0.3141787398086288</v>
       </c>
       <c r="J91">
-        <v>-0.001345955600401701</v>
+        <v>-0.1007206074845819</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3318,31 +3318,31 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.3374239349259993</v>
+        <v>-0.3486893100956953</v>
       </c>
       <c r="C92">
-        <v>0.2758336714085363</v>
+        <v>0.4074212331842803</v>
       </c>
       <c r="D92">
-        <v>0.4122740731832683</v>
+        <v>0.07244757753237493</v>
       </c>
       <c r="E92">
-        <v>0.5567448817461033</v>
+        <v>0.6327664307476984</v>
       </c>
       <c r="F92">
-        <v>0.3317666856814297</v>
+        <v>0.4142029394813944</v>
       </c>
       <c r="G92">
-        <v>0.3957336483486665</v>
+        <v>0.4731907855339969</v>
       </c>
       <c r="H92">
-        <v>0.4858005687418104</v>
+        <v>0.4177449087562154</v>
       </c>
       <c r="I92">
-        <v>-0.8306726353780017</v>
+        <v>-0.8361998402368749</v>
       </c>
       <c r="J92">
-        <v>-0.3838814756705188</v>
+        <v>-0.3161750357241672</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3350,31 +3350,31 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.3827341574550457</v>
+        <v>-0.5231572490845724</v>
       </c>
       <c r="C93">
-        <v>0.2423812531253945</v>
+        <v>0.3962186427648816</v>
       </c>
       <c r="D93">
-        <v>0.1971387964430585</v>
+        <v>0.2535441987029084</v>
       </c>
       <c r="E93">
-        <v>0.4039380398540874</v>
+        <v>0.8774865494642521</v>
       </c>
       <c r="F93">
-        <v>0.3388291880505364</v>
+        <v>0.4045789898010335</v>
       </c>
       <c r="G93">
-        <v>0.3301765905375946</v>
+        <v>0.3681998903135041</v>
       </c>
       <c r="H93">
-        <v>0.3409322483423444</v>
+        <v>0.5798654120340522</v>
       </c>
       <c r="I93">
-        <v>-0.2293638227520684</v>
+        <v>-0.9453035074079424</v>
       </c>
       <c r="J93">
-        <v>-0.2751659656929009</v>
+        <v>-0.3619369509537945</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3382,31 +3382,31 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.4348186855230008</v>
+        <v>-0.628962467890317</v>
       </c>
       <c r="C94">
-        <v>0.146139653422813</v>
+        <v>0.3560443009991836</v>
       </c>
       <c r="D94">
-        <v>0.1376624254518439</v>
+        <v>-0.0175787462825061</v>
       </c>
       <c r="E94">
-        <v>0.4905320610806961</v>
+        <v>0.7339892031024163</v>
       </c>
       <c r="F94">
-        <v>0.3880656779141077</v>
+        <v>0.6173136119318803</v>
       </c>
       <c r="G94">
-        <v>0.4090785038174047</v>
+        <v>0.7677939281400333</v>
       </c>
       <c r="H94">
-        <v>0.3984702488709196</v>
+        <v>0.8258962887233183</v>
       </c>
       <c r="I94">
-        <v>-0.2279305057188524</v>
+        <v>-0.9422397358300186</v>
       </c>
       <c r="J94">
-        <v>-0.1855907349126114</v>
+        <v>-0.2521289291844656</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3414,31 +3414,31 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.6151364122868422</v>
+        <v>-0.4079803339525894</v>
       </c>
       <c r="C95">
-        <v>0.258414316651157</v>
+        <v>0.3053047800808542</v>
       </c>
       <c r="D95">
-        <v>0.3403737812075016</v>
+        <v>0.2651544106639461</v>
       </c>
       <c r="E95">
-        <v>0.6051857588222452</v>
+        <v>0.4273180206060886</v>
       </c>
       <c r="F95">
-        <v>0.4123678073453201</v>
+        <v>0.3525043859822125</v>
       </c>
       <c r="G95">
-        <v>0.3702992057596939</v>
+        <v>0.3809640057816808</v>
       </c>
       <c r="H95">
-        <v>0.5400511924753747</v>
+        <v>0.1873060694900507</v>
       </c>
       <c r="I95">
-        <v>-0.3477862821289507</v>
+        <v>-0.1537918659883118</v>
       </c>
       <c r="J95">
-        <v>-0.1896764368844472</v>
+        <v>-0.1830161695023727</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3446,31 +3446,31 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.5022242868798329</v>
+        <v>-0.262792918269584</v>
       </c>
       <c r="C96">
-        <v>0.2827168112426579</v>
+        <v>0.1314926267721694</v>
       </c>
       <c r="D96">
-        <v>0.1427935553528698</v>
+        <v>0.1831646642798644</v>
       </c>
       <c r="E96">
-        <v>0.5576221285059054</v>
+        <v>0.2428627386289188</v>
       </c>
       <c r="F96">
-        <v>0.4448262011409351</v>
+        <v>0.2073466884970007</v>
       </c>
       <c r="G96">
-        <v>0.4912857216654336</v>
+        <v>0.1929887513855281</v>
       </c>
       <c r="H96">
-        <v>0.3656858919958552</v>
+        <v>0.1379634981892746</v>
       </c>
       <c r="I96">
-        <v>-0.3348799190145148</v>
+        <v>-0.0528121814885072</v>
       </c>
       <c r="J96">
-        <v>-0.1537070371522882</v>
+        <v>-0.095059599791773</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3478,31 +3478,31 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.004191534061663126</v>
+        <v>-0.3842970850459423</v>
       </c>
       <c r="C97">
-        <v>0.002062663332448832</v>
+        <v>0.2412772946096097</v>
       </c>
       <c r="D97">
-        <v>0.00359351193857162</v>
+        <v>0.3366372610607147</v>
       </c>
       <c r="E97">
-        <v>0.003643909546935282</v>
+        <v>0.7075674437370589</v>
       </c>
       <c r="F97">
-        <v>0.003896365571456232</v>
+        <v>0.3637780915828486</v>
       </c>
       <c r="G97">
-        <v>0.003767235938899834</v>
+        <v>0.3792781616243429</v>
       </c>
       <c r="H97">
-        <v>0.003149864202701763</v>
+        <v>0.6928514542206536</v>
       </c>
       <c r="I97">
-        <v>-0.0005442685231165245</v>
+        <v>-0.9686262598578531</v>
       </c>
       <c r="J97">
-        <v>-0.002109892104662069</v>
+        <v>-0.2926984450574899</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3510,31 +3510,31 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.4085639689005184</v>
+        <v>-0.3213698969970642</v>
       </c>
       <c r="C98">
-        <v>0.2392796995312075</v>
+        <v>0.2596754431680438</v>
       </c>
       <c r="D98">
-        <v>0.2050566686102392</v>
+        <v>0.1780694031047104</v>
       </c>
       <c r="E98">
-        <v>0.440883759978875</v>
+        <v>0.3497370057954362</v>
       </c>
       <c r="F98">
-        <v>0.4537358020941488</v>
+        <v>0.2938461050478088</v>
       </c>
       <c r="G98">
-        <v>0.5664417980215404</v>
+        <v>0.3728684612045958</v>
       </c>
       <c r="H98">
-        <v>0.5587891211286699</v>
+        <v>0.3163119952743129</v>
       </c>
       <c r="I98">
-        <v>-0.7996302334709371</v>
+        <v>-0.2219123218113594</v>
       </c>
       <c r="J98">
-        <v>-0.3428770941324352</v>
+        <v>-0.204879890577005</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3542,31 +3542,31 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.1872573095322471</v>
+        <v>-0.403299138935364</v>
       </c>
       <c r="C99">
-        <v>0.07903386891932761</v>
+        <v>0.4452668261031424</v>
       </c>
       <c r="D99">
-        <v>0.1343396282951015</v>
+        <v>0.3277944295524844</v>
       </c>
       <c r="E99">
-        <v>0.2274092424891807</v>
+        <v>0.6497031334945559</v>
       </c>
       <c r="F99">
-        <v>0.1844648003987027</v>
+        <v>0.4146541311577267</v>
       </c>
       <c r="G99">
-        <v>0.1922475804684399</v>
+        <v>0.3981916099415381</v>
       </c>
       <c r="H99">
-        <v>0.1136330313029112</v>
+        <v>0.5157216602695038</v>
       </c>
       <c r="I99">
-        <v>-0.05367023653896271</v>
+        <v>-0.956399444602711</v>
       </c>
       <c r="J99">
-        <v>-0.08397011239956095</v>
+        <v>-0.445186818526669</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3574,31 +3574,31 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.4762910204444787</v>
+        <v>-0.4477578236607273</v>
       </c>
       <c r="C100">
-        <v>0.213814323344078</v>
+        <v>0.1495850873712389</v>
       </c>
       <c r="D100">
-        <v>0.08464608447467788</v>
+        <v>0.2735641714879406</v>
       </c>
       <c r="E100">
-        <v>0.4300350523314455</v>
+        <v>0.4498964924112547</v>
       </c>
       <c r="F100">
-        <v>0.4560282475367242</v>
+        <v>0.39435968232507</v>
       </c>
       <c r="G100">
-        <v>0.4822712055485592</v>
+        <v>0.4117501873336444</v>
       </c>
       <c r="H100">
-        <v>0.283639015939935</v>
+        <v>0.2114813721815091</v>
       </c>
       <c r="I100">
-        <v>-0.2042818786343525</v>
+        <v>-0.2135723207115742</v>
       </c>
       <c r="J100">
-        <v>-0.200858055703786</v>
+        <v>-0.2167047308705323</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3606,31 +3606,31 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.4809730964879079</v>
+        <v>-0.4578945827900328</v>
       </c>
       <c r="C101">
-        <v>0.1464616390516033</v>
+        <v>0.3965326347580137</v>
       </c>
       <c r="D101">
-        <v>0.6489538416443371</v>
+        <v>0.2691227128618567</v>
       </c>
       <c r="E101">
-        <v>0.5649447975104938</v>
+        <v>0.7109675338102466</v>
       </c>
       <c r="F101">
-        <v>0.3849318028512075</v>
+        <v>0.5284964061914492</v>
       </c>
       <c r="G101">
-        <v>0.6151126300928687</v>
+        <v>0.5076969838352957</v>
       </c>
       <c r="H101">
-        <v>0.9693218187467945</v>
+        <v>0.5970567062414602</v>
       </c>
       <c r="I101">
-        <v>-1.447318305878237</v>
+        <v>-1.400095096539678</v>
       </c>
       <c r="J101">
-        <v>-0.2267004285577085</v>
+        <v>-0.4885661596701408</v>
       </c>
     </row>
   </sheetData>

--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#CK+Dem.xlsx
@@ -438,31 +438,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.4124627728660366</v>
+        <v>-0.005943564605763257</v>
       </c>
       <c r="C2">
-        <v>0.2407291694522483</v>
+        <v>0.002900873485127363</v>
       </c>
       <c r="D2">
-        <v>0.2755691885580304</v>
+        <v>0.004404478161868012</v>
       </c>
       <c r="E2">
-        <v>0.3722234440843098</v>
+        <v>0.005708228037888168</v>
       </c>
       <c r="F2">
-        <v>0.3404212429802884</v>
+        <v>0.00498334518565335</v>
       </c>
       <c r="G2">
-        <v>0.347107486917932</v>
+        <v>0.004578255986081799</v>
       </c>
       <c r="H2">
-        <v>0.3952212293599749</v>
+        <v>0.002490062071781047</v>
       </c>
       <c r="I2">
-        <v>-0.1951375800843042</v>
+        <v>-0.001103056748853461</v>
       </c>
       <c r="J2">
-        <v>-0.0948756102275672</v>
+        <v>-0.00128769064795507</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,31 +470,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.004774293049095278</v>
+        <v>-0.6073945618995723</v>
       </c>
       <c r="C3">
-        <v>0.002235100370919186</v>
+        <v>0.1781750875169616</v>
       </c>
       <c r="D3">
-        <v>0.004040963640188717</v>
+        <v>0.1409111507596691</v>
       </c>
       <c r="E3">
-        <v>0.004150340368047901</v>
+        <v>0.62922311743288</v>
       </c>
       <c r="F3">
-        <v>0.004348546064881657</v>
+        <v>0.4225408580647666</v>
       </c>
       <c r="G3">
-        <v>0.004076670107468561</v>
+        <v>0.4744338341768373</v>
       </c>
       <c r="H3">
-        <v>0.002987253885727933</v>
+        <v>0.4507862520605849</v>
       </c>
       <c r="I3">
-        <v>-0.0005453748509032686</v>
+        <v>-0.3639393711828753</v>
       </c>
       <c r="J3">
-        <v>-0.001033144622088114</v>
+        <v>-0.2505438409842125</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -502,31 +502,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.003622779023361564</v>
+        <v>-0.5514507169060772</v>
       </c>
       <c r="C4">
-        <v>0.002261558738392227</v>
+        <v>0.2882715093701614</v>
       </c>
       <c r="D4">
-        <v>0.00353767294867459</v>
+        <v>0.2178927035604232</v>
       </c>
       <c r="E4">
-        <v>0.004073116903820484</v>
+        <v>0.4828026643200155</v>
       </c>
       <c r="F4">
-        <v>0.003582675610023258</v>
+        <v>0.3821601061077558</v>
       </c>
       <c r="G4">
-        <v>0.003075781172509818</v>
+        <v>0.4780307220009305</v>
       </c>
       <c r="H4">
-        <v>0.002369554470787457</v>
+        <v>0.4114448175278997</v>
       </c>
       <c r="I4">
-        <v>-0.0005443357768652609</v>
+        <v>-0.2951113502107504</v>
       </c>
       <c r="J4">
-        <v>-0.001539019323076042</v>
+        <v>-0.1421653052783741</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -534,31 +534,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.2225427166771793</v>
+        <v>-0.2639429738900045</v>
       </c>
       <c r="C5">
-        <v>0.08231638938097613</v>
+        <v>0.1126679514371301</v>
       </c>
       <c r="D5">
-        <v>0.1966345064343889</v>
+        <v>0.1355497336075263</v>
       </c>
       <c r="E5">
-        <v>0.2178274162313475</v>
+        <v>0.2495445158170213</v>
       </c>
       <c r="F5">
-        <v>0.1996919731534133</v>
+        <v>0.1991245874693338</v>
       </c>
       <c r="G5">
-        <v>0.179230549486031</v>
+        <v>0.2229690527768915</v>
       </c>
       <c r="H5">
-        <v>0.1540630173712115</v>
+        <v>0.1584996124963256</v>
       </c>
       <c r="I5">
-        <v>-0.04860428761650887</v>
+        <v>-0.08206583256827985</v>
       </c>
       <c r="J5">
-        <v>-0.05166005799593094</v>
+        <v>-0.1244966126266638</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -566,31 +566,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.5048127890060836</v>
+        <v>-0.2736380010562703</v>
       </c>
       <c r="C6">
-        <v>0.1875510803477663</v>
+        <v>0.1418979517608854</v>
       </c>
       <c r="D6">
-        <v>0.3082839033089578</v>
+        <v>0.1475839656816503</v>
       </c>
       <c r="E6">
-        <v>0.3035932053686498</v>
+        <v>0.2513015166731259</v>
       </c>
       <c r="F6">
-        <v>0.5378390494982557</v>
+        <v>0.2017172638771988</v>
       </c>
       <c r="G6">
-        <v>0.4634174892750169</v>
+        <v>0.2265249071212947</v>
       </c>
       <c r="H6">
-        <v>0.4811071168228278</v>
+        <v>0.1447758488199076</v>
       </c>
       <c r="I6">
-        <v>-0.2960921859901369</v>
+        <v>-0.07679610424780735</v>
       </c>
       <c r="J6">
-        <v>-0.2003891514374818</v>
+        <v>-0.08569451959130961</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -598,31 +598,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.5444435819072817</v>
+        <v>-0.5605180427678661</v>
       </c>
       <c r="C7">
-        <v>0.231920085841284</v>
+        <v>0.2249881284683006</v>
       </c>
       <c r="D7">
-        <v>0.3061124848577026</v>
+        <v>0.1656100300849971</v>
       </c>
       <c r="E7">
-        <v>0.643443448622025</v>
+        <v>0.6014544010256608</v>
       </c>
       <c r="F7">
-        <v>0.4640666510226318</v>
+        <v>0.4264798647744072</v>
       </c>
       <c r="G7">
-        <v>0.4910115522456817</v>
+        <v>0.4734124517248464</v>
       </c>
       <c r="H7">
-        <v>0.6412376250384225</v>
+        <v>0.3478266198421925</v>
       </c>
       <c r="I7">
-        <v>-0.5293113451950708</v>
+        <v>-0.2875999853383788</v>
       </c>
       <c r="J7">
-        <v>-0.2104253482367689</v>
+        <v>-0.201257591221946</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -630,31 +630,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.5705473216160234</v>
+        <v>-0.6960051126255574</v>
       </c>
       <c r="C8">
-        <v>0.4976742542714126</v>
+        <v>0.1433939195221809</v>
       </c>
       <c r="D8">
-        <v>0.3454103545264213</v>
+        <v>0.2466294578700863</v>
       </c>
       <c r="E8">
-        <v>0.8313418190326947</v>
+        <v>0.3955291263852456</v>
       </c>
       <c r="F8">
-        <v>0.4880340058472085</v>
+        <v>0.5243502307493764</v>
       </c>
       <c r="G8">
-        <v>0.5377626980234955</v>
+        <v>0.5716437767853432</v>
       </c>
       <c r="H8">
-        <v>0.896644773618882</v>
+        <v>0.5686170969685554</v>
       </c>
       <c r="I8">
-        <v>-1.276571401704713</v>
+        <v>-0.3680117672364926</v>
       </c>
       <c r="J8">
-        <v>-0.3484876778791601</v>
+        <v>-0.2659375831563681</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -662,31 +662,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.5766635901038609</v>
+        <v>-0.005956642936385114</v>
       </c>
       <c r="C9">
-        <v>0.4560015371103845</v>
+        <v>0.003358065282332891</v>
       </c>
       <c r="D9">
-        <v>-0.1111746016012173</v>
+        <v>0.004698821300580382</v>
       </c>
       <c r="E9">
-        <v>0.8364696289675491</v>
+        <v>0.004812192955009487</v>
       </c>
       <c r="F9">
-        <v>0.5304662836290114</v>
+        <v>0.004951954432202161</v>
       </c>
       <c r="G9">
-        <v>0.5661834684344269</v>
+        <v>0.004740886907230422</v>
       </c>
       <c r="H9">
-        <v>0.461495617441507</v>
+        <v>0.002660605429110423</v>
       </c>
       <c r="I9">
-        <v>-0.650111470234798</v>
+        <v>-0.001104987217709871</v>
       </c>
       <c r="J9">
-        <v>-0.3854589921291785</v>
+        <v>-0.001905393751904159</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -694,31 +694,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.5916010291097766</v>
+        <v>-0.5301595347198249</v>
       </c>
       <c r="C10">
-        <v>0.2788558197316731</v>
+        <v>0.2020123718484126</v>
       </c>
       <c r="D10">
-        <v>0.4193043019506881</v>
+        <v>0.2409877322142763</v>
       </c>
       <c r="E10">
-        <v>0.3745626171327824</v>
+        <v>0.5263724151949137</v>
       </c>
       <c r="F10">
-        <v>0.5912169459976808</v>
+        <v>0.382435826637882</v>
       </c>
       <c r="G10">
-        <v>0.6209957763669726</v>
+        <v>0.4471896954803263</v>
       </c>
       <c r="H10">
-        <v>0.7066816054217061</v>
+        <v>0.2204671502034498</v>
       </c>
       <c r="I10">
-        <v>-1.173208362010614</v>
+        <v>-0.1657938515002373</v>
       </c>
       <c r="J10">
-        <v>-0.4341930189777437</v>
+        <v>-0.1353445275520642</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -726,31 +726,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.5396804872105114</v>
+        <v>-0.6445730507292347</v>
       </c>
       <c r="C11">
-        <v>0.294304171644468</v>
+        <v>0.2443579342855585</v>
       </c>
       <c r="D11">
-        <v>0.1702713586155493</v>
+        <v>0.2830218302289929</v>
       </c>
       <c r="E11">
-        <v>0.689801522905675</v>
+        <v>0.606217611018925</v>
       </c>
       <c r="F11">
-        <v>0.3841778403641942</v>
+        <v>0.4324135452432696</v>
       </c>
       <c r="G11">
-        <v>0.3432677000102675</v>
+        <v>0.4692157400842853</v>
       </c>
       <c r="H11">
-        <v>0.4789272597790557</v>
+        <v>0.3872222953537481</v>
       </c>
       <c r="I11">
-        <v>-0.3256839017310263</v>
+        <v>-0.2966376451285523</v>
       </c>
       <c r="J11">
-        <v>-0.2811863200668536</v>
+        <v>-0.2652444796851743</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -758,31 +758,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.004222486484269729</v>
+        <v>-0.006013004045126358</v>
       </c>
       <c r="C12">
-        <v>0.002354423775163561</v>
+        <v>0.002673579457962097</v>
       </c>
       <c r="D12">
-        <v>0.003537072116033894</v>
+        <v>0.004622227543025466</v>
       </c>
       <c r="E12">
-        <v>0.00429053813229296</v>
+        <v>0.005342687246980352</v>
       </c>
       <c r="F12">
-        <v>0.004094673781209075</v>
+        <v>0.004884918332560211</v>
       </c>
       <c r="G12">
-        <v>0.003907445105688799</v>
+        <v>0.004834365900019105</v>
       </c>
       <c r="H12">
-        <v>0.002278279988401931</v>
+        <v>0.002776942111728937</v>
       </c>
       <c r="I12">
-        <v>-0.0005435072688798156</v>
+        <v>-0.00110394144092394</v>
       </c>
       <c r="J12">
-        <v>-0.000992105372183976</v>
+        <v>-0.001795450506777887</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -790,31 +790,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.4101310282186402</v>
+        <v>-0.2988791797464772</v>
       </c>
       <c r="C13">
-        <v>0.2898389953922207</v>
+        <v>0.1638752797979063</v>
       </c>
       <c r="D13">
-        <v>0.178616905737971</v>
+        <v>0.1724718391393588</v>
       </c>
       <c r="E13">
-        <v>0.4170190824079056</v>
+        <v>0.2519054630743353</v>
       </c>
       <c r="F13">
-        <v>0.3620098169433144</v>
+        <v>0.2180300561795352</v>
       </c>
       <c r="G13">
-        <v>0.345527438805019</v>
+        <v>0.2302345108409399</v>
       </c>
       <c r="H13">
-        <v>0.3283471810758909</v>
+        <v>0.1405601068926657</v>
       </c>
       <c r="I13">
-        <v>-0.1685687941232156</v>
+        <v>-0.08433171595375911</v>
       </c>
       <c r="J13">
-        <v>-0.117885159869246</v>
+        <v>-0.06757205690677262</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -822,31 +822,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.3414502028882285</v>
+        <v>-0.4665445679684808</v>
       </c>
       <c r="C14">
-        <v>0.2202132011794185</v>
+        <v>0.2200668817308474</v>
       </c>
       <c r="D14">
-        <v>0.2900935489867009</v>
+        <v>0.2385750986454169</v>
       </c>
       <c r="E14">
-        <v>0.4597680932100514</v>
+        <v>0.3782027814325995</v>
       </c>
       <c r="F14">
-        <v>0.3038433879597188</v>
+        <v>0.3467718311117106</v>
       </c>
       <c r="G14">
-        <v>0.3612530586126816</v>
+        <v>0.435587146670743</v>
       </c>
       <c r="H14">
-        <v>0.4340984271662641</v>
+        <v>0.3157006467239727</v>
       </c>
       <c r="I14">
-        <v>-0.3633794671718436</v>
+        <v>-0.2522292602868229</v>
       </c>
       <c r="J14">
-        <v>-0.1599871990660812</v>
+        <v>-0.1529422311272211</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -854,31 +854,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.3718468080059169</v>
+        <v>-0.8808966366531459</v>
       </c>
       <c r="C15">
-        <v>0.3851606613163198</v>
+        <v>0.3005974540675809</v>
       </c>
       <c r="D15">
-        <v>0.2275720018716131</v>
+        <v>0.2294551733620154</v>
       </c>
       <c r="E15">
-        <v>0.6707499523166663</v>
+        <v>0.3853689372775007</v>
       </c>
       <c r="F15">
-        <v>0.5817624869805141</v>
+        <v>0.6552322346668054</v>
       </c>
       <c r="G15">
-        <v>0.1298081091702407</v>
+        <v>0.6964068898436768</v>
       </c>
       <c r="H15">
-        <v>0.4868171858609604</v>
+        <v>0.6797192536396409</v>
       </c>
       <c r="I15">
-        <v>-0.781151697511673</v>
+        <v>-0.6933100836549618</v>
       </c>
       <c r="J15">
-        <v>-0.2308124514388036</v>
+        <v>-0.4313848558095406</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -886,31 +886,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.5765536150207868</v>
+        <v>-0.4460540331611049</v>
       </c>
       <c r="C16">
-        <v>0.251599761777857</v>
+        <v>0.214005210675058</v>
       </c>
       <c r="D16">
-        <v>0.1809879750232753</v>
+        <v>0.2204296451631905</v>
       </c>
       <c r="E16">
-        <v>0.5312457249405215</v>
+        <v>0.4309735192036725</v>
       </c>
       <c r="F16">
-        <v>0.5699713558482911</v>
+        <v>0.3554769048731993</v>
       </c>
       <c r="G16">
-        <v>0.6792786564441259</v>
+        <v>0.3628745003142128</v>
       </c>
       <c r="H16">
-        <v>0.6401476050444693</v>
+        <v>0.2923618834109964</v>
       </c>
       <c r="I16">
-        <v>-0.7960770022878934</v>
+        <v>-0.2029425220588191</v>
       </c>
       <c r="J16">
-        <v>-0.5291720079014491</v>
+        <v>-0.2161338905496903</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -918,31 +918,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1815619170722637</v>
+        <v>-0.6732319343530819</v>
       </c>
       <c r="C17">
-        <v>0.1034877736971701</v>
+        <v>0.2370241907321521</v>
       </c>
       <c r="D17">
-        <v>0.1481840951082773</v>
+        <v>0.1586685159246357</v>
       </c>
       <c r="E17">
-        <v>0.1932772130655205</v>
+        <v>0.6052237189309042</v>
       </c>
       <c r="F17">
-        <v>0.1739645339369891</v>
+        <v>0.5175854999661387</v>
       </c>
       <c r="G17">
-        <v>0.1672643153918338</v>
+        <v>0.5262284122214268</v>
       </c>
       <c r="H17">
-        <v>0.1375256347625678</v>
+        <v>0.3711585678426997</v>
       </c>
       <c r="I17">
-        <v>-0.04738596931126247</v>
+        <v>-0.2684613935762131</v>
       </c>
       <c r="J17">
-        <v>-0.1177177376104305</v>
+        <v>-0.2690140615282796</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -950,31 +950,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.22259866636904</v>
+        <v>-0.4935647048113911</v>
       </c>
       <c r="C18">
-        <v>0.1178021332536782</v>
+        <v>0.123335311663685</v>
       </c>
       <c r="D18">
-        <v>0.1588532015825878</v>
+        <v>0.2125828937731565</v>
       </c>
       <c r="E18">
-        <v>0.1948231971719558</v>
+        <v>0.3881512320920267</v>
       </c>
       <c r="F18">
-        <v>0.1983205407234742</v>
+        <v>0.4285734609057639</v>
       </c>
       <c r="G18">
-        <v>0.1967950440833099</v>
+        <v>0.4644396102959185</v>
       </c>
       <c r="H18">
-        <v>0.1194880232957133</v>
+        <v>0.2534449123510386</v>
       </c>
       <c r="I18">
-        <v>-0.04953557339550976</v>
+        <v>-0.2258483400375011</v>
       </c>
       <c r="J18">
-        <v>-0.1113413889047663</v>
+        <v>-0.230045136998055</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -982,31 +982,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.4385444244713367</v>
+        <v>-0.5659141425071346</v>
       </c>
       <c r="C19">
-        <v>0.1730209069178273</v>
+        <v>0.2551786264307379</v>
       </c>
       <c r="D19">
-        <v>0.3245090744894533</v>
+        <v>0.1852950882885204</v>
       </c>
       <c r="E19">
-        <v>0.5987041377698669</v>
+        <v>0.4711537134025447</v>
       </c>
       <c r="F19">
-        <v>0.3558603253827943</v>
+        <v>0.4410574860443529</v>
       </c>
       <c r="G19">
-        <v>0.3712383522794321</v>
+        <v>0.4177631666848763</v>
       </c>
       <c r="H19">
-        <v>0.3358939251184034</v>
+        <v>0.3080329529507351</v>
       </c>
       <c r="I19">
-        <v>-0.3518327175276488</v>
+        <v>-0.1718512055459905</v>
       </c>
       <c r="J19">
-        <v>-0.2285097583944578</v>
+        <v>-0.1397081799844259</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1014,31 +1014,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.004706874827465787</v>
+        <v>-0.4562429784424702</v>
       </c>
       <c r="C20">
-        <v>0.002933377734909334</v>
+        <v>0.206527089125493</v>
       </c>
       <c r="D20">
-        <v>0.003878057535972808</v>
+        <v>0.1835476689023097</v>
       </c>
       <c r="E20">
-        <v>0.003679760176674986</v>
+        <v>0.3898791412357893</v>
       </c>
       <c r="F20">
-        <v>0.004453633453955096</v>
+        <v>0.3895272684571254</v>
       </c>
       <c r="G20">
-        <v>0.004232792150498852</v>
+        <v>0.3934570390202632</v>
       </c>
       <c r="H20">
-        <v>0.00257552607241225</v>
+        <v>0.2720788943348046</v>
       </c>
       <c r="I20">
-        <v>-0.0005458334805532732</v>
+        <v>-0.2336626338002135</v>
       </c>
       <c r="J20">
-        <v>-0.00116527944284726</v>
+        <v>-0.2649026602512748</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1046,31 +1046,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.004239565626708825</v>
+        <v>-0.005798320553789308</v>
       </c>
       <c r="C21">
-        <v>0.002140942898070701</v>
+        <v>0.002707159660246111</v>
       </c>
       <c r="D21">
-        <v>0.003182302522966591</v>
+        <v>0.004244431471260187</v>
       </c>
       <c r="E21">
-        <v>0.003951129485173429</v>
+        <v>0.005003157677616793</v>
       </c>
       <c r="F21">
-        <v>0.004160848586721576</v>
+        <v>0.004864404658490387</v>
       </c>
       <c r="G21">
-        <v>0.003949811043991973</v>
+        <v>0.005059426991942707</v>
       </c>
       <c r="H21">
-        <v>0.002753705871885698</v>
+        <v>0.002626829776422761</v>
       </c>
       <c r="I21">
-        <v>-0.0005445297057600627</v>
+        <v>-0.001105973491829511</v>
       </c>
       <c r="J21">
-        <v>-0.00204006964240593</v>
+        <v>-0.002155994269125608</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1078,31 +1078,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.5017675312865939</v>
+        <v>-0.6132956905766087</v>
       </c>
       <c r="C22">
-        <v>0.260602450438409</v>
+        <v>0.2619286711675736</v>
       </c>
       <c r="D22">
-        <v>0.2419288642892599</v>
+        <v>0.2691271286773163</v>
       </c>
       <c r="E22">
-        <v>0.7504781920495711</v>
+        <v>0.4922732513840027</v>
       </c>
       <c r="F22">
-        <v>0.4254734778587525</v>
+        <v>0.404761901958401</v>
       </c>
       <c r="G22">
-        <v>0.4246530980765115</v>
+        <v>0.4439053610499332</v>
       </c>
       <c r="H22">
-        <v>0.5855840422496784</v>
+        <v>0.3467056818843829</v>
       </c>
       <c r="I22">
-        <v>-0.7055493136078235</v>
+        <v>-0.2849893312360678</v>
       </c>
       <c r="J22">
-        <v>-0.3100931538370428</v>
+        <v>-0.2028921811388354</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1110,31 +1110,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.5441457390162197</v>
+        <v>-0.005653142495889193</v>
       </c>
       <c r="C23">
-        <v>0.2591565041507579</v>
+        <v>0.002353063729839182</v>
       </c>
       <c r="D23">
-        <v>0.3089684808289586</v>
+        <v>0.004478063140374065</v>
       </c>
       <c r="E23">
-        <v>0.5356819149008897</v>
+        <v>0.005071282175237496</v>
       </c>
       <c r="F23">
-        <v>0.4374284974692593</v>
+        <v>0.004911531962090627</v>
       </c>
       <c r="G23">
-        <v>0.4393169228200726</v>
+        <v>0.004598063042497014</v>
       </c>
       <c r="H23">
-        <v>0.3683010879847303</v>
+        <v>0.002858154485771904</v>
       </c>
       <c r="I23">
-        <v>-0.3526788445756061</v>
+        <v>-0.001102032777748326</v>
       </c>
       <c r="J23">
-        <v>-0.2580406145800136</v>
+        <v>-0.001877681635355489</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.004728283740172244</v>
+        <v>-0.7735814379639072</v>
       </c>
       <c r="C24">
-        <v>0.002878342917541005</v>
+        <v>0.1063293280927999</v>
       </c>
       <c r="D24">
-        <v>0.003686763441185814</v>
+        <v>0.03612450182453725</v>
       </c>
       <c r="E24">
-        <v>0.004446675361522124</v>
+        <v>0.5725606744191354</v>
       </c>
       <c r="F24">
-        <v>0.004092544411312421</v>
+        <v>0.5785933457992672</v>
       </c>
       <c r="G24">
-        <v>0.003884468609378681</v>
+        <v>0.7049376558418309</v>
       </c>
       <c r="H24">
-        <v>0.002462907572324194</v>
+        <v>0.6525355788742994</v>
       </c>
       <c r="I24">
-        <v>-0.0005457987487043194</v>
+        <v>-0.4895379698084466</v>
       </c>
       <c r="J24">
-        <v>-0.001921927020087738</v>
+        <v>-0.2665351975321814</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1174,31 +1174,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.4655872048641201</v>
+        <v>-0.5945603899068346</v>
       </c>
       <c r="C25">
-        <v>0.3393718464900661</v>
+        <v>0.2191401225477515</v>
       </c>
       <c r="D25">
-        <v>0.3360536889161013</v>
+        <v>0.2422932768831298</v>
       </c>
       <c r="E25">
-        <v>0.5956023674702999</v>
+        <v>0.5628676029069303</v>
       </c>
       <c r="F25">
-        <v>0.3079431517354611</v>
+        <v>0.3883666309662272</v>
       </c>
       <c r="G25">
-        <v>0.347702463107157</v>
+        <v>0.4415778979794329</v>
       </c>
       <c r="H25">
-        <v>0.32469735148074</v>
+        <v>0.4293633312417441</v>
       </c>
       <c r="I25">
-        <v>-0.3573427504510129</v>
+        <v>-0.3529333563022891</v>
       </c>
       <c r="J25">
-        <v>-0.3379624725299371</v>
+        <v>-0.2526210037222156</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1206,31 +1206,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.4910336540399757</v>
+        <v>-0.3131075418275899</v>
       </c>
       <c r="C26">
-        <v>0.3512928529241564</v>
+        <v>0.1300462888850814</v>
       </c>
       <c r="D26">
-        <v>0.3397443414877198</v>
+        <v>0.1731993230519139</v>
       </c>
       <c r="E26">
-        <v>0.5997243665167269</v>
+        <v>0.2762849293080335</v>
       </c>
       <c r="F26">
-        <v>0.5522583661795787</v>
+        <v>0.2023074732906117</v>
       </c>
       <c r="G26">
-        <v>0.6054750099927565</v>
+        <v>0.2157054480086431</v>
       </c>
       <c r="H26">
-        <v>0.7473633992878741</v>
+        <v>0.1759073005342057</v>
       </c>
       <c r="I26">
-        <v>-1.435077301256537</v>
+        <v>-0.09503475365285477</v>
       </c>
       <c r="J26">
-        <v>-0.3371792622317544</v>
+        <v>-0.1183255831974408</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1238,31 +1238,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.005204808999784219</v>
+        <v>-0.54200513014017</v>
       </c>
       <c r="C27">
-        <v>0.002598916494298395</v>
+        <v>0.1939996203585466</v>
       </c>
       <c r="D27">
-        <v>0.004004297564347625</v>
+        <v>0.2373577902445211</v>
       </c>
       <c r="E27">
-        <v>0.004235466698385855</v>
+        <v>0.5457046185345413</v>
       </c>
       <c r="F27">
-        <v>0.004573965852835713</v>
+        <v>0.3879972004920759</v>
       </c>
       <c r="G27">
-        <v>0.004597486638477179</v>
+        <v>0.3524101946413978</v>
       </c>
       <c r="H27">
-        <v>0.002514023261669543</v>
+        <v>0.3085686129609573</v>
       </c>
       <c r="I27">
-        <v>-0.0005437507045654451</v>
+        <v>-0.2286876388428247</v>
       </c>
       <c r="J27">
-        <v>-0.001512079968419055</v>
+        <v>-0.2084425620765882</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1270,31 +1270,31 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.7423183457446345</v>
+        <v>-0.2920254611165012</v>
       </c>
       <c r="C28">
-        <v>0.3119561409125526</v>
+        <v>0.09758514064817675</v>
       </c>
       <c r="D28">
-        <v>0.09090318132782507</v>
+        <v>0.2225063258674308</v>
       </c>
       <c r="E28">
-        <v>0.9339737682909334</v>
+        <v>0.2129583784878458</v>
       </c>
       <c r="F28">
-        <v>0.5677021914877646</v>
+        <v>0.1913441629822772</v>
       </c>
       <c r="G28">
-        <v>0.5883417672048933</v>
+        <v>0.2352312830845247</v>
       </c>
       <c r="H28">
-        <v>0.4517179023259203</v>
+        <v>0.1803093652229081</v>
       </c>
       <c r="I28">
-        <v>-0.4984727401622778</v>
+        <v>-0.07880663727461251</v>
       </c>
       <c r="J28">
-        <v>-0.2427135289118339</v>
+        <v>-0.1088543151714693</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1302,31 +1302,31 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.3661421998231925</v>
+        <v>-0.5986541704385889</v>
       </c>
       <c r="C29">
-        <v>0.214062617534257</v>
+        <v>0.3543933997634936</v>
       </c>
       <c r="D29">
-        <v>0.3301144177240711</v>
+        <v>0.1434413615172094</v>
       </c>
       <c r="E29">
-        <v>0.3891451203347664</v>
+        <v>0.5153573506261598</v>
       </c>
       <c r="F29">
-        <v>0.2696689374035716</v>
+        <v>0.4699357730503922</v>
       </c>
       <c r="G29">
-        <v>0.3310562986765543</v>
+        <v>0.4064938736947735</v>
       </c>
       <c r="H29">
-        <v>0.3651696166731762</v>
+        <v>0.4793480374709127</v>
       </c>
       <c r="I29">
-        <v>-0.2634136540100663</v>
+        <v>-0.3035175425124089</v>
       </c>
       <c r="J29">
-        <v>-0.2010813988278033</v>
+        <v>-0.2720485659714241</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1334,31 +1334,31 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.4440051241294239</v>
+        <v>-0.2527995035258889</v>
       </c>
       <c r="C30">
-        <v>0.02324244655055691</v>
+        <v>0.1019829320534178</v>
       </c>
       <c r="D30">
-        <v>0.5682463926330388</v>
+        <v>0.1549269152903421</v>
       </c>
       <c r="E30">
-        <v>0.6385433248799476</v>
+        <v>0.2026615497417376</v>
       </c>
       <c r="F30">
-        <v>0.4129679434784725</v>
+        <v>0.2374605548727333</v>
       </c>
       <c r="G30">
-        <v>0.4466810884733738</v>
+        <v>0.2377860947571008</v>
       </c>
       <c r="H30">
-        <v>0.6494135608299467</v>
+        <v>0.1348632357694741</v>
       </c>
       <c r="I30">
-        <v>-0.9830909094011743</v>
+        <v>-0.07772800349011114</v>
       </c>
       <c r="J30">
-        <v>-0.3510660632091774</v>
+        <v>-0.09357969901730066</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1366,31 +1366,31 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.546021189647102</v>
+        <v>-0.8506441805597046</v>
       </c>
       <c r="C31">
-        <v>0.607188783068317</v>
+        <v>0.2132562558522871</v>
       </c>
       <c r="D31">
-        <v>0.2419584350814042</v>
+        <v>0.3591059325970238</v>
       </c>
       <c r="E31">
-        <v>0.607383060717253</v>
+        <v>0.6043038227250365</v>
       </c>
       <c r="F31">
-        <v>0.6255549309528514</v>
+        <v>0.5052216305682473</v>
       </c>
       <c r="G31">
-        <v>0.6613845488657131</v>
+        <v>0.5305542907919845</v>
       </c>
       <c r="H31">
-        <v>0.4487211279906898</v>
+        <v>0.7325188894000995</v>
       </c>
       <c r="I31">
-        <v>-1.067329925887971</v>
+        <v>-0.6652860922793102</v>
       </c>
       <c r="J31">
-        <v>-0.3380826901848135</v>
+        <v>-0.3869049994960672</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1398,31 +1398,31 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.2092514009191271</v>
+        <v>-0.4299091059830557</v>
       </c>
       <c r="C32">
-        <v>0.1128941839675793</v>
+        <v>0.1428315321740407</v>
       </c>
       <c r="D32">
-        <v>0.179401564556903</v>
+        <v>0.2568820981494785</v>
       </c>
       <c r="E32">
-        <v>0.1918511173867718</v>
+        <v>0.3785611705743752</v>
       </c>
       <c r="F32">
-        <v>0.1686096885127477</v>
+        <v>0.3656995867085028</v>
       </c>
       <c r="G32">
-        <v>0.1863568636387666</v>
+        <v>0.3959726080451786</v>
       </c>
       <c r="H32">
-        <v>0.170977758375298</v>
+        <v>0.290831947531601</v>
       </c>
       <c r="I32">
-        <v>-0.0529839516888823</v>
+        <v>-0.2847596774783289</v>
       </c>
       <c r="J32">
-        <v>-0.07330861234989254</v>
+        <v>-0.1437347699608297</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1430,31 +1430,31 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.004585733499602972</v>
+        <v>-0.7872948893252563</v>
       </c>
       <c r="C33">
-        <v>0.002405521177011643</v>
+        <v>0.2597191644183</v>
       </c>
       <c r="D33">
-        <v>0.003774660878111743</v>
+        <v>0.2451591674833298</v>
       </c>
       <c r="E33">
-        <v>0.004593056408472188</v>
+        <v>0.7064584992522374</v>
       </c>
       <c r="F33">
-        <v>0.004126384794224524</v>
+        <v>0.4681842369783308</v>
       </c>
       <c r="G33">
-        <v>0.003801157608871756</v>
+        <v>0.5783531708166697</v>
       </c>
       <c r="H33">
-        <v>0.002419740753217482</v>
+        <v>0.6770861018146244</v>
       </c>
       <c r="I33">
-        <v>-0.0005450197081514094</v>
+        <v>-0.5038851282446629</v>
       </c>
       <c r="J33">
-        <v>-0.001540426906643292</v>
+        <v>-0.2876759202113398</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1462,31 +1462,31 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.4148522234673507</v>
+        <v>-0.7786070161102188</v>
       </c>
       <c r="C34">
-        <v>0.2247537238739877</v>
+        <v>0.2532688353180436</v>
       </c>
       <c r="D34">
-        <v>0.2678729169086148</v>
+        <v>0.2107164911160874</v>
       </c>
       <c r="E34">
-        <v>0.4760154619364405</v>
+        <v>0.5669082007691607</v>
       </c>
       <c r="F34">
-        <v>0.4958021719728641</v>
+        <v>0.5397597710681152</v>
       </c>
       <c r="G34">
-        <v>0.5221164558613797</v>
+        <v>0.5265459753078864</v>
       </c>
       <c r="H34">
-        <v>0.6857715157178429</v>
+        <v>0.7857195410060159</v>
       </c>
       <c r="I34">
-        <v>-0.861890732309829</v>
+        <v>-0.6553016437357304</v>
       </c>
       <c r="J34">
-        <v>-0.2527854784740915</v>
+        <v>-0.3380286278207379</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1494,31 +1494,31 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.005002378392378643</v>
+        <v>-0.259474158568344</v>
       </c>
       <c r="C35">
-        <v>0.002543731828568094</v>
+        <v>0.1301330218189541</v>
       </c>
       <c r="D35">
-        <v>0.004074930198800723</v>
+        <v>0.1878454415172202</v>
       </c>
       <c r="E35">
-        <v>0.003987073619907282</v>
+        <v>0.2037986428957563</v>
       </c>
       <c r="F35">
-        <v>0.004336346397751583</v>
+        <v>0.2094151008402571</v>
       </c>
       <c r="G35">
-        <v>0.004129722210455562</v>
+        <v>0.2176600042184015</v>
       </c>
       <c r="H35">
-        <v>0.003058478735419121</v>
+        <v>0.141517093945358</v>
       </c>
       <c r="I35">
-        <v>-0.0005432495195981242</v>
+        <v>-0.06961236026297161</v>
       </c>
       <c r="J35">
-        <v>-0.001939077196627936</v>
+        <v>-0.07634876945430057</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1526,31 +1526,31 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.4762198729596861</v>
+        <v>-0.6392449286742268</v>
       </c>
       <c r="C36">
-        <v>0.2581518152367572</v>
+        <v>0.2154386104757478</v>
       </c>
       <c r="D36">
-        <v>0.5770323035199999</v>
+        <v>0.2670662953145207</v>
       </c>
       <c r="E36">
-        <v>0.5293229774936129</v>
+        <v>0.6334955171040062</v>
       </c>
       <c r="F36">
-        <v>0.3963094948514331</v>
+        <v>0.4395946556847682</v>
       </c>
       <c r="G36">
-        <v>0.4064438226489364</v>
+        <v>0.4671296214679945</v>
       </c>
       <c r="H36">
-        <v>0.7211318102203813</v>
+        <v>0.2670979867618878</v>
       </c>
       <c r="I36">
-        <v>-1.064359892723992</v>
+        <v>-0.2657286426087294</v>
       </c>
       <c r="J36">
-        <v>-0.3511553989651642</v>
+        <v>-0.2962428002810535</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1558,31 +1558,31 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.4112394583774243</v>
+        <v>-1.171073153218432</v>
       </c>
       <c r="C37">
-        <v>0.2964360276396045</v>
+        <v>0.1467200548879919</v>
       </c>
       <c r="D37">
-        <v>0.2978678842559163</v>
+        <v>0.2683515210255678</v>
       </c>
       <c r="E37">
-        <v>0.4965040222930623</v>
+        <v>0.5825329992097652</v>
       </c>
       <c r="F37">
-        <v>0.358495733601622</v>
+        <v>0.7971118221381952</v>
       </c>
       <c r="G37">
-        <v>0.3685167122672221</v>
+        <v>0.9691968727000981</v>
       </c>
       <c r="H37">
-        <v>0.3569847964879564</v>
+        <v>0.9088861609341887</v>
       </c>
       <c r="I37">
-        <v>-0.3299320137584185</v>
+        <v>-0.5942270182301908</v>
       </c>
       <c r="J37">
-        <v>-0.07269732128536929</v>
+        <v>-0.3215365265727211</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1590,31 +1590,31 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.5421362153510794</v>
+        <v>-0.5973835558618337</v>
       </c>
       <c r="C38">
-        <v>0.5565759328623695</v>
+        <v>0.2055652509117303</v>
       </c>
       <c r="D38">
-        <v>0.1136428416494707</v>
+        <v>0.2569568229312956</v>
       </c>
       <c r="E38">
-        <v>0.6127136886570317</v>
+        <v>0.4714329104972412</v>
       </c>
       <c r="F38">
-        <v>0.626030156129313</v>
+        <v>0.4464731361191493</v>
       </c>
       <c r="G38">
-        <v>0.5923136572573862</v>
+        <v>0.4606662426873739</v>
       </c>
       <c r="H38">
-        <v>0.5303255769952406</v>
+        <v>0.3161994108196233</v>
       </c>
       <c r="I38">
-        <v>-0.9221453533403744</v>
+        <v>-0.231627080722429</v>
       </c>
       <c r="J38">
-        <v>-0.3018681235138344</v>
+        <v>-0.1683039985352794</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1622,31 +1622,31 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.6045361583766655</v>
+        <v>-0.4746747561004508</v>
       </c>
       <c r="C39">
-        <v>0.4337819757143941</v>
+        <v>0.2070766317874271</v>
       </c>
       <c r="D39">
-        <v>0.6612582965898562</v>
+        <v>0.1912099107496673</v>
       </c>
       <c r="E39">
-        <v>0.7368347844027435</v>
+        <v>0.4392750068953241</v>
       </c>
       <c r="F39">
-        <v>0.4708468827929309</v>
+        <v>0.383382257295205</v>
       </c>
       <c r="G39">
-        <v>0.4443408984673866</v>
+        <v>0.4180835601860713</v>
       </c>
       <c r="H39">
-        <v>0.5323254098603492</v>
+        <v>0.2567726707607745</v>
       </c>
       <c r="I39">
-        <v>-1.014893153576005</v>
+        <v>-0.1850778883165058</v>
       </c>
       <c r="J39">
-        <v>-0.5278444431742964</v>
+        <v>-0.1731400653670872</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1654,31 +1654,31 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.4405758783469586</v>
+        <v>-1.081052813062447</v>
       </c>
       <c r="C40">
-        <v>0.3497104060477685</v>
+        <v>0.3451580454515888</v>
       </c>
       <c r="D40">
-        <v>0.08983234537783942</v>
+        <v>0.09654930628873515</v>
       </c>
       <c r="E40">
-        <v>0.579402156815177</v>
+        <v>0.7227862876636875</v>
       </c>
       <c r="F40">
-        <v>0.4768770522502511</v>
+        <v>0.8938196980108475</v>
       </c>
       <c r="G40">
-        <v>0.5919932332537005</v>
+        <v>0.7080967836863344</v>
       </c>
       <c r="H40">
-        <v>0.5878731446446782</v>
+        <v>0.5728275422773775</v>
       </c>
       <c r="I40">
-        <v>-0.8934545936075958</v>
+        <v>-0.5789972287760116</v>
       </c>
       <c r="J40">
-        <v>-0.2788884906408615</v>
+        <v>-0.3960019470561372</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1686,31 +1686,31 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.1986626557803325</v>
+        <v>-0.005466575905803916</v>
       </c>
       <c r="C41">
-        <v>0.09184519933549916</v>
+        <v>0.00273723832335181</v>
       </c>
       <c r="D41">
-        <v>0.129045462104674</v>
+        <v>0.004104025075104591</v>
       </c>
       <c r="E41">
-        <v>0.1969227794849361</v>
+        <v>0.004581849706432148</v>
       </c>
       <c r="F41">
-        <v>0.1885275241166001</v>
+        <v>0.004933085067400165</v>
       </c>
       <c r="G41">
-        <v>0.1918041995385121</v>
+        <v>0.005098834100587844</v>
       </c>
       <c r="H41">
-        <v>0.1636225676223872</v>
+        <v>0.002506021724394243</v>
       </c>
       <c r="I41">
-        <v>-0.04960039959080034</v>
+        <v>-0.001098961535190052</v>
       </c>
       <c r="J41">
-        <v>-0.08512704502110775</v>
+        <v>-0.001693577811178935</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1718,31 +1718,31 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.4181346279485557</v>
+        <v>-0.6119212059342802</v>
       </c>
       <c r="C42">
-        <v>0.2113769559694593</v>
+        <v>0.3014742811263084</v>
       </c>
       <c r="D42">
-        <v>0.241069713020426</v>
+        <v>0.06892593270371737</v>
       </c>
       <c r="E42">
-        <v>0.434084130082888</v>
+        <v>0.5733295639586821</v>
       </c>
       <c r="F42">
-        <v>0.347529834737897</v>
+        <v>0.4186343152719749</v>
       </c>
       <c r="G42">
-        <v>0.3663895570813548</v>
+        <v>0.5234945402822142</v>
       </c>
       <c r="H42">
-        <v>0.2874314424904637</v>
+        <v>0.4284791683252679</v>
       </c>
       <c r="I42">
-        <v>-0.2064024787056231</v>
+        <v>-0.3301787461450525</v>
       </c>
       <c r="J42">
-        <v>-0.2340941015349655</v>
+        <v>-0.3007132538209726</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1750,31 +1750,31 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.5021911332976365</v>
+        <v>-0.3180673111070481</v>
       </c>
       <c r="C43">
-        <v>0.3588537017778533</v>
+        <v>0.1463776593962935</v>
       </c>
       <c r="D43">
-        <v>-0.03147095321255946</v>
+        <v>0.1797669379116683</v>
       </c>
       <c r="E43">
-        <v>0.4754305526481523</v>
+        <v>0.2771956955329075</v>
       </c>
       <c r="F43">
-        <v>0.7533240152422326</v>
+        <v>0.2236039982231446</v>
       </c>
       <c r="G43">
-        <v>0.7727317204111027</v>
+        <v>0.2316178434021392</v>
       </c>
       <c r="H43">
-        <v>0.6289823250336092</v>
+        <v>0.1542219704947967</v>
       </c>
       <c r="I43">
-        <v>-1.275518174075417</v>
+        <v>-0.05683433438891194</v>
       </c>
       <c r="J43">
-        <v>-0.2475947678162279</v>
+        <v>-0.03995195409588329</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1782,31 +1782,31 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.3294110489533855</v>
+        <v>-0.5675440404070426</v>
       </c>
       <c r="C44">
-        <v>0.4013368827522096</v>
+        <v>0.177511275895108</v>
       </c>
       <c r="D44">
-        <v>0.1861935937358101</v>
+        <v>0.3822166178813232</v>
       </c>
       <c r="E44">
-        <v>0.3480609221890821</v>
+        <v>0.5219512376818322</v>
       </c>
       <c r="F44">
-        <v>0.4317429358226353</v>
+        <v>0.2983817154758389</v>
       </c>
       <c r="G44">
-        <v>0.5125329592046324</v>
+        <v>0.3523002529085833</v>
       </c>
       <c r="H44">
-        <v>0.5315331522289601</v>
+        <v>0.2976173198185522</v>
       </c>
       <c r="I44">
-        <v>-0.760494266422552</v>
+        <v>-0.2173264631728733</v>
       </c>
       <c r="J44">
-        <v>-0.4182147635728669</v>
+        <v>-0.2542519076556786</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1814,31 +1814,31 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.003930383452315042</v>
+        <v>-0.6361264534278909</v>
       </c>
       <c r="C45">
-        <v>0.002218030038103068</v>
+        <v>0.1336452152456432</v>
       </c>
       <c r="D45">
-        <v>0.003698286990702352</v>
+        <v>0.02100654619837586</v>
       </c>
       <c r="E45">
-        <v>0.004205305421574353</v>
+        <v>0.6210633625982872</v>
       </c>
       <c r="F45">
-        <v>0.003904552493259845</v>
+        <v>0.4749878435990555</v>
       </c>
       <c r="G45">
-        <v>0.003531144021956347</v>
+        <v>0.5383301235639921</v>
       </c>
       <c r="H45">
-        <v>0.001913278820121949</v>
+        <v>0.5280437923878368</v>
       </c>
       <c r="I45">
-        <v>-0.0005450066836684482</v>
+        <v>-0.3099240556008277</v>
       </c>
       <c r="J45">
-        <v>-0.001442044107496688</v>
+        <v>-0.2140253600176573</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1846,31 +1846,31 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.003415802859529912</v>
+        <v>-1.08510920949508</v>
       </c>
       <c r="C46">
-        <v>0.001781518310754074</v>
+        <v>0.5469099315771218</v>
       </c>
       <c r="D46">
-        <v>0.003083270511007824</v>
+        <v>0.01391065198366181</v>
       </c>
       <c r="E46">
-        <v>0.003818663201400163</v>
+        <v>0.8705311628663227</v>
       </c>
       <c r="F46">
-        <v>0.003049888881047952</v>
+        <v>0.6841934727625146</v>
       </c>
       <c r="G46">
-        <v>0.003693857848544676</v>
+        <v>0.6538081238077729</v>
       </c>
       <c r="H46">
-        <v>0.00308275940261376</v>
+        <v>0.8102979855572998</v>
       </c>
       <c r="I46">
-        <v>-0.0005442891470461833</v>
+        <v>-0.7077758973546404</v>
       </c>
       <c r="J46">
-        <v>-0.001133382963661517</v>
+        <v>-0.3402952193026113</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1878,31 +1878,31 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.2235871132305268</v>
+        <v>-0.8894550475456373</v>
       </c>
       <c r="C47">
-        <v>0.1443727924417489</v>
+        <v>0.4469793273403536</v>
       </c>
       <c r="D47">
-        <v>0.1508422010584139</v>
+        <v>0.2172390444227134</v>
       </c>
       <c r="E47">
-        <v>0.2177448563445161</v>
+        <v>0.6251103163482493</v>
       </c>
       <c r="F47">
-        <v>0.1906708773604852</v>
+        <v>0.5112317656762752</v>
       </c>
       <c r="G47">
-        <v>0.1890453561002546</v>
+        <v>0.539146043345327</v>
       </c>
       <c r="H47">
-        <v>0.1394171568026062</v>
+        <v>0.7401342458046937</v>
       </c>
       <c r="I47">
-        <v>-0.04962667991434069</v>
+        <v>-0.4755714623029728</v>
       </c>
       <c r="J47">
-        <v>-0.09497960333638193</v>
+        <v>-0.3712297012796619</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1910,31 +1910,31 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.4853400349301282</v>
+        <v>-0.6439006734801562</v>
       </c>
       <c r="C48">
-        <v>0.5913129413769008</v>
+        <v>0.199452256471114</v>
       </c>
       <c r="D48">
-        <v>0.207596270793389</v>
+        <v>0.3463987055309576</v>
       </c>
       <c r="E48">
-        <v>0.606388034973166</v>
+        <v>0.441267327359002</v>
       </c>
       <c r="F48">
-        <v>0.506509851040059</v>
+        <v>0.4423105922708112</v>
       </c>
       <c r="G48">
-        <v>0.5536895666365282</v>
+        <v>0.4347318401203108</v>
       </c>
       <c r="H48">
-        <v>0.3229637528288456</v>
+        <v>0.4515817750098226</v>
       </c>
       <c r="I48">
-        <v>-0.9320805125441821</v>
+        <v>-0.3767560260951106</v>
       </c>
       <c r="J48">
-        <v>-0.5580583314475747</v>
+        <v>-0.3524509404522168</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1942,31 +1942,31 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.3447979804342836</v>
+        <v>-0.7470412334869579</v>
       </c>
       <c r="C49">
-        <v>0.3070858476524085</v>
+        <v>0.2564882157273715</v>
       </c>
       <c r="D49">
-        <v>0.2139150277079432</v>
+        <v>0.1732663410232826</v>
       </c>
       <c r="E49">
-        <v>0.3718158123651851</v>
+        <v>0.679132825835038</v>
       </c>
       <c r="F49">
-        <v>0.3435197137265724</v>
+        <v>0.459930259412485</v>
       </c>
       <c r="G49">
-        <v>0.3583648100686341</v>
+        <v>0.4724134352415899</v>
       </c>
       <c r="H49">
-        <v>0.4486287168099853</v>
+        <v>0.4524237105384913</v>
       </c>
       <c r="I49">
-        <v>-0.3727814800270249</v>
+        <v>-0.3716020794189959</v>
       </c>
       <c r="J49">
-        <v>-0.2696728477817186</v>
+        <v>-0.3159374850830591</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1974,31 +1974,31 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.003741156914350464</v>
+        <v>-0.9315564808976557</v>
       </c>
       <c r="C50">
-        <v>0.002106315700431601</v>
+        <v>0.5159436476660998</v>
       </c>
       <c r="D50">
-        <v>0.003554084395778184</v>
+        <v>0.1519640078276037</v>
       </c>
       <c r="E50">
-        <v>0.003601928871544916</v>
+        <v>0.5089492840136427</v>
       </c>
       <c r="F50">
-        <v>0.003960662024223801</v>
+        <v>0.6440202494061353</v>
       </c>
       <c r="G50">
-        <v>0.003667015303653172</v>
+        <v>0.8206765013535212</v>
       </c>
       <c r="H50">
-        <v>0.002196034904416834</v>
+        <v>0.6837246675123845</v>
       </c>
       <c r="I50">
-        <v>-0.0005434730460254674</v>
+        <v>-0.4779408525329778</v>
       </c>
       <c r="J50">
-        <v>-0.00159334091487323</v>
+        <v>-0.295697453403289</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2006,31 +2006,31 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.457967418913115</v>
+        <v>-0.2715847593950343</v>
       </c>
       <c r="C51">
-        <v>0.2533600946904196</v>
+        <v>0.1656533889041984</v>
       </c>
       <c r="D51">
-        <v>0.3408597543151449</v>
+        <v>0.1580556030462425</v>
       </c>
       <c r="E51">
-        <v>0.6937501397426156</v>
+        <v>0.2250807337556667</v>
       </c>
       <c r="F51">
-        <v>0.5596540748164681</v>
+        <v>0.2233496684154076</v>
       </c>
       <c r="G51">
-        <v>0.5441063244822313</v>
+        <v>0.2277791985825705</v>
       </c>
       <c r="H51">
-        <v>0.4066569833553579</v>
+        <v>0.1221370242946769</v>
       </c>
       <c r="I51">
-        <v>-1.001929882149108</v>
+        <v>-0.07351793025455904</v>
       </c>
       <c r="J51">
-        <v>-0.3544276736059279</v>
+        <v>-0.08252805504163965</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2038,31 +2038,31 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.6270864576045493</v>
+        <v>-0.2257136390467119</v>
       </c>
       <c r="C52">
-        <v>0.3331546332791765</v>
+        <v>0.1257690569930031</v>
       </c>
       <c r="D52">
-        <v>0.1359904002949461</v>
+        <v>0.1384313747782598</v>
       </c>
       <c r="E52">
-        <v>0.7934095006532578</v>
+        <v>0.1845420609232751</v>
       </c>
       <c r="F52">
-        <v>0.5464141783411937</v>
+        <v>0.2059162467723714</v>
       </c>
       <c r="G52">
-        <v>0.5918278187933382</v>
+        <v>0.2181639762501649</v>
       </c>
       <c r="H52">
-        <v>0.5858976517971324</v>
+        <v>0.1363132756262235</v>
       </c>
       <c r="I52">
-        <v>-0.6637969236203127</v>
+        <v>-0.09317444699084027</v>
       </c>
       <c r="J52">
-        <v>-0.2975349527584618</v>
+        <v>-0.08230556703334875</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2070,31 +2070,31 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.04143940140634136</v>
+        <v>-0.9300821023378794</v>
       </c>
       <c r="C53">
-        <v>0.01843042351573818</v>
+        <v>0.3612622047849057</v>
       </c>
       <c r="D53">
-        <v>0.03408414890277684</v>
+        <v>-0.06849374916159891</v>
       </c>
       <c r="E53">
-        <v>0.03992577814663666</v>
+        <v>0.8071320544868882</v>
       </c>
       <c r="F53">
-        <v>0.03727690279334675</v>
+        <v>0.6316714473242903</v>
       </c>
       <c r="G53">
-        <v>0.03495913502818877</v>
+        <v>0.7940961945093874</v>
       </c>
       <c r="H53">
-        <v>0.02808641484259015</v>
+        <v>0.6842366487112356</v>
       </c>
       <c r="I53">
-        <v>-0.005413785041228771</v>
+        <v>-0.5119614142582393</v>
       </c>
       <c r="J53">
-        <v>-0.01030241921339769</v>
+        <v>-0.3059812910916004</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2102,31 +2102,31 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.3531611338733671</v>
+        <v>-0.8342582027104845</v>
       </c>
       <c r="C54">
-        <v>0.2090072944616899</v>
+        <v>0.5527774935899916</v>
       </c>
       <c r="D54">
-        <v>0.1489492960727843</v>
+        <v>0.1558801174334255</v>
       </c>
       <c r="E54">
-        <v>0.6420152044659045</v>
+        <v>0.5049933430050755</v>
       </c>
       <c r="F54">
-        <v>0.4850668014283447</v>
+        <v>0.5124083189921839</v>
       </c>
       <c r="G54">
-        <v>0.5763660277656296</v>
+        <v>0.5668365125412663</v>
       </c>
       <c r="H54">
-        <v>0.7086246111032678</v>
+        <v>0.6926958663786036</v>
       </c>
       <c r="I54">
-        <v>-1.169479271029452</v>
+        <v>-0.477773867188592</v>
       </c>
       <c r="J54">
-        <v>-0.2614229103635434</v>
+        <v>-0.4146907163616295</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2134,31 +2134,31 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.4851445692055413</v>
+        <v>-0.7397758840641215</v>
       </c>
       <c r="C55">
-        <v>0.1929189055927009</v>
+        <v>0.2565345642022554</v>
       </c>
       <c r="D55">
-        <v>0.2150564318361234</v>
+        <v>0.2661571052467659</v>
       </c>
       <c r="E55">
-        <v>0.3698099040407861</v>
+        <v>0.7446019866689949</v>
       </c>
       <c r="F55">
-        <v>0.4143323104151604</v>
+        <v>0.4119589465795594</v>
       </c>
       <c r="G55">
-        <v>0.4366308819916448</v>
+        <v>0.4511463484094886</v>
       </c>
       <c r="H55">
-        <v>0.3737670140216481</v>
+        <v>0.408790680714033</v>
       </c>
       <c r="I55">
-        <v>-0.2103291318523949</v>
+        <v>-0.3782890670498427</v>
       </c>
       <c r="J55">
-        <v>-0.2517238602284024</v>
+        <v>-0.207487429414522</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2166,31 +2166,31 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.5271068287935408</v>
+        <v>-0.2750323291081538</v>
       </c>
       <c r="C56">
-        <v>0.3320438020670378</v>
+        <v>0.1232676543084428</v>
       </c>
       <c r="D56">
-        <v>0.3142314074853641</v>
+        <v>0.1592863922031091</v>
       </c>
       <c r="E56">
-        <v>0.5459717280019022</v>
+        <v>0.2502247403187953</v>
       </c>
       <c r="F56">
-        <v>0.4055314829879542</v>
+        <v>0.2302256657780452</v>
       </c>
       <c r="G56">
-        <v>0.4203328110451433</v>
+        <v>0.2150982059343984</v>
       </c>
       <c r="H56">
-        <v>0.3072036791659643</v>
+        <v>0.127539727386783</v>
       </c>
       <c r="I56">
-        <v>-0.2753191176775789</v>
+        <v>-0.08874535749626283</v>
       </c>
       <c r="J56">
-        <v>-0.2969746049802354</v>
+        <v>-0.1203959451455108</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2198,31 +2198,31 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.3387701441047204</v>
+        <v>-0.8492560780890673</v>
       </c>
       <c r="C57">
-        <v>-0.1291938558334945</v>
+        <v>0.3008195143281698</v>
       </c>
       <c r="D57">
-        <v>0.2967793872753459</v>
+        <v>0.233667991876692</v>
       </c>
       <c r="E57">
-        <v>0.4587506384805717</v>
+        <v>0.7900536424847271</v>
       </c>
       <c r="F57">
-        <v>0.4231790449931844</v>
+        <v>0.5211578880759982</v>
       </c>
       <c r="G57">
-        <v>0.5031799759887217</v>
+        <v>0.5134654440203934</v>
       </c>
       <c r="H57">
-        <v>0.7397556630320848</v>
+        <v>0.5146177329653943</v>
       </c>
       <c r="I57">
-        <v>-0.7798219339043324</v>
+        <v>-0.4932798826337605</v>
       </c>
       <c r="J57">
-        <v>-0.06158042486360152</v>
+        <v>-0.4903892906356284</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2230,31 +2230,31 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.7853361529045841</v>
+        <v>-0.005675727360278854</v>
       </c>
       <c r="C58">
-        <v>0.4567594632570081</v>
+        <v>0.002960283373351368</v>
       </c>
       <c r="D58">
-        <v>-0.04974658891322361</v>
+        <v>0.004117705579520313</v>
       </c>
       <c r="E58">
-        <v>0.9361284988443995</v>
+        <v>0.004909218368594003</v>
       </c>
       <c r="F58">
-        <v>0.6741295341840154</v>
+        <v>0.005086978086261285</v>
       </c>
       <c r="G58">
-        <v>0.550509048642962</v>
+        <v>0.004854522495147486</v>
       </c>
       <c r="H58">
-        <v>0.7489410405911286</v>
+        <v>0.002618240682140756</v>
       </c>
       <c r="I58">
-        <v>-0.6377296173483952</v>
+        <v>-0.001108432450792711</v>
       </c>
       <c r="J58">
-        <v>-0.2205211570280429</v>
+        <v>-0.001637023893273397</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2262,31 +2262,31 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.460174383762355</v>
+        <v>-0.8510365843984731</v>
       </c>
       <c r="C59">
-        <v>0.317365041916131</v>
+        <v>0.2959089305178304</v>
       </c>
       <c r="D59">
-        <v>0.2614881028575698</v>
+        <v>0.2651183957966253</v>
       </c>
       <c r="E59">
-        <v>0.4792934829021948</v>
+        <v>0.7921998382286226</v>
       </c>
       <c r="F59">
-        <v>0.6114529556311786</v>
+        <v>0.5341336280850726</v>
       </c>
       <c r="G59">
-        <v>0.5995095269554296</v>
+        <v>0.4711665029232031</v>
       </c>
       <c r="H59">
-        <v>0.4572814046427447</v>
+        <v>0.666710612740347</v>
       </c>
       <c r="I59">
-        <v>-0.8635817606905567</v>
+        <v>-0.5584686192443771</v>
       </c>
       <c r="J59">
-        <v>-0.3890706436810816</v>
+        <v>-0.2769688944721873</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2294,31 +2294,31 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.4797172164442017</v>
+        <v>-0.8380628557372257</v>
       </c>
       <c r="C60">
-        <v>0.126546824892585</v>
+        <v>0.4725724095570362</v>
       </c>
       <c r="D60">
-        <v>0.4057903637543511</v>
+        <v>0.3573816995127529</v>
       </c>
       <c r="E60">
-        <v>0.5964672620918029</v>
+        <v>0.6559787411383781</v>
       </c>
       <c r="F60">
-        <v>0.3497355754227213</v>
+        <v>0.4490441760277044</v>
       </c>
       <c r="G60">
-        <v>0.3308082667654692</v>
+        <v>0.4855984883497715</v>
       </c>
       <c r="H60">
-        <v>0.4670707163109165</v>
+        <v>0.6937473226384225</v>
       </c>
       <c r="I60">
-        <v>-0.3477916657896972</v>
+        <v>-0.5157925143240555</v>
       </c>
       <c r="J60">
-        <v>-0.1033093330180467</v>
+        <v>-0.4093415621268717</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2326,31 +2326,31 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.5290079229231295</v>
+        <v>-0.04749896299566018</v>
       </c>
       <c r="C61">
-        <v>0.3441664690562615</v>
+        <v>0.02975234103715191</v>
       </c>
       <c r="D61">
-        <v>0.07372872234437081</v>
+        <v>0.03739790435906557</v>
       </c>
       <c r="E61">
-        <v>0.8185326946486977</v>
+        <v>0.03650103407544393</v>
       </c>
       <c r="F61">
-        <v>0.414620032702932</v>
+        <v>0.03988829064975057</v>
       </c>
       <c r="G61">
-        <v>0.4953057776726569</v>
+        <v>0.04194940166560089</v>
       </c>
       <c r="H61">
-        <v>0.487123393940287</v>
+        <v>0.02739218969798813</v>
       </c>
       <c r="I61">
-        <v>-0.4445013313960305</v>
+        <v>-0.01119412024818135</v>
       </c>
       <c r="J61">
-        <v>-0.2297580039575255</v>
+        <v>-0.01842726644544527</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2358,31 +2358,31 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.497373300283435</v>
+        <v>-0.5627429712693534</v>
       </c>
       <c r="C62">
-        <v>0.3612267971580488</v>
+        <v>0.2827225444811516</v>
       </c>
       <c r="D62">
-        <v>0.2567407779306807</v>
+        <v>0.219158801468997</v>
       </c>
       <c r="E62">
-        <v>0.7432581185024865</v>
+        <v>0.5133076217911764</v>
       </c>
       <c r="F62">
-        <v>0.4692116869018127</v>
+        <v>0.4295576929321176</v>
       </c>
       <c r="G62">
-        <v>0.4534529041753318</v>
+        <v>0.4471891601574807</v>
       </c>
       <c r="H62">
-        <v>0.5773222969218801</v>
+        <v>0.3077071176224606</v>
       </c>
       <c r="I62">
-        <v>-0.829344783246235</v>
+        <v>-0.2780592878354463</v>
       </c>
       <c r="J62">
-        <v>-0.3001835469214754</v>
+        <v>-0.1696283477307531</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2390,31 +2390,31 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.5593713315522193</v>
+        <v>-0.9478361602936173</v>
       </c>
       <c r="C63">
-        <v>0.4785423349836004</v>
+        <v>0.05096278517526785</v>
       </c>
       <c r="D63">
-        <v>-0.08087925222573096</v>
+        <v>0.3552513427575352</v>
       </c>
       <c r="E63">
-        <v>0.5493269390686704</v>
+        <v>0.6385660725024898</v>
       </c>
       <c r="F63">
-        <v>0.6343948803453068</v>
+        <v>0.6263900260141215</v>
       </c>
       <c r="G63">
-        <v>0.7092738818684198</v>
+        <v>0.6908366248965478</v>
       </c>
       <c r="H63">
-        <v>0.6543955308268711</v>
+        <v>0.5749837284427963</v>
       </c>
       <c r="I63">
-        <v>-0.9277278891958721</v>
+        <v>-0.4684309129112243</v>
       </c>
       <c r="J63">
-        <v>-0.3825888331477633</v>
+        <v>-0.4598035289531953</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2422,31 +2422,31 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.4115613143801867</v>
+        <v>-1.238382359207264</v>
       </c>
       <c r="C64">
-        <v>0.2655126164347698</v>
+        <v>0.2471406738350155</v>
       </c>
       <c r="D64">
-        <v>0.2759833091771977</v>
+        <v>0.1885190109897845</v>
       </c>
       <c r="E64">
-        <v>0.5697426860782961</v>
+        <v>0.6410090263757117</v>
       </c>
       <c r="F64">
-        <v>0.5077081302037402</v>
+        <v>0.8173544334905369</v>
       </c>
       <c r="G64">
-        <v>0.5463038172813145</v>
+        <v>0.8565710973822129</v>
       </c>
       <c r="H64">
-        <v>0.5651769563800807</v>
+        <v>0.906947411358228</v>
       </c>
       <c r="I64">
-        <v>-0.797617710008261</v>
+        <v>-0.5682741730454307</v>
       </c>
       <c r="J64">
-        <v>-0.1324160514072328</v>
+        <v>-0.2855301862057583</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2454,31 +2454,31 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.436380695527281</v>
+        <v>-0.8741079311133423</v>
       </c>
       <c r="C65">
-        <v>0.2778408720816571</v>
+        <v>0.1473525297455615</v>
       </c>
       <c r="D65">
-        <v>0.1553307815865158</v>
+        <v>0.2286596152122568</v>
       </c>
       <c r="E65">
-        <v>0.6417275268688259</v>
+        <v>0.9105188716666834</v>
       </c>
       <c r="F65">
-        <v>0.3780103374015992</v>
+        <v>0.4690772528091243</v>
       </c>
       <c r="G65">
-        <v>0.3542573644607266</v>
+        <v>0.5759187057995906</v>
       </c>
       <c r="H65">
-        <v>0.3725432812497243</v>
+        <v>0.5980191484324804</v>
       </c>
       <c r="I65">
-        <v>-0.2722946253297198</v>
+        <v>-0.7199335100848421</v>
       </c>
       <c r="J65">
-        <v>-0.2251464957021473</v>
+        <v>-0.5471772676390256</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2486,31 +2486,31 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.7180112172042379</v>
+        <v>-0.6264729354014621</v>
       </c>
       <c r="C66">
-        <v>0.3888908347375252</v>
+        <v>0.2752702813212245</v>
       </c>
       <c r="D66">
-        <v>0.2080945241493979</v>
+        <v>0.09837214893284113</v>
       </c>
       <c r="E66">
-        <v>0.6846269824283456</v>
+        <v>0.5735507738896243</v>
       </c>
       <c r="F66">
-        <v>0.7501541200178714</v>
+        <v>0.4877065179242809</v>
       </c>
       <c r="G66">
-        <v>0.7914434091146475</v>
+        <v>0.5430690983721032</v>
       </c>
       <c r="H66">
-        <v>0.569048938998877</v>
+        <v>0.3911491772446635</v>
       </c>
       <c r="I66">
-        <v>-1.154883537949821</v>
+        <v>-0.2751510575891851</v>
       </c>
       <c r="J66">
-        <v>-0.5159977674109207</v>
+        <v>-0.2090988500062331</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2518,31 +2518,31 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.4472722344300382</v>
+        <v>-1.077015351749731</v>
       </c>
       <c r="C67">
-        <v>0.2135641628799648</v>
+        <v>0.5178003646993259</v>
       </c>
       <c r="D67">
-        <v>0.2878106296472405</v>
+        <v>0.07104383895450003</v>
       </c>
       <c r="E67">
-        <v>0.529004589895299</v>
+        <v>0.7669114388018031</v>
       </c>
       <c r="F67">
-        <v>0.4193585309843192</v>
+        <v>0.7567702193148048</v>
       </c>
       <c r="G67">
-        <v>0.4170704781412241</v>
+        <v>0.8143830047543876</v>
       </c>
       <c r="H67">
-        <v>0.3158692610704116</v>
+        <v>0.3989253513670605</v>
       </c>
       <c r="I67">
-        <v>-0.3200940546622792</v>
+        <v>-0.6058749645749985</v>
       </c>
       <c r="J67">
-        <v>-0.2604278781153918</v>
+        <v>-0.3719615629983608</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2550,31 +2550,31 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.3587863618153509</v>
+        <v>-0.6952791433573521</v>
       </c>
       <c r="C68">
-        <v>0.1747366840218773</v>
+        <v>0.2119161952924676</v>
       </c>
       <c r="D68">
-        <v>0.1704124863330697</v>
+        <v>0.1929672470440977</v>
       </c>
       <c r="E68">
-        <v>0.264646246432384</v>
+        <v>0.7539084921741824</v>
       </c>
       <c r="F68">
-        <v>0.3833645508991648</v>
+        <v>0.3671923137412973</v>
       </c>
       <c r="G68">
-        <v>0.450709337111083</v>
+        <v>0.595827584063244</v>
       </c>
       <c r="H68">
-        <v>0.3412529719759336</v>
+        <v>0.3647444566314497</v>
       </c>
       <c r="I68">
-        <v>-0.2020946248392252</v>
+        <v>-0.3284681056591973</v>
       </c>
       <c r="J68">
-        <v>-0.1425534404649114</v>
+        <v>-0.1441987503493157</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2582,31 +2582,31 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.4790743961490253</v>
+        <v>-0.7180729864516552</v>
       </c>
       <c r="C69">
-        <v>0.2279008182705102</v>
+        <v>0.1057907732873129</v>
       </c>
       <c r="D69">
-        <v>0.1945173003155481</v>
+        <v>0.3305155528480426</v>
       </c>
       <c r="E69">
-        <v>0.6719777121153915</v>
+        <v>0.4662924790978042</v>
       </c>
       <c r="F69">
-        <v>0.3601409213737592</v>
+        <v>0.516068877046265</v>
       </c>
       <c r="G69">
-        <v>0.4274914307023103</v>
+        <v>0.5779083405414713</v>
       </c>
       <c r="H69">
-        <v>0.3193742564806604</v>
+        <v>0.5124658189406923</v>
       </c>
       <c r="I69">
-        <v>-0.2599217271518417</v>
+        <v>-0.3844880696915343</v>
       </c>
       <c r="J69">
-        <v>-0.1843526463717359</v>
+        <v>-0.2566169198295521</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2614,31 +2614,31 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.3828898702976155</v>
+        <v>-0.2659549537435157</v>
       </c>
       <c r="C70">
-        <v>0.1629278488263406</v>
+        <v>0.144206834018859</v>
       </c>
       <c r="D70">
-        <v>0.3711141027872567</v>
+        <v>0.1595849466269079</v>
       </c>
       <c r="E70">
-        <v>0.4294187348338488</v>
+        <v>0.2370819778127923</v>
       </c>
       <c r="F70">
-        <v>0.2835982795087253</v>
+        <v>0.2088568855919336</v>
       </c>
       <c r="G70">
-        <v>0.2799498818615946</v>
+        <v>0.2038492305659736</v>
       </c>
       <c r="H70">
-        <v>0.392334444895471</v>
+        <v>0.1579559019190289</v>
       </c>
       <c r="I70">
-        <v>-0.2225613151332872</v>
+        <v>-0.08744664106507169</v>
       </c>
       <c r="J70">
-        <v>-0.1035712234375304</v>
+        <v>-0.1077903255061405</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2646,31 +2646,31 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.4666739114100886</v>
+        <v>-0.005715586668094713</v>
       </c>
       <c r="C71">
-        <v>0.062640306855358</v>
+        <v>0.0028754008297804</v>
       </c>
       <c r="D71">
-        <v>0.4726117655448193</v>
+        <v>0.004545440730046687</v>
       </c>
       <c r="E71">
-        <v>0.589594062236467</v>
+        <v>0.004997406130256899</v>
       </c>
       <c r="F71">
-        <v>0.4573168220161499</v>
+        <v>0.004522722626797395</v>
       </c>
       <c r="G71">
-        <v>0.4351768837166538</v>
+        <v>0.004580267499495907</v>
       </c>
       <c r="H71">
-        <v>0.5818289262720624</v>
+        <v>0.003321996136370144</v>
       </c>
       <c r="I71">
-        <v>-0.7606134529558769</v>
+        <v>-0.001105168558783546</v>
       </c>
       <c r="J71">
-        <v>-0.136886555162402</v>
+        <v>-0.001787939629320511</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2678,31 +2678,31 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.004516709315489622</v>
+        <v>-0.8922147323656748</v>
       </c>
       <c r="C72">
-        <v>0.00263778432103006</v>
+        <v>0.5051874362637853</v>
       </c>
       <c r="D72">
-        <v>0.003694911240569602</v>
+        <v>0.2523797630377273</v>
       </c>
       <c r="E72">
-        <v>0.004245649391388243</v>
+        <v>0.7724780682305192</v>
       </c>
       <c r="F72">
-        <v>0.003551846920436504</v>
+        <v>0.6430156291381783</v>
       </c>
       <c r="G72">
-        <v>0.003665579632005331</v>
+        <v>0.3645746918491444</v>
       </c>
       <c r="H72">
-        <v>0.003090679431778853</v>
+        <v>0.7038722237781874</v>
       </c>
       <c r="I72">
-        <v>-0.0005451274315288215</v>
+        <v>-0.6256258631489576</v>
       </c>
       <c r="J72">
-        <v>-0.002332776999794783</v>
+        <v>-0.2620464859664184</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2710,31 +2710,31 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.5139471154380373</v>
+        <v>-0.7220707200671808</v>
       </c>
       <c r="C73">
-        <v>0.4485606189449038</v>
+        <v>0.1276960320367578</v>
       </c>
       <c r="D73">
-        <v>0.02873318090955209</v>
+        <v>0.1823780573615301</v>
       </c>
       <c r="E73">
-        <v>0.7154972742054406</v>
+        <v>0.6129571720697583</v>
       </c>
       <c r="F73">
-        <v>0.5514348926519688</v>
+        <v>0.4601080290739638</v>
       </c>
       <c r="G73">
-        <v>0.5450756432576472</v>
+        <v>0.5239225222030999</v>
       </c>
       <c r="H73">
-        <v>0.6028335903735773</v>
+        <v>0.5315847046727902</v>
       </c>
       <c r="I73">
-        <v>-0.8482646771958531</v>
+        <v>-0.328190358812669</v>
       </c>
       <c r="J73">
-        <v>-0.3889354156866809</v>
+        <v>-0.2162908651652927</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2742,31 +2742,31 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.5885553894456619</v>
+        <v>-0.5615369783453708</v>
       </c>
       <c r="C74">
-        <v>0.3277002949339589</v>
+        <v>0.3009737384119943</v>
       </c>
       <c r="D74">
-        <v>0.4671177939273137</v>
+        <v>0.2370977363872337</v>
       </c>
       <c r="E74">
-        <v>0.4943279508548107</v>
+        <v>0.4451821234029673</v>
       </c>
       <c r="F74">
-        <v>0.5904262357137513</v>
+        <v>0.4048469946880219</v>
       </c>
       <c r="G74">
-        <v>0.6838197706866046</v>
+        <v>0.3768503171255794</v>
       </c>
       <c r="H74">
-        <v>0.8778724461271311</v>
+        <v>0.3468262986469791</v>
       </c>
       <c r="I74">
-        <v>-1.215828731771266</v>
+        <v>-0.2280742850858453</v>
       </c>
       <c r="J74">
-        <v>-0.2277718712811835</v>
+        <v>-0.1874223298644808</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2774,31 +2774,31 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.0357863937787894</v>
+        <v>-0.2704483206454901</v>
       </c>
       <c r="C75">
-        <v>0.02190155074504957</v>
+        <v>0.1383464100232605</v>
       </c>
       <c r="D75">
-        <v>0.0316229042018972</v>
+        <v>0.203710938268413</v>
       </c>
       <c r="E75">
-        <v>0.03196749856491517</v>
+        <v>0.22718654027651</v>
       </c>
       <c r="F75">
-        <v>0.03486600602730797</v>
+        <v>0.2066288119295065</v>
       </c>
       <c r="G75">
-        <v>0.03397136003310815</v>
+        <v>0.1996586878378462</v>
       </c>
       <c r="H75">
-        <v>0.02617407901377168</v>
+        <v>0.1086134311548916</v>
       </c>
       <c r="I75">
-        <v>-0.005325059593798768</v>
+        <v>-0.09693839247546333</v>
       </c>
       <c r="J75">
-        <v>-0.01380149102046601</v>
+        <v>-0.1375488282561656</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2806,31 +2806,31 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.004515750775262911</v>
+        <v>-0.005021923330737362</v>
       </c>
       <c r="C76">
-        <v>0.00258742838358499</v>
+        <v>0.002963636812516884</v>
       </c>
       <c r="D76">
-        <v>0.003953624848885466</v>
+        <v>0.003929643945959699</v>
       </c>
       <c r="E76">
-        <v>0.003945313972855637</v>
+        <v>0.004455825181796142</v>
       </c>
       <c r="F76">
-        <v>0.003810795053473837</v>
+        <v>0.004783938494331914</v>
       </c>
       <c r="G76">
-        <v>0.00389928182732625</v>
+        <v>0.004561986730192378</v>
       </c>
       <c r="H76">
-        <v>0.003135621348272198</v>
+        <v>0.002747687118465654</v>
       </c>
       <c r="I76">
-        <v>-0.0005455620607633321</v>
+        <v>-0.001100667791288402</v>
       </c>
       <c r="J76">
-        <v>-0.001485533111817686</v>
+        <v>-0.0009361053086488122</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2838,31 +2838,31 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.4936556088799371</v>
+        <v>-0.5691157848253287</v>
       </c>
       <c r="C77">
-        <v>0.178161193298405</v>
+        <v>0.3707885763331449</v>
       </c>
       <c r="D77">
-        <v>0.2628587447650615</v>
+        <v>0.194220210439316</v>
       </c>
       <c r="E77">
-        <v>0.4790241914148455</v>
+        <v>0.5182250322506079</v>
       </c>
       <c r="F77">
-        <v>0.3310409402243098</v>
+        <v>0.4048100583072107</v>
       </c>
       <c r="G77">
-        <v>0.3472790382304011</v>
+        <v>0.4504194364058455</v>
       </c>
       <c r="H77">
-        <v>0.4027250046771078</v>
+        <v>0.3767668146849819</v>
       </c>
       <c r="I77">
-        <v>-0.1903469761806372</v>
+        <v>-0.306371061570163</v>
       </c>
       <c r="J77">
-        <v>-0.295638036183139</v>
+        <v>-0.1686083052347836</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2870,31 +2870,31 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.4478579200607188</v>
+        <v>-0.2578139848822729</v>
       </c>
       <c r="C78">
-        <v>0.3924866146874882</v>
+        <v>0.1251561109715519</v>
       </c>
       <c r="D78">
-        <v>0.3501185419845628</v>
+        <v>0.1518090342952446</v>
       </c>
       <c r="E78">
-        <v>0.6380510847971289</v>
+        <v>0.2452872016955623</v>
       </c>
       <c r="F78">
-        <v>0.4600682427827354</v>
+        <v>0.2099694922456021</v>
       </c>
       <c r="G78">
-        <v>0.4398584738594195</v>
+        <v>0.2141807378545364</v>
       </c>
       <c r="H78">
-        <v>0.7248994363081205</v>
+        <v>0.1495991610556462</v>
       </c>
       <c r="I78">
-        <v>-1.166563997386823</v>
+        <v>-0.08143494239764934</v>
       </c>
       <c r="J78">
-        <v>-0.1176576742105932</v>
+        <v>-0.07990303878463359</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2902,31 +2902,31 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.4578191747691141</v>
+        <v>-0.6498848444030324</v>
       </c>
       <c r="C79">
-        <v>0.2445378832100324</v>
+        <v>0.2491641268866255</v>
       </c>
       <c r="D79">
-        <v>0.2261139732204807</v>
+        <v>0.2440962617544865</v>
       </c>
       <c r="E79">
-        <v>0.6037717411741841</v>
+        <v>0.6330917801366778</v>
       </c>
       <c r="F79">
-        <v>0.3724365695185586</v>
+        <v>0.4264152889810028</v>
       </c>
       <c r="G79">
-        <v>0.425746427270954</v>
+        <v>0.4393980772392213</v>
       </c>
       <c r="H79">
-        <v>0.3068929356138402</v>
+        <v>0.3844436118134301</v>
       </c>
       <c r="I79">
-        <v>-0.185193345377917</v>
+        <v>-0.2563524759171087</v>
       </c>
       <c r="J79">
-        <v>-0.1668501229590585</v>
+        <v>-0.2877428645610824</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2934,31 +2934,31 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.461698653876547</v>
+        <v>-0.005664286634225876</v>
       </c>
       <c r="C80">
-        <v>0.3031502701154488</v>
+        <v>0.00218986550427918</v>
       </c>
       <c r="D80">
-        <v>0.2066169986160377</v>
+        <v>0.003815161961352489</v>
       </c>
       <c r="E80">
-        <v>0.5175364966617487</v>
+        <v>0.004570449114326562</v>
       </c>
       <c r="F80">
-        <v>0.3884604589744681</v>
+        <v>0.00504465834256873</v>
       </c>
       <c r="G80">
-        <v>0.3663695582085897</v>
+        <v>0.005289989490745327</v>
       </c>
       <c r="H80">
-        <v>0.6557634769556741</v>
+        <v>0.00263517309191797</v>
       </c>
       <c r="I80">
-        <v>-0.4622385967196654</v>
+        <v>-0.001097600590030379</v>
       </c>
       <c r="J80">
-        <v>-0.2500558908801872</v>
+        <v>-0.002830783256775374</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2966,31 +2966,31 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.7037803663044369</v>
+        <v>-0.2668723124097694</v>
       </c>
       <c r="C81">
-        <v>0.4849616038274109</v>
+        <v>0.1576080613448609</v>
       </c>
       <c r="D81">
-        <v>0.05341355447598323</v>
+        <v>0.1658321932590907</v>
       </c>
       <c r="E81">
-        <v>0.8733858380055675</v>
+        <v>0.2310877545608232</v>
       </c>
       <c r="F81">
-        <v>0.611680174352035</v>
+        <v>0.2149585123008703</v>
       </c>
       <c r="G81">
-        <v>0.6758490516498058</v>
+        <v>0.2321965648436623</v>
       </c>
       <c r="H81">
-        <v>0.4338332665619477</v>
+        <v>0.08600012486026097</v>
       </c>
       <c r="I81">
-        <v>-0.8069150584472773</v>
+        <v>-0.07337086487719935</v>
       </c>
       <c r="J81">
-        <v>-0.3631871758898704</v>
+        <v>-0.05220910058364264</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2998,31 +2998,31 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.5003570983938811</v>
+        <v>-0.6373651768581978</v>
       </c>
       <c r="C82">
-        <v>0.2233430177969797</v>
+        <v>0.3314955427974988</v>
       </c>
       <c r="D82">
-        <v>0.4457934176622556</v>
+        <v>0.2506962907615503</v>
       </c>
       <c r="E82">
-        <v>0.4565965393027014</v>
+        <v>0.5087611337666912</v>
       </c>
       <c r="F82">
-        <v>0.5446939709430706</v>
+        <v>0.4330967271069547</v>
       </c>
       <c r="G82">
-        <v>0.5798964559634578</v>
+        <v>0.4370164141625288</v>
       </c>
       <c r="H82">
-        <v>0.5280917522703998</v>
+        <v>0.3144033105670236</v>
       </c>
       <c r="I82">
-        <v>-0.9927878853922613</v>
+        <v>-0.2030911064609009</v>
       </c>
       <c r="J82">
-        <v>-0.4915903035070542</v>
+        <v>-0.1668427788435262</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3030,31 +3030,31 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.4991204095076036</v>
+        <v>-1.004217587339026</v>
       </c>
       <c r="C83">
-        <v>0.2617386035321245</v>
+        <v>0.2170242793272623</v>
       </c>
       <c r="D83">
-        <v>0.1860495899238861</v>
+        <v>0.105766558849522</v>
       </c>
       <c r="E83">
-        <v>0.6206399709350152</v>
+        <v>0.7003214080638362</v>
       </c>
       <c r="F83">
-        <v>0.3717555365769708</v>
+        <v>0.8446825972680133</v>
       </c>
       <c r="G83">
-        <v>0.4313543747946955</v>
+        <v>0.5671968693465986</v>
       </c>
       <c r="H83">
-        <v>0.4058649996506097</v>
+        <v>0.9241908852687502</v>
       </c>
       <c r="I83">
-        <v>-0.3040365415608246</v>
+        <v>-0.6297971250656124</v>
       </c>
       <c r="J83">
-        <v>-0.1968385338390107</v>
+        <v>-0.3186033082419578</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3062,31 +3062,31 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.548744161242531</v>
+        <v>-0.7011485313747383</v>
       </c>
       <c r="C84">
-        <v>0.445635563976186</v>
+        <v>0.3704158834621054</v>
       </c>
       <c r="D84">
-        <v>0.3935184658337725</v>
+        <v>-0.0795625816781758</v>
       </c>
       <c r="E84">
-        <v>0.5107983630322369</v>
+        <v>0.6116714343659981</v>
       </c>
       <c r="F84">
-        <v>0.5595710528912095</v>
+        <v>0.4784399722327479</v>
       </c>
       <c r="G84">
-        <v>0.5452136240882128</v>
+        <v>0.6565651913862284</v>
       </c>
       <c r="H84">
-        <v>1.036693745116924</v>
+        <v>0.609386000919675</v>
       </c>
       <c r="I84">
-        <v>-1.349409615539211</v>
+        <v>-0.3809628553507819</v>
       </c>
       <c r="J84">
-        <v>-0.1525298465822645</v>
+        <v>-0.2732039587781513</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3094,31 +3094,31 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.3820315604542199</v>
+        <v>-0.5343464276490295</v>
       </c>
       <c r="C85">
-        <v>0.1830631000751002</v>
+        <v>0.2867723706094474</v>
       </c>
       <c r="D85">
-        <v>0.2381672941258317</v>
+        <v>0.2720273040886611</v>
       </c>
       <c r="E85">
-        <v>0.4519133350159984</v>
+        <v>0.374165023805565</v>
       </c>
       <c r="F85">
-        <v>0.3288066191375586</v>
+        <v>0.3645471620144228</v>
       </c>
       <c r="G85">
-        <v>0.2850291116095082</v>
+        <v>0.4701304397138325</v>
       </c>
       <c r="H85">
-        <v>0.3636975361212014</v>
+        <v>0.3241582380607589</v>
       </c>
       <c r="I85">
-        <v>-0.2252274319482683</v>
+        <v>-0.1779460337547452</v>
       </c>
       <c r="J85">
-        <v>-0.1958905217473489</v>
+        <v>-0.2250396843954176</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3126,31 +3126,31 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.7149571832041303</v>
+        <v>-0.005801400696084124</v>
       </c>
       <c r="C86">
-        <v>0.4665742024599496</v>
+        <v>0.002435503508188413</v>
       </c>
       <c r="D86">
-        <v>0.05183764363413388</v>
+        <v>0.004112906573445388</v>
       </c>
       <c r="E86">
-        <v>0.6254674908301238</v>
+        <v>0.005258325666845642</v>
       </c>
       <c r="F86">
-        <v>0.6427838702469638</v>
+        <v>0.005071100024607934</v>
       </c>
       <c r="G86">
-        <v>0.6854432996572609</v>
+        <v>0.005189395636106331</v>
       </c>
       <c r="H86">
-        <v>0.4778915281288971</v>
+        <v>0.002494568716453858</v>
       </c>
       <c r="I86">
-        <v>-0.6098040930055284</v>
+        <v>-0.001102664807803423</v>
       </c>
       <c r="J86">
-        <v>-0.3053621318249916</v>
+        <v>-0.001323251209726758</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3158,31 +3158,31 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.2192567520106913</v>
+        <v>-0.7928807115409258</v>
       </c>
       <c r="C87">
-        <v>0.1216989500988822</v>
+        <v>0.3812777942714494</v>
       </c>
       <c r="D87">
-        <v>0.1695067673719945</v>
+        <v>0.2483197005118521</v>
       </c>
       <c r="E87">
-        <v>0.205241203023414</v>
+        <v>0.2918546930721627</v>
       </c>
       <c r="F87">
-        <v>0.2118528157412377</v>
+        <v>0.3727342170717415</v>
       </c>
       <c r="G87">
-        <v>0.2020439864141698</v>
+        <v>0.9446542459566245</v>
       </c>
       <c r="H87">
-        <v>0.09330113365880248</v>
+        <v>0.7104888870066746</v>
       </c>
       <c r="I87">
-        <v>-0.04923003155645243</v>
+        <v>-0.3822823787410639</v>
       </c>
       <c r="J87">
-        <v>-0.07571388081108088</v>
+        <v>-0.258757390002988</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3190,31 +3190,31 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.5342013410848044</v>
+        <v>-0.9439228148128346</v>
       </c>
       <c r="C88">
-        <v>0.2716386925567372</v>
+        <v>0.2642933950977725</v>
       </c>
       <c r="D88">
-        <v>0.257106521684851</v>
+        <v>0.1036030212186168</v>
       </c>
       <c r="E88">
-        <v>0.3671399730620448</v>
+        <v>0.9084942066826762</v>
       </c>
       <c r="F88">
-        <v>0.66649880356761</v>
+        <v>0.4361518895379339</v>
       </c>
       <c r="G88">
-        <v>0.7737547396886901</v>
+        <v>0.5647546247332974</v>
       </c>
       <c r="H88">
-        <v>0.684634673565872</v>
+        <v>0.837381003799137</v>
       </c>
       <c r="I88">
-        <v>-1.168629430948058</v>
+        <v>-0.4146649700849552</v>
       </c>
       <c r="J88">
-        <v>-0.5247706007586944</v>
+        <v>-0.3933525002651365</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3222,31 +3222,31 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.6099739573154057</v>
+        <v>-0.05410956970688367</v>
       </c>
       <c r="C89">
-        <v>0.4251541616695864</v>
+        <v>0.01796921556016477</v>
       </c>
       <c r="D89">
-        <v>0.2424316607915988</v>
+        <v>0.03895608778628702</v>
       </c>
       <c r="E89">
-        <v>0.8104025565360838</v>
+        <v>0.04511259936320981</v>
       </c>
       <c r="F89">
-        <v>0.5366703531930623</v>
+        <v>0.04611267401400053</v>
       </c>
       <c r="G89">
-        <v>0.4022771748788285</v>
+        <v>0.04524417907113337</v>
       </c>
       <c r="H89">
-        <v>0.383015831440541</v>
+        <v>0.02386933245043824</v>
       </c>
       <c r="I89">
-        <v>-0.524219653806826</v>
+        <v>-0.01012951995841293</v>
       </c>
       <c r="J89">
-        <v>-0.260619790024379</v>
+        <v>-0.02490741267312487</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3254,31 +3254,31 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.3619755515991263</v>
+        <v>-0.6073237376783108</v>
       </c>
       <c r="C90">
-        <v>0.3039443393094076</v>
+        <v>0.1804280517310902</v>
       </c>
       <c r="D90">
-        <v>0.1434921836146474</v>
+        <v>0.259739987041932</v>
       </c>
       <c r="E90">
-        <v>0.3191533927715536</v>
+        <v>0.5605872423310339</v>
       </c>
       <c r="F90">
-        <v>0.3387732005336847</v>
+        <v>0.4917139046401018</v>
       </c>
       <c r="G90">
-        <v>0.3770384927996622</v>
+        <v>0.3803135713791919</v>
       </c>
       <c r="H90">
-        <v>0.3397674689124288</v>
+        <v>0.4513386157090766</v>
       </c>
       <c r="I90">
-        <v>-0.1879364450130686</v>
+        <v>-0.371730754218238</v>
       </c>
       <c r="J90">
-        <v>-0.2084453670428812</v>
+        <v>-0.1929707357610931</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3286,31 +3286,31 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.5201359617268062</v>
+        <v>-1.069235857888124</v>
       </c>
       <c r="C91">
-        <v>0.3629857155943747</v>
+        <v>0.3948138767273475</v>
       </c>
       <c r="D91">
-        <v>0.1863175425081515</v>
+        <v>-0.01554543029847162</v>
       </c>
       <c r="E91">
-        <v>0.6646489256888033</v>
+        <v>0.977152476441961</v>
       </c>
       <c r="F91">
-        <v>0.4154183860501218</v>
+        <v>0.51712698717709</v>
       </c>
       <c r="G91">
-        <v>0.4913376809333082</v>
+        <v>0.6231779316285783</v>
       </c>
       <c r="H91">
-        <v>0.3583006331715562</v>
+        <v>0.7970836988259029</v>
       </c>
       <c r="I91">
-        <v>-0.3141787398086288</v>
+        <v>-0.5611965987215979</v>
       </c>
       <c r="J91">
-        <v>-0.1007206074845819</v>
+        <v>-0.4030668184444825</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3318,31 +3318,31 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.3486893100956953</v>
+        <v>-0.4558845372058844</v>
       </c>
       <c r="C92">
-        <v>0.4074212331842803</v>
+        <v>0.2072098837762933</v>
       </c>
       <c r="D92">
-        <v>0.07244757753237493</v>
+        <v>0.157592872811687</v>
       </c>
       <c r="E92">
-        <v>0.6327664307476984</v>
+        <v>0.3960499621412514</v>
       </c>
       <c r="F92">
-        <v>0.4142029394813944</v>
+        <v>0.3750585400727109</v>
       </c>
       <c r="G92">
-        <v>0.4731907855339969</v>
+        <v>0.4167321905818506</v>
       </c>
       <c r="H92">
-        <v>0.4177449087562154</v>
+        <v>0.334468711298837</v>
       </c>
       <c r="I92">
-        <v>-0.8361998402368749</v>
+        <v>-0.2687030365738751</v>
       </c>
       <c r="J92">
-        <v>-0.3161750357241672</v>
+        <v>-0.163296558258592</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3350,31 +3350,31 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.5231572490845724</v>
+        <v>-0.004734561295899205</v>
       </c>
       <c r="C93">
-        <v>0.3962186427648816</v>
+        <v>0.002936570717685043</v>
       </c>
       <c r="D93">
-        <v>0.2535441987029084</v>
+        <v>0.003818786146836868</v>
       </c>
       <c r="E93">
-        <v>0.8774865494642521</v>
+        <v>0.00463617881483445</v>
       </c>
       <c r="F93">
-        <v>0.4045789898010335</v>
+        <v>0.004422673004696021</v>
       </c>
       <c r="G93">
-        <v>0.3681998903135041</v>
+        <v>0.004195280773212649</v>
       </c>
       <c r="H93">
-        <v>0.5798654120340522</v>
+        <v>0.002767353222284595</v>
       </c>
       <c r="I93">
-        <v>-0.9453035074079424</v>
+        <v>-0.001106948649340933</v>
       </c>
       <c r="J93">
-        <v>-0.3619369509537945</v>
+        <v>-0.001046417445213574</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3382,31 +3382,31 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.628962467890317</v>
+        <v>-0.5029558085632791</v>
       </c>
       <c r="C94">
-        <v>0.3560443009991836</v>
+        <v>0.1189217134036365</v>
       </c>
       <c r="D94">
-        <v>-0.0175787462825061</v>
+        <v>0.2802591364676376</v>
       </c>
       <c r="E94">
-        <v>0.7339892031024163</v>
+        <v>0.4523675712521005</v>
       </c>
       <c r="F94">
-        <v>0.6173136119318803</v>
+        <v>0.3484835978016567</v>
       </c>
       <c r="G94">
-        <v>0.7677939281400333</v>
+        <v>0.3777168345713355</v>
       </c>
       <c r="H94">
-        <v>0.8258962887233183</v>
+        <v>0.4013903821485397</v>
       </c>
       <c r="I94">
-        <v>-0.9422397358300186</v>
+        <v>-0.2994950488879389</v>
       </c>
       <c r="J94">
-        <v>-0.2521289291844656</v>
+        <v>-0.1503334194820726</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3414,31 +3414,31 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.4079803339525894</v>
+        <v>-0.2647075949210773</v>
       </c>
       <c r="C95">
-        <v>0.3053047800808542</v>
+        <v>0.13362383708837</v>
       </c>
       <c r="D95">
-        <v>0.2651544106639461</v>
+        <v>0.1663151701488515</v>
       </c>
       <c r="E95">
-        <v>0.4273180206060886</v>
+        <v>0.2503736247820023</v>
       </c>
       <c r="F95">
-        <v>0.3525043859822125</v>
+        <v>0.204295663023887</v>
       </c>
       <c r="G95">
-        <v>0.3809640057816808</v>
+        <v>0.2197997140811581</v>
       </c>
       <c r="H95">
-        <v>0.1873060694900507</v>
+        <v>0.1425916924324437</v>
       </c>
       <c r="I95">
-        <v>-0.1537918659883118</v>
+        <v>-0.08722100093932772</v>
       </c>
       <c r="J95">
-        <v>-0.1830161695023727</v>
+        <v>-0.06803349462428654</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3446,31 +3446,31 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.262792918269584</v>
+        <v>-0.785476049934799</v>
       </c>
       <c r="C96">
-        <v>0.1314926267721694</v>
+        <v>0.295188077638508</v>
       </c>
       <c r="D96">
-        <v>0.1831646642798644</v>
+        <v>0.04484337598635788</v>
       </c>
       <c r="E96">
-        <v>0.2428627386289188</v>
+        <v>0.7933701056612885</v>
       </c>
       <c r="F96">
-        <v>0.2073466884970007</v>
+        <v>0.5517487495171207</v>
       </c>
       <c r="G96">
-        <v>0.1929887513855281</v>
+        <v>0.6017220790650445</v>
       </c>
       <c r="H96">
-        <v>0.1379634981892746</v>
+        <v>0.530165815259892</v>
       </c>
       <c r="I96">
-        <v>-0.0528121814885072</v>
+        <v>-0.3614188200101292</v>
       </c>
       <c r="J96">
-        <v>-0.095059599791773</v>
+        <v>-0.328063777163819</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3478,31 +3478,31 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.3842970850459423</v>
+        <v>-0.4522200642794028</v>
       </c>
       <c r="C97">
-        <v>0.2412772946096097</v>
+        <v>0.1489215912433987</v>
       </c>
       <c r="D97">
-        <v>0.3366372610607147</v>
+        <v>0.192381491637032</v>
       </c>
       <c r="E97">
-        <v>0.7075674437370589</v>
+        <v>0.3842705541443501</v>
       </c>
       <c r="F97">
-        <v>0.3637780915828486</v>
+        <v>0.425983395129478</v>
       </c>
       <c r="G97">
-        <v>0.3792781616243429</v>
+        <v>0.3189204855877928</v>
       </c>
       <c r="H97">
-        <v>0.6928514542206536</v>
+        <v>0.3266867675223353</v>
       </c>
       <c r="I97">
-        <v>-0.9686262598578531</v>
+        <v>-0.2353933185728743</v>
       </c>
       <c r="J97">
-        <v>-0.2926984450574899</v>
+        <v>-0.2456890143112798</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3510,31 +3510,31 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.3213698969970642</v>
+        <v>-0.2803604358943446</v>
       </c>
       <c r="C98">
-        <v>0.2596754431680438</v>
+        <v>0.1158551345077714</v>
       </c>
       <c r="D98">
-        <v>0.1780694031047104</v>
+        <v>0.154090505171229</v>
       </c>
       <c r="E98">
-        <v>0.3497370057954362</v>
+        <v>0.2519101034412569</v>
       </c>
       <c r="F98">
-        <v>0.2938461050478088</v>
+        <v>0.2143843735410168</v>
       </c>
       <c r="G98">
-        <v>0.3728684612045958</v>
+        <v>0.2342187774626207</v>
       </c>
       <c r="H98">
-        <v>0.3163119952743129</v>
+        <v>0.1555704971958264</v>
       </c>
       <c r="I98">
-        <v>-0.2219123218113594</v>
+        <v>-0.07873292289912549</v>
       </c>
       <c r="J98">
-        <v>-0.204879890577005</v>
+        <v>-0.08029703400193638</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3542,31 +3542,31 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.403299138935364</v>
+        <v>-0.5719924457490967</v>
       </c>
       <c r="C99">
-        <v>0.4452668261031424</v>
+        <v>0.1153039911516275</v>
       </c>
       <c r="D99">
-        <v>0.3277944295524844</v>
+        <v>0.4188185617799846</v>
       </c>
       <c r="E99">
-        <v>0.6497031334945559</v>
+        <v>0.4698648747229104</v>
       </c>
       <c r="F99">
-        <v>0.4146541311577267</v>
+        <v>0.3869480607080716</v>
       </c>
       <c r="G99">
-        <v>0.3981916099415381</v>
+        <v>0.372237605900849</v>
       </c>
       <c r="H99">
-        <v>0.5157216602695038</v>
+        <v>0.3479106732615995</v>
       </c>
       <c r="I99">
-        <v>-0.956399444602711</v>
+        <v>-0.3285401194178453</v>
       </c>
       <c r="J99">
-        <v>-0.445186818526669</v>
+        <v>-0.172271032323991</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3574,31 +3574,31 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.4477578236607273</v>
+        <v>-0.5244619004447141</v>
       </c>
       <c r="C100">
-        <v>0.1495850873712389</v>
+        <v>0.2526021126263613</v>
       </c>
       <c r="D100">
-        <v>0.2735641714879406</v>
+        <v>0.2349972716862737</v>
       </c>
       <c r="E100">
-        <v>0.4498964924112547</v>
+        <v>0.3620347061610231</v>
       </c>
       <c r="F100">
-        <v>0.39435968232507</v>
+        <v>0.3963284550716145</v>
       </c>
       <c r="G100">
-        <v>0.4117501873336444</v>
+        <v>0.4265985439244357</v>
       </c>
       <c r="H100">
-        <v>0.2114813721815091</v>
+        <v>0.2968495883837052</v>
       </c>
       <c r="I100">
-        <v>-0.2135723207115742</v>
+        <v>-0.2629501894768749</v>
       </c>
       <c r="J100">
-        <v>-0.2167047308705323</v>
+        <v>-0.2432689865515304</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3606,31 +3606,31 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.4578945827900328</v>
+        <v>-0.5096596834070409</v>
       </c>
       <c r="C101">
-        <v>0.3965326347580137</v>
+        <v>0.2776236836536237</v>
       </c>
       <c r="D101">
-        <v>0.2691227128618567</v>
+        <v>0.2891379621544232</v>
       </c>
       <c r="E101">
-        <v>0.7109675338102466</v>
+        <v>0.346135939668673</v>
       </c>
       <c r="F101">
-        <v>0.5284964061914492</v>
+        <v>0.3783020924860176</v>
       </c>
       <c r="G101">
-        <v>0.5076969838352957</v>
+        <v>0.387423325433343</v>
       </c>
       <c r="H101">
-        <v>0.5970567062414602</v>
+        <v>0.3060314427641338</v>
       </c>
       <c r="I101">
-        <v>-1.400095096539678</v>
+        <v>-0.2816124005568544</v>
       </c>
       <c r="J101">
-        <v>-0.4885661596701408</v>
+        <v>-0.2264056796779219</v>
       </c>
     </row>
   </sheetData>
